--- a/Data Files/Input Validation/02. receivedate/Auto_ReceiveDate_C3-6.xlsx
+++ b/Data Files/Input Validation/02. receivedate/Auto_ReceiveDate_C3-6.xlsx
@@ -160,7 +160,7 @@
     <t xml:space="preserve">TG-HNM-L14-752</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-08-16</t>
+    <t xml:space="preserve">2023-09-01</t>
   </si>
   <si>
     <t xml:space="preserve">2023-09-15</t>
@@ -365,7 +365,7 @@
   <dimension ref="A1:XFD996"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.66796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Data Files/Input Validation/02. receivedate/Auto_ReceiveDate_C3-6.xlsx
+++ b/Data Files/Input Validation/02. receivedate/Auto_ReceiveDate_C3-6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736E6D33-3B04-4567-BC36-E8FB7064BB19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E4AB75-AF88-4289-B4C1-30F7572F6BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2376" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -237,7 +237,7 @@
     <t>AS9</t>
   </si>
   <si>
-    <t>2023-09-16</t>
+    <t>2023-10-01</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Input Validation/02. receivedate/Auto_ReceiveDate_C3-6.xlsx
+++ b/Data Files/Input Validation/02. receivedate/Auto_ReceiveDate_C3-6.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E4AB75-AF88-4289-B4C1-30F7572F6BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C52E0EA-CDEC-4273-996B-A3184A74A6AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2688" yWindow="2376" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="72">
   <si>
     <t>contractNo</t>
   </si>
@@ -238,6 +238,9 @@
   </si>
   <si>
     <t>2023-10-01</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -605,7 +608,7 @@
   <dimension ref="A1:XFD996"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="AO2" sqref="AO2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -899,7 +902,7 @@
       <c r="AM2" s="2"/>
       <c r="AN2" s="2"/>
       <c r="AO2" s="3" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="AP2" s="2" t="s">
         <v>53</v>

--- a/Data Files/Input Validation/02. receivedate/Auto_ReceiveDate_C3-6.xlsx
+++ b/Data Files/Input Validation/02. receivedate/Auto_ReceiveDate_C3-6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C52E0EA-CDEC-4273-996B-A3184A74A6AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9340A7FB-27C9-41EE-B1EB-BBE61344DE48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2376" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -237,10 +237,10 @@
     <t>AS9</t>
   </si>
   <si>
-    <t>2023-10-01</t>
+    <t/>
   </si>
   <si>
-    <t/>
+    <t>2023-11-01</t>
   </si>
 </sst>
 </file>
@@ -808,7 +808,7 @@
         <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>46</v>
@@ -902,7 +902,7 @@
       <c r="AM2" s="2"/>
       <c r="AN2" s="2"/>
       <c r="AO2" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AP2" s="2" t="s">
         <v>53</v>

--- a/Data Files/Input Validation/02. receivedate/Auto_ReceiveDate_C3-6.xlsx
+++ b/Data Files/Input Validation/02. receivedate/Auto_ReceiveDate_C3-6.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\test gestamp\Data Files\Input Validation\02. receivedate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9340A7FB-27C9-41EE-B1EB-BBE61344DE48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D48E5B9-9982-4C90-ACC8-2A2263E6BE09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="1116" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1950" windowWidth="27675" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
   <si>
     <t>contractNo</t>
   </si>
@@ -240,7 +240,7 @@
     <t/>
   </si>
   <si>
-    <t>2023-11-01</t>
+    <t>2023-11-16</t>
   </si>
 </sst>
 </file>
@@ -608,60 +608,59 @@
   <dimension ref="A1:XFD996"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AO2" sqref="AO2"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.21875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" style="1" customWidth="1"/>
     <col min="10" max="10" width="11" style="1" customWidth="1"/>
-    <col min="11" max="12" width="10.44140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="14.109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.77734375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="18.6640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="19.109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="14.44140625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="20.6640625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="20.44140625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="20.109375" style="1" customWidth="1"/>
+    <col min="11" max="12" width="10.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="19.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="20.7109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="20.42578125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="20.140625" style="1" customWidth="1"/>
     <col min="21" max="21" width="22" style="1" customWidth="1"/>
-    <col min="22" max="22" width="12.109375" style="1" customWidth="1"/>
-    <col min="23" max="23" width="7.44140625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="6.88671875" style="1" customWidth="1"/>
-    <col min="25" max="25" width="11.44140625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="13.88671875" style="1" customWidth="1"/>
-    <col min="27" max="27" width="4.5546875" style="1" customWidth="1"/>
-    <col min="28" max="28" width="8.109375" style="1" customWidth="1"/>
-    <col min="29" max="29" width="12.33203125" style="1" customWidth="1"/>
-    <col min="30" max="30" width="10.6640625" style="1" customWidth="1"/>
-    <col min="31" max="31" width="13.44140625" style="1" customWidth="1"/>
-    <col min="32" max="32" width="14.109375" style="1" customWidth="1"/>
-    <col min="33" max="33" width="11.6640625" style="1" customWidth="1"/>
-    <col min="34" max="34" width="8.6640625" style="1" customWidth="1"/>
-    <col min="35" max="35" width="8.77734375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="12.140625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="7.42578125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="6.85546875" style="1" customWidth="1"/>
+    <col min="25" max="25" width="11.42578125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="13.85546875" style="1" customWidth="1"/>
+    <col min="27" max="27" width="4.5703125" style="1" customWidth="1"/>
+    <col min="28" max="28" width="8.140625" style="1" customWidth="1"/>
+    <col min="29" max="29" width="12.28515625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="10.7109375" style="1" customWidth="1"/>
+    <col min="31" max="31" width="13.42578125" style="1" customWidth="1"/>
+    <col min="32" max="32" width="14.140625" style="1" customWidth="1"/>
+    <col min="33" max="33" width="11.7109375" style="1" customWidth="1"/>
+    <col min="34" max="35" width="8.7109375" style="1" customWidth="1"/>
     <col min="36" max="36" width="9" style="1" customWidth="1"/>
-    <col min="37" max="37" width="42.77734375" style="1" customWidth="1"/>
+    <col min="37" max="37" width="42.7109375" style="1" customWidth="1"/>
     <col min="38" max="38" width="10" style="1" customWidth="1"/>
-    <col min="39" max="39" width="12.77734375" style="1" customWidth="1"/>
-    <col min="40" max="40" width="14.44140625" style="1" customWidth="1"/>
-    <col min="41" max="41" width="11.6640625" style="1" customWidth="1"/>
-    <col min="42" max="42" width="17.21875" style="1" customWidth="1"/>
-    <col min="43" max="43" width="18.44140625" style="1" customWidth="1"/>
-    <col min="44" max="44" width="10.21875" style="1" customWidth="1"/>
-    <col min="45" max="45" width="8.77734375" style="1" customWidth="1"/>
-    <col min="46" max="16380" width="2.6640625" style="1"/>
-    <col min="16384" max="16384" width="2.6640625" style="1"/>
+    <col min="39" max="39" width="12.7109375" style="1" customWidth="1"/>
+    <col min="40" max="40" width="14.42578125" style="1" customWidth="1"/>
+    <col min="41" max="41" width="11.7109375" style="1" customWidth="1"/>
+    <col min="42" max="42" width="17.28515625" style="1" customWidth="1"/>
+    <col min="43" max="43" width="18.42578125" style="1" customWidth="1"/>
+    <col min="44" max="44" width="10.28515625" style="1" customWidth="1"/>
+    <col min="45" max="45" width="8.7109375" style="1" customWidth="1"/>
+    <col min="46" max="16380" width="2.7109375" style="1"/>
+    <col min="16384" max="16384" width="2.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50 16384:16384" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:50 16384:16384" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -803,7 +802,7 @@
       <c r="AW1" s="2"/>
       <c r="AX1" s="2"/>
     </row>
-    <row r="2" spans="1:50 16384:16384" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:50 16384:16384" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>45</v>
       </c>
@@ -829,7 +828,9 @@
         <v>51</v>
       </c>
       <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2" t="s">
         <v>52</v>
@@ -922,7 +923,7 @@
       <c r="AW2" s="2"/>
       <c r="AX2" s="2"/>
     </row>
-    <row r="3" spans="1:50 16384:16384" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:50 16384:16384" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -975,7 +976,7 @@
       <c r="AX3" s="2"/>
       <c r="XFD3"/>
     </row>
-    <row r="4" spans="1:50 16384:16384" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:50 16384:16384" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1027,7 +1028,7 @@
       <c r="AW4" s="2"/>
       <c r="AX4" s="2"/>
     </row>
-    <row r="5" spans="1:50 16384:16384" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:50 16384:16384" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1079,7 +1080,7 @@
       <c r="AW5" s="2"/>
       <c r="AX5" s="2"/>
     </row>
-    <row r="6" spans="1:50 16384:16384" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:50 16384:16384" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1131,7 +1132,7 @@
       <c r="AW6" s="2"/>
       <c r="AX6" s="2"/>
     </row>
-    <row r="7" spans="1:50 16384:16384" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:50 16384:16384" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -1181,7 +1182,7 @@
       <c r="AW7" s="2"/>
       <c r="AX7" s="2"/>
     </row>
-    <row r="8" spans="1:50 16384:16384" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:50 16384:16384" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1232,7 +1233,7 @@
       <c r="AW8" s="2"/>
       <c r="AX8" s="2"/>
     </row>
-    <row r="9" spans="1:50 16384:16384" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:50 16384:16384" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1283,7 +1284,7 @@
       <c r="AW9" s="2"/>
       <c r="AX9" s="2"/>
     </row>
-    <row r="10" spans="1:50 16384:16384" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:50 16384:16384" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1334,7 +1335,7 @@
       <c r="AW10" s="2"/>
       <c r="AX10" s="2"/>
     </row>
-    <row r="11" spans="1:50 16384:16384" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:50 16384:16384" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1385,7 +1386,7 @@
       <c r="AW11" s="2"/>
       <c r="AX11" s="2"/>
     </row>
-    <row r="12" spans="1:50 16384:16384" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:50 16384:16384" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1437,7 +1438,7 @@
       <c r="AW12" s="2"/>
       <c r="AX12" s="2"/>
     </row>
-    <row r="13" spans="1:50 16384:16384" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:50 16384:16384" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1488,7 +1489,7 @@
       <c r="AW13" s="2"/>
       <c r="AX13" s="2"/>
     </row>
-    <row r="14" spans="1:50 16384:16384" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:50 16384:16384" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1540,7 +1541,7 @@
       <c r="AW14" s="2"/>
       <c r="AX14" s="2"/>
     </row>
-    <row r="15" spans="1:50 16384:16384" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:50 16384:16384" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1592,7 +1593,7 @@
       <c r="AW15" s="2"/>
       <c r="AX15" s="2"/>
     </row>
-    <row r="16" spans="1:50 16384:16384" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:50 16384:16384" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1644,7 +1645,7 @@
       <c r="AW16" s="2"/>
       <c r="AX16" s="2"/>
     </row>
-    <row r="17" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1696,7 +1697,7 @@
       <c r="AW17" s="2"/>
       <c r="AX17" s="2"/>
     </row>
-    <row r="18" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1748,7 +1749,7 @@
       <c r="AW18" s="2"/>
       <c r="AX18" s="2"/>
     </row>
-    <row r="19" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1800,7 +1801,7 @@
       <c r="AW19" s="2"/>
       <c r="AX19" s="2"/>
     </row>
-    <row r="20" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1852,7 +1853,7 @@
       <c r="AW20" s="2"/>
       <c r="AX20" s="2"/>
     </row>
-    <row r="21" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1904,7 +1905,7 @@
       <c r="AW21" s="2"/>
       <c r="AX21" s="2"/>
     </row>
-    <row r="22" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1956,7 +1957,7 @@
       <c r="AW22" s="2"/>
       <c r="AX22" s="2"/>
     </row>
-    <row r="23" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -2008,7 +2009,7 @@
       <c r="AW23" s="2"/>
       <c r="AX23" s="2"/>
     </row>
-    <row r="24" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -2060,7 +2061,7 @@
       <c r="AW24" s="2"/>
       <c r="AX24" s="2"/>
     </row>
-    <row r="25" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -2112,7 +2113,7 @@
       <c r="AW25" s="2"/>
       <c r="AX25" s="2"/>
     </row>
-    <row r="26" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -2164,7 +2165,7 @@
       <c r="AW26" s="2"/>
       <c r="AX26" s="2"/>
     </row>
-    <row r="27" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -2216,7 +2217,7 @@
       <c r="AW27" s="2"/>
       <c r="AX27" s="2"/>
     </row>
-    <row r="28" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2268,7 +2269,7 @@
       <c r="AW28" s="2"/>
       <c r="AX28" s="2"/>
     </row>
-    <row r="29" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2320,7 +2321,7 @@
       <c r="AW29" s="2"/>
       <c r="AX29" s="2"/>
     </row>
-    <row r="30" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -2372,7 +2373,7 @@
       <c r="AW30" s="2"/>
       <c r="AX30" s="2"/>
     </row>
-    <row r="31" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -2424,7 +2425,7 @@
       <c r="AW31" s="2"/>
       <c r="AX31" s="2"/>
     </row>
-    <row r="32" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -2476,7 +2477,7 @@
       <c r="AW32" s="2"/>
       <c r="AX32" s="2"/>
     </row>
-    <row r="33" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -2528,7 +2529,7 @@
       <c r="AW33" s="2"/>
       <c r="AX33" s="2"/>
     </row>
-    <row r="34" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -2580,7 +2581,7 @@
       <c r="AW34" s="2"/>
       <c r="AX34" s="2"/>
     </row>
-    <row r="35" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -2632,7 +2633,7 @@
       <c r="AW35" s="2"/>
       <c r="AX35" s="2"/>
     </row>
-    <row r="36" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -2684,7 +2685,7 @@
       <c r="AW36" s="2"/>
       <c r="AX36" s="2"/>
     </row>
-    <row r="37" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -2736,7 +2737,7 @@
       <c r="AW37" s="2"/>
       <c r="AX37" s="2"/>
     </row>
-    <row r="38" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -2788,7 +2789,7 @@
       <c r="AW38" s="2"/>
       <c r="AX38" s="2"/>
     </row>
-    <row r="39" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -2840,7 +2841,7 @@
       <c r="AW39" s="2"/>
       <c r="AX39" s="2"/>
     </row>
-    <row r="40" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -2892,7 +2893,7 @@
       <c r="AW40" s="2"/>
       <c r="AX40" s="2"/>
     </row>
-    <row r="41" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -2944,7 +2945,7 @@
       <c r="AW41" s="2"/>
       <c r="AX41" s="2"/>
     </row>
-    <row r="42" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -2996,7 +2997,7 @@
       <c r="AW42" s="2"/>
       <c r="AX42" s="2"/>
     </row>
-    <row r="43" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -3048,7 +3049,7 @@
       <c r="AW43" s="2"/>
       <c r="AX43" s="2"/>
     </row>
-    <row r="44" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -3100,7 +3101,7 @@
       <c r="AW44" s="2"/>
       <c r="AX44" s="2"/>
     </row>
-    <row r="45" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -3152,7 +3153,7 @@
       <c r="AW45" s="2"/>
       <c r="AX45" s="2"/>
     </row>
-    <row r="46" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -3204,7 +3205,7 @@
       <c r="AW46" s="2"/>
       <c r="AX46" s="2"/>
     </row>
-    <row r="47" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -3256,7 +3257,7 @@
       <c r="AW47" s="2"/>
       <c r="AX47" s="2"/>
     </row>
-    <row r="48" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -3308,7 +3309,7 @@
       <c r="AW48" s="2"/>
       <c r="AX48" s="2"/>
     </row>
-    <row r="49" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -3360,7 +3361,7 @@
       <c r="AW49" s="2"/>
       <c r="AX49" s="2"/>
     </row>
-    <row r="50" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -3412,7 +3413,7 @@
       <c r="AW50" s="2"/>
       <c r="AX50" s="2"/>
     </row>
-    <row r="51" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -3464,7 +3465,7 @@
       <c r="AW51" s="2"/>
       <c r="AX51" s="2"/>
     </row>
-    <row r="52" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -3516,7 +3517,7 @@
       <c r="AW52" s="2"/>
       <c r="AX52" s="2"/>
     </row>
-    <row r="53" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -3568,7 +3569,7 @@
       <c r="AW53" s="2"/>
       <c r="AX53" s="2"/>
     </row>
-    <row r="54" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -3620,7 +3621,7 @@
       <c r="AW54" s="2"/>
       <c r="AX54" s="2"/>
     </row>
-    <row r="55" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -3672,7 +3673,7 @@
       <c r="AW55" s="2"/>
       <c r="AX55" s="2"/>
     </row>
-    <row r="56" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -3724,7 +3725,7 @@
       <c r="AW56" s="2"/>
       <c r="AX56" s="2"/>
     </row>
-    <row r="57" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -3776,7 +3777,7 @@
       <c r="AW57" s="2"/>
       <c r="AX57" s="2"/>
     </row>
-    <row r="58" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -3828,7 +3829,7 @@
       <c r="AW58" s="2"/>
       <c r="AX58" s="2"/>
     </row>
-    <row r="59" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -3880,7 +3881,7 @@
       <c r="AW59" s="2"/>
       <c r="AX59" s="2"/>
     </row>
-    <row r="60" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -3932,7 +3933,7 @@
       <c r="AW60" s="2"/>
       <c r="AX60" s="2"/>
     </row>
-    <row r="61" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -3984,7 +3985,7 @@
       <c r="AW61" s="2"/>
       <c r="AX61" s="2"/>
     </row>
-    <row r="62" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -4036,7 +4037,7 @@
       <c r="AW62" s="2"/>
       <c r="AX62" s="2"/>
     </row>
-    <row r="63" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -4088,7 +4089,7 @@
       <c r="AW63" s="2"/>
       <c r="AX63" s="2"/>
     </row>
-    <row r="64" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -4140,7 +4141,7 @@
       <c r="AW64" s="2"/>
       <c r="AX64" s="2"/>
     </row>
-    <row r="65" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -4192,7 +4193,7 @@
       <c r="AW65" s="2"/>
       <c r="AX65" s="2"/>
     </row>
-    <row r="66" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -4244,7 +4245,7 @@
       <c r="AW66" s="2"/>
       <c r="AX66" s="2"/>
     </row>
-    <row r="67" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -4296,7 +4297,7 @@
       <c r="AW67" s="2"/>
       <c r="AX67" s="2"/>
     </row>
-    <row r="68" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -4348,7 +4349,7 @@
       <c r="AW68" s="2"/>
       <c r="AX68" s="2"/>
     </row>
-    <row r="69" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -4400,7 +4401,7 @@
       <c r="AW69" s="2"/>
       <c r="AX69" s="2"/>
     </row>
-    <row r="70" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -4452,7 +4453,7 @@
       <c r="AW70" s="2"/>
       <c r="AX70" s="2"/>
     </row>
-    <row r="71" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -4504,7 +4505,7 @@
       <c r="AW71" s="2"/>
       <c r="AX71" s="2"/>
     </row>
-    <row r="72" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -4556,7 +4557,7 @@
       <c r="AW72" s="2"/>
       <c r="AX72" s="2"/>
     </row>
-    <row r="73" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -4608,7 +4609,7 @@
       <c r="AW73" s="2"/>
       <c r="AX73" s="2"/>
     </row>
-    <row r="74" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -4660,7 +4661,7 @@
       <c r="AW74" s="2"/>
       <c r="AX74" s="2"/>
     </row>
-    <row r="75" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -4712,7 +4713,7 @@
       <c r="AW75" s="2"/>
       <c r="AX75" s="2"/>
     </row>
-    <row r="76" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -4764,7 +4765,7 @@
       <c r="AW76" s="2"/>
       <c r="AX76" s="2"/>
     </row>
-    <row r="77" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -4816,7 +4817,7 @@
       <c r="AW77" s="2"/>
       <c r="AX77" s="2"/>
     </row>
-    <row r="78" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -4868,7 +4869,7 @@
       <c r="AW78" s="2"/>
       <c r="AX78" s="2"/>
     </row>
-    <row r="79" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -4920,7 +4921,7 @@
       <c r="AW79" s="2"/>
       <c r="AX79" s="2"/>
     </row>
-    <row r="80" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -4972,7 +4973,7 @@
       <c r="AW80" s="2"/>
       <c r="AX80" s="2"/>
     </row>
-    <row r="81" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -5024,7 +5025,7 @@
       <c r="AW81" s="2"/>
       <c r="AX81" s="2"/>
     </row>
-    <row r="82" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -5076,7 +5077,7 @@
       <c r="AW82" s="2"/>
       <c r="AX82" s="2"/>
     </row>
-    <row r="83" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -5128,7 +5129,7 @@
       <c r="AW83" s="2"/>
       <c r="AX83" s="2"/>
     </row>
-    <row r="84" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -5180,7 +5181,7 @@
       <c r="AW84" s="2"/>
       <c r="AX84" s="2"/>
     </row>
-    <row r="85" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -5232,7 +5233,7 @@
       <c r="AW85" s="2"/>
       <c r="AX85" s="2"/>
     </row>
-    <row r="86" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -5284,7 +5285,7 @@
       <c r="AW86" s="2"/>
       <c r="AX86" s="2"/>
     </row>
-    <row r="87" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -5336,7 +5337,7 @@
       <c r="AW87" s="2"/>
       <c r="AX87" s="2"/>
     </row>
-    <row r="88" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -5388,7 +5389,7 @@
       <c r="AW88" s="2"/>
       <c r="AX88" s="2"/>
     </row>
-    <row r="89" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -5440,7 +5441,7 @@
       <c r="AW89" s="2"/>
       <c r="AX89" s="2"/>
     </row>
-    <row r="90" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -5492,7 +5493,7 @@
       <c r="AW90" s="2"/>
       <c r="AX90" s="2"/>
     </row>
-    <row r="91" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -5544,7 +5545,7 @@
       <c r="AW91" s="2"/>
       <c r="AX91" s="2"/>
     </row>
-    <row r="92" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -5596,7 +5597,7 @@
       <c r="AW92" s="2"/>
       <c r="AX92" s="2"/>
     </row>
-    <row r="93" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -5648,7 +5649,7 @@
       <c r="AW93" s="2"/>
       <c r="AX93" s="2"/>
     </row>
-    <row r="94" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -5700,7 +5701,7 @@
       <c r="AW94" s="2"/>
       <c r="AX94" s="2"/>
     </row>
-    <row r="95" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -5752,7 +5753,7 @@
       <c r="AW95" s="2"/>
       <c r="AX95" s="2"/>
     </row>
-    <row r="96" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -5804,7 +5805,7 @@
       <c r="AW96" s="2"/>
       <c r="AX96" s="2"/>
     </row>
-    <row r="97" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -5856,7 +5857,7 @@
       <c r="AW97" s="2"/>
       <c r="AX97" s="2"/>
     </row>
-    <row r="98" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -5908,7 +5909,7 @@
       <c r="AW98" s="2"/>
       <c r="AX98" s="2"/>
     </row>
-    <row r="99" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -5960,7 +5961,7 @@
       <c r="AW99" s="2"/>
       <c r="AX99" s="2"/>
     </row>
-    <row r="100" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -6012,7 +6013,7 @@
       <c r="AW100" s="2"/>
       <c r="AX100" s="2"/>
     </row>
-    <row r="101" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -6064,7 +6065,7 @@
       <c r="AW101" s="2"/>
       <c r="AX101" s="2"/>
     </row>
-    <row r="102" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -6116,7 +6117,7 @@
       <c r="AW102" s="2"/>
       <c r="AX102" s="2"/>
     </row>
-    <row r="103" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -6168,7 +6169,7 @@
       <c r="AW103" s="2"/>
       <c r="AX103" s="2"/>
     </row>
-    <row r="104" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -6220,7 +6221,7 @@
       <c r="AW104" s="2"/>
       <c r="AX104" s="2"/>
     </row>
-    <row r="105" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -6272,7 +6273,7 @@
       <c r="AW105" s="2"/>
       <c r="AX105" s="2"/>
     </row>
-    <row r="106" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -6324,7 +6325,7 @@
       <c r="AW106" s="2"/>
       <c r="AX106" s="2"/>
     </row>
-    <row r="107" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -6376,7 +6377,7 @@
       <c r="AW107" s="2"/>
       <c r="AX107" s="2"/>
     </row>
-    <row r="108" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -6428,7 +6429,7 @@
       <c r="AW108" s="2"/>
       <c r="AX108" s="2"/>
     </row>
-    <row r="109" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -6480,7 +6481,7 @@
       <c r="AW109" s="2"/>
       <c r="AX109" s="2"/>
     </row>
-    <row r="110" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -6532,7 +6533,7 @@
       <c r="AW110" s="2"/>
       <c r="AX110" s="2"/>
     </row>
-    <row r="111" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -6584,7 +6585,7 @@
       <c r="AW111" s="2"/>
       <c r="AX111" s="2"/>
     </row>
-    <row r="112" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -6636,7 +6637,7 @@
       <c r="AW112" s="2"/>
       <c r="AX112" s="2"/>
     </row>
-    <row r="113" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -6688,7 +6689,7 @@
       <c r="AW113" s="2"/>
       <c r="AX113" s="2"/>
     </row>
-    <row r="114" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -6740,7 +6741,7 @@
       <c r="AW114" s="2"/>
       <c r="AX114" s="2"/>
     </row>
-    <row r="115" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -6792,7 +6793,7 @@
       <c r="AW115" s="2"/>
       <c r="AX115" s="2"/>
     </row>
-    <row r="116" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -6844,7 +6845,7 @@
       <c r="AW116" s="2"/>
       <c r="AX116" s="2"/>
     </row>
-    <row r="117" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -6896,7 +6897,7 @@
       <c r="AW117" s="2"/>
       <c r="AX117" s="2"/>
     </row>
-    <row r="118" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -6948,7 +6949,7 @@
       <c r="AW118" s="2"/>
       <c r="AX118" s="2"/>
     </row>
-    <row r="119" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -7000,7 +7001,7 @@
       <c r="AW119" s="2"/>
       <c r="AX119" s="2"/>
     </row>
-    <row r="120" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -7052,7 +7053,7 @@
       <c r="AW120" s="2"/>
       <c r="AX120" s="2"/>
     </row>
-    <row r="121" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -7104,7 +7105,7 @@
       <c r="AW121" s="2"/>
       <c r="AX121" s="2"/>
     </row>
-    <row r="122" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -7156,7 +7157,7 @@
       <c r="AW122" s="2"/>
       <c r="AX122" s="2"/>
     </row>
-    <row r="123" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -7208,7 +7209,7 @@
       <c r="AW123" s="2"/>
       <c r="AX123" s="2"/>
     </row>
-    <row r="124" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -7260,7 +7261,7 @@
       <c r="AW124" s="2"/>
       <c r="AX124" s="2"/>
     </row>
-    <row r="125" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -7312,7 +7313,7 @@
       <c r="AW125" s="2"/>
       <c r="AX125" s="2"/>
     </row>
-    <row r="126" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -7364,7 +7365,7 @@
       <c r="AW126" s="2"/>
       <c r="AX126" s="2"/>
     </row>
-    <row r="127" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -7416,7 +7417,7 @@
       <c r="AW127" s="2"/>
       <c r="AX127" s="2"/>
     </row>
-    <row r="128" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -7468,7 +7469,7 @@
       <c r="AW128" s="2"/>
       <c r="AX128" s="2"/>
     </row>
-    <row r="129" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -7520,7 +7521,7 @@
       <c r="AW129" s="2"/>
       <c r="AX129" s="2"/>
     </row>
-    <row r="130" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -7572,7 +7573,7 @@
       <c r="AW130" s="2"/>
       <c r="AX130" s="2"/>
     </row>
-    <row r="131" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -7624,7 +7625,7 @@
       <c r="AW131" s="2"/>
       <c r="AX131" s="2"/>
     </row>
-    <row r="132" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -7676,7 +7677,7 @@
       <c r="AW132" s="2"/>
       <c r="AX132" s="2"/>
     </row>
-    <row r="133" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -7728,7 +7729,7 @@
       <c r="AW133" s="2"/>
       <c r="AX133" s="2"/>
     </row>
-    <row r="134" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -7780,7 +7781,7 @@
       <c r="AW134" s="2"/>
       <c r="AX134" s="2"/>
     </row>
-    <row r="135" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -7832,7 +7833,7 @@
       <c r="AW135" s="2"/>
       <c r="AX135" s="2"/>
     </row>
-    <row r="136" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -7884,7 +7885,7 @@
       <c r="AW136" s="2"/>
       <c r="AX136" s="2"/>
     </row>
-    <row r="137" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -7936,7 +7937,7 @@
       <c r="AW137" s="2"/>
       <c r="AX137" s="2"/>
     </row>
-    <row r="138" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -7988,7 +7989,7 @@
       <c r="AW138" s="2"/>
       <c r="AX138" s="2"/>
     </row>
-    <row r="139" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -8040,7 +8041,7 @@
       <c r="AW139" s="2"/>
       <c r="AX139" s="2"/>
     </row>
-    <row r="140" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -8092,7 +8093,7 @@
       <c r="AW140" s="2"/>
       <c r="AX140" s="2"/>
     </row>
-    <row r="141" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -8144,7 +8145,7 @@
       <c r="AW141" s="2"/>
       <c r="AX141" s="2"/>
     </row>
-    <row r="142" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -8196,7 +8197,7 @@
       <c r="AW142" s="2"/>
       <c r="AX142" s="2"/>
     </row>
-    <row r="143" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -8248,7 +8249,7 @@
       <c r="AW143" s="2"/>
       <c r="AX143" s="2"/>
     </row>
-    <row r="144" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -8300,7 +8301,7 @@
       <c r="AW144" s="2"/>
       <c r="AX144" s="2"/>
     </row>
-    <row r="145" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -8352,7 +8353,7 @@
       <c r="AW145" s="2"/>
       <c r="AX145" s="2"/>
     </row>
-    <row r="146" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -8404,7 +8405,7 @@
       <c r="AW146" s="2"/>
       <c r="AX146" s="2"/>
     </row>
-    <row r="147" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -8456,7 +8457,7 @@
       <c r="AW147" s="2"/>
       <c r="AX147" s="2"/>
     </row>
-    <row r="148" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -8508,7 +8509,7 @@
       <c r="AW148" s="2"/>
       <c r="AX148" s="2"/>
     </row>
-    <row r="149" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -8560,7 +8561,7 @@
       <c r="AW149" s="2"/>
       <c r="AX149" s="2"/>
     </row>
-    <row r="150" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -8612,7 +8613,7 @@
       <c r="AW150" s="2"/>
       <c r="AX150" s="2"/>
     </row>
-    <row r="151" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -8664,7 +8665,7 @@
       <c r="AW151" s="2"/>
       <c r="AX151" s="2"/>
     </row>
-    <row r="152" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -8716,7 +8717,7 @@
       <c r="AW152" s="2"/>
       <c r="AX152" s="2"/>
     </row>
-    <row r="153" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -8768,7 +8769,7 @@
       <c r="AW153" s="2"/>
       <c r="AX153" s="2"/>
     </row>
-    <row r="154" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -8820,7 +8821,7 @@
       <c r="AW154" s="2"/>
       <c r="AX154" s="2"/>
     </row>
-    <row r="155" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -8872,7 +8873,7 @@
       <c r="AW155" s="2"/>
       <c r="AX155" s="2"/>
     </row>
-    <row r="156" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -8924,7 +8925,7 @@
       <c r="AW156" s="2"/>
       <c r="AX156" s="2"/>
     </row>
-    <row r="157" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -8976,7 +8977,7 @@
       <c r="AW157" s="2"/>
       <c r="AX157" s="2"/>
     </row>
-    <row r="158" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -9028,7 +9029,7 @@
       <c r="AW158" s="2"/>
       <c r="AX158" s="2"/>
     </row>
-    <row r="159" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -9080,7 +9081,7 @@
       <c r="AW159" s="2"/>
       <c r="AX159" s="2"/>
     </row>
-    <row r="160" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -9132,7 +9133,7 @@
       <c r="AW160" s="2"/>
       <c r="AX160" s="2"/>
     </row>
-    <row r="161" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -9184,7 +9185,7 @@
       <c r="AW161" s="2"/>
       <c r="AX161" s="2"/>
     </row>
-    <row r="162" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -9236,7 +9237,7 @@
       <c r="AW162" s="2"/>
       <c r="AX162" s="2"/>
     </row>
-    <row r="163" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -9288,7 +9289,7 @@
       <c r="AW163" s="2"/>
       <c r="AX163" s="2"/>
     </row>
-    <row r="164" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -9340,7 +9341,7 @@
       <c r="AW164" s="2"/>
       <c r="AX164" s="2"/>
     </row>
-    <row r="165" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -9392,7 +9393,7 @@
       <c r="AW165" s="2"/>
       <c r="AX165" s="2"/>
     </row>
-    <row r="166" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -9444,7 +9445,7 @@
       <c r="AW166" s="2"/>
       <c r="AX166" s="2"/>
     </row>
-    <row r="167" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -9496,7 +9497,7 @@
       <c r="AW167" s="2"/>
       <c r="AX167" s="2"/>
     </row>
-    <row r="168" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -9548,7 +9549,7 @@
       <c r="AW168" s="2"/>
       <c r="AX168" s="2"/>
     </row>
-    <row r="169" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -9600,7 +9601,7 @@
       <c r="AW169" s="2"/>
       <c r="AX169" s="2"/>
     </row>
-    <row r="170" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -9652,7 +9653,7 @@
       <c r="AW170" s="2"/>
       <c r="AX170" s="2"/>
     </row>
-    <row r="171" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -9704,7 +9705,7 @@
       <c r="AW171" s="2"/>
       <c r="AX171" s="2"/>
     </row>
-    <row r="172" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -9756,7 +9757,7 @@
       <c r="AW172" s="2"/>
       <c r="AX172" s="2"/>
     </row>
-    <row r="173" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -9808,7 +9809,7 @@
       <c r="AW173" s="2"/>
       <c r="AX173" s="2"/>
     </row>
-    <row r="174" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -9860,7 +9861,7 @@
       <c r="AW174" s="2"/>
       <c r="AX174" s="2"/>
     </row>
-    <row r="175" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -9912,7 +9913,7 @@
       <c r="AW175" s="2"/>
       <c r="AX175" s="2"/>
     </row>
-    <row r="176" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -9964,7 +9965,7 @@
       <c r="AW176" s="2"/>
       <c r="AX176" s="2"/>
     </row>
-    <row r="177" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -10016,7 +10017,7 @@
       <c r="AW177" s="2"/>
       <c r="AX177" s="2"/>
     </row>
-    <row r="178" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -10068,7 +10069,7 @@
       <c r="AW178" s="2"/>
       <c r="AX178" s="2"/>
     </row>
-    <row r="179" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -10120,7 +10121,7 @@
       <c r="AW179" s="2"/>
       <c r="AX179" s="2"/>
     </row>
-    <row r="180" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -10172,7 +10173,7 @@
       <c r="AW180" s="2"/>
       <c r="AX180" s="2"/>
     </row>
-    <row r="181" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -10224,7 +10225,7 @@
       <c r="AW181" s="2"/>
       <c r="AX181" s="2"/>
     </row>
-    <row r="182" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -10276,7 +10277,7 @@
       <c r="AW182" s="2"/>
       <c r="AX182" s="2"/>
     </row>
-    <row r="183" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -10328,7 +10329,7 @@
       <c r="AW183" s="2"/>
       <c r="AX183" s="2"/>
     </row>
-    <row r="184" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -10380,7 +10381,7 @@
       <c r="AW184" s="2"/>
       <c r="AX184" s="2"/>
     </row>
-    <row r="185" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -10432,7 +10433,7 @@
       <c r="AW185" s="2"/>
       <c r="AX185" s="2"/>
     </row>
-    <row r="186" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -10484,7 +10485,7 @@
       <c r="AW186" s="2"/>
       <c r="AX186" s="2"/>
     </row>
-    <row r="187" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -10536,7 +10537,7 @@
       <c r="AW187" s="2"/>
       <c r="AX187" s="2"/>
     </row>
-    <row r="188" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -10588,7 +10589,7 @@
       <c r="AW188" s="2"/>
       <c r="AX188" s="2"/>
     </row>
-    <row r="189" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -10640,7 +10641,7 @@
       <c r="AW189" s="2"/>
       <c r="AX189" s="2"/>
     </row>
-    <row r="190" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -10692,7 +10693,7 @@
       <c r="AW190" s="2"/>
       <c r="AX190" s="2"/>
     </row>
-    <row r="191" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -10744,7 +10745,7 @@
       <c r="AW191" s="2"/>
       <c r="AX191" s="2"/>
     </row>
-    <row r="192" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -10796,7 +10797,7 @@
       <c r="AW192" s="2"/>
       <c r="AX192" s="2"/>
     </row>
-    <row r="193" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -10848,7 +10849,7 @@
       <c r="AW193" s="2"/>
       <c r="AX193" s="2"/>
     </row>
-    <row r="194" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -10900,7 +10901,7 @@
       <c r="AW194" s="2"/>
       <c r="AX194" s="2"/>
     </row>
-    <row r="195" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -10952,7 +10953,7 @@
       <c r="AW195" s="2"/>
       <c r="AX195" s="2"/>
     </row>
-    <row r="196" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -11004,7 +11005,7 @@
       <c r="AW196" s="2"/>
       <c r="AX196" s="2"/>
     </row>
-    <row r="197" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -11056,7 +11057,7 @@
       <c r="AW197" s="2"/>
       <c r="AX197" s="2"/>
     </row>
-    <row r="198" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -11108,7 +11109,7 @@
       <c r="AW198" s="2"/>
       <c r="AX198" s="2"/>
     </row>
-    <row r="199" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -11160,7 +11161,7 @@
       <c r="AW199" s="2"/>
       <c r="AX199" s="2"/>
     </row>
-    <row r="200" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -11212,7 +11213,7 @@
       <c r="AW200" s="2"/>
       <c r="AX200" s="2"/>
     </row>
-    <row r="201" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -11264,7 +11265,7 @@
       <c r="AW201" s="2"/>
       <c r="AX201" s="2"/>
     </row>
-    <row r="202" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -11316,7 +11317,7 @@
       <c r="AW202" s="2"/>
       <c r="AX202" s="2"/>
     </row>
-    <row r="203" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -11368,7 +11369,7 @@
       <c r="AW203" s="2"/>
       <c r="AX203" s="2"/>
     </row>
-    <row r="204" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -11420,7 +11421,7 @@
       <c r="AW204" s="2"/>
       <c r="AX204" s="2"/>
     </row>
-    <row r="205" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -11472,7 +11473,7 @@
       <c r="AW205" s="2"/>
       <c r="AX205" s="2"/>
     </row>
-    <row r="206" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -11524,7 +11525,7 @@
       <c r="AW206" s="2"/>
       <c r="AX206" s="2"/>
     </row>
-    <row r="207" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -11576,7 +11577,7 @@
       <c r="AW207" s="2"/>
       <c r="AX207" s="2"/>
     </row>
-    <row r="208" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -11628,7 +11629,7 @@
       <c r="AW208" s="2"/>
       <c r="AX208" s="2"/>
     </row>
-    <row r="209" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -11680,7 +11681,7 @@
       <c r="AW209" s="2"/>
       <c r="AX209" s="2"/>
     </row>
-    <row r="210" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -11732,7 +11733,7 @@
       <c r="AW210" s="2"/>
       <c r="AX210" s="2"/>
     </row>
-    <row r="211" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -11784,7 +11785,7 @@
       <c r="AW211" s="2"/>
       <c r="AX211" s="2"/>
     </row>
-    <row r="212" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -11836,7 +11837,7 @@
       <c r="AW212" s="2"/>
       <c r="AX212" s="2"/>
     </row>
-    <row r="213" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -11888,7 +11889,7 @@
       <c r="AW213" s="2"/>
       <c r="AX213" s="2"/>
     </row>
-    <row r="214" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -11940,7 +11941,7 @@
       <c r="AW214" s="2"/>
       <c r="AX214" s="2"/>
     </row>
-    <row r="215" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -11992,7 +11993,7 @@
       <c r="AW215" s="2"/>
       <c r="AX215" s="2"/>
     </row>
-    <row r="216" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -12044,7 +12045,7 @@
       <c r="AW216" s="2"/>
       <c r="AX216" s="2"/>
     </row>
-    <row r="217" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -12096,7 +12097,7 @@
       <c r="AW217" s="2"/>
       <c r="AX217" s="2"/>
     </row>
-    <row r="218" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -12148,7 +12149,7 @@
       <c r="AW218" s="2"/>
       <c r="AX218" s="2"/>
     </row>
-    <row r="219" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -12200,7 +12201,7 @@
       <c r="AW219" s="2"/>
       <c r="AX219" s="2"/>
     </row>
-    <row r="220" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -12252,7 +12253,7 @@
       <c r="AW220" s="2"/>
       <c r="AX220" s="2"/>
     </row>
-    <row r="221" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -12304,7 +12305,7 @@
       <c r="AW221" s="2"/>
       <c r="AX221" s="2"/>
     </row>
-    <row r="222" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -12356,7 +12357,7 @@
       <c r="AW222" s="2"/>
       <c r="AX222" s="2"/>
     </row>
-    <row r="223" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -12408,7 +12409,7 @@
       <c r="AW223" s="2"/>
       <c r="AX223" s="2"/>
     </row>
-    <row r="224" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -12460,7 +12461,7 @@
       <c r="AW224" s="2"/>
       <c r="AX224" s="2"/>
     </row>
-    <row r="225" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -12512,7 +12513,7 @@
       <c r="AW225" s="2"/>
       <c r="AX225" s="2"/>
     </row>
-    <row r="226" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -12564,7 +12565,7 @@
       <c r="AW226" s="2"/>
       <c r="AX226" s="2"/>
     </row>
-    <row r="227" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -12616,7 +12617,7 @@
       <c r="AW227" s="2"/>
       <c r="AX227" s="2"/>
     </row>
-    <row r="228" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -12668,7 +12669,7 @@
       <c r="AW228" s="2"/>
       <c r="AX228" s="2"/>
     </row>
-    <row r="229" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -12720,7 +12721,7 @@
       <c r="AW229" s="2"/>
       <c r="AX229" s="2"/>
     </row>
-    <row r="230" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -12772,7 +12773,7 @@
       <c r="AW230" s="2"/>
       <c r="AX230" s="2"/>
     </row>
-    <row r="231" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -12824,7 +12825,7 @@
       <c r="AW231" s="2"/>
       <c r="AX231" s="2"/>
     </row>
-    <row r="232" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -12876,7 +12877,7 @@
       <c r="AW232" s="2"/>
       <c r="AX232" s="2"/>
     </row>
-    <row r="233" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -12928,7 +12929,7 @@
       <c r="AW233" s="2"/>
       <c r="AX233" s="2"/>
     </row>
-    <row r="234" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -12980,7 +12981,7 @@
       <c r="AW234" s="2"/>
       <c r="AX234" s="2"/>
     </row>
-    <row r="235" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -13032,7 +13033,7 @@
       <c r="AW235" s="2"/>
       <c r="AX235" s="2"/>
     </row>
-    <row r="236" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -13084,7 +13085,7 @@
       <c r="AW236" s="2"/>
       <c r="AX236" s="2"/>
     </row>
-    <row r="237" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -13136,7 +13137,7 @@
       <c r="AW237" s="2"/>
       <c r="AX237" s="2"/>
     </row>
-    <row r="238" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -13188,7 +13189,7 @@
       <c r="AW238" s="2"/>
       <c r="AX238" s="2"/>
     </row>
-    <row r="239" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -13240,7 +13241,7 @@
       <c r="AW239" s="2"/>
       <c r="AX239" s="2"/>
     </row>
-    <row r="240" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -13292,7 +13293,7 @@
       <c r="AW240" s="2"/>
       <c r="AX240" s="2"/>
     </row>
-    <row r="241" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -13344,7 +13345,7 @@
       <c r="AW241" s="2"/>
       <c r="AX241" s="2"/>
     </row>
-    <row r="242" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -13396,7 +13397,7 @@
       <c r="AW242" s="2"/>
       <c r="AX242" s="2"/>
     </row>
-    <row r="243" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -13448,7 +13449,7 @@
       <c r="AW243" s="2"/>
       <c r="AX243" s="2"/>
     </row>
-    <row r="244" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -13500,7 +13501,7 @@
       <c r="AW244" s="2"/>
       <c r="AX244" s="2"/>
     </row>
-    <row r="245" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -13552,7 +13553,7 @@
       <c r="AW245" s="2"/>
       <c r="AX245" s="2"/>
     </row>
-    <row r="246" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -13604,7 +13605,7 @@
       <c r="AW246" s="2"/>
       <c r="AX246" s="2"/>
     </row>
-    <row r="247" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -13656,7 +13657,7 @@
       <c r="AW247" s="2"/>
       <c r="AX247" s="2"/>
     </row>
-    <row r="248" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -13708,7 +13709,7 @@
       <c r="AW248" s="2"/>
       <c r="AX248" s="2"/>
     </row>
-    <row r="249" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -13760,7 +13761,7 @@
       <c r="AW249" s="2"/>
       <c r="AX249" s="2"/>
     </row>
-    <row r="250" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -13812,7 +13813,7 @@
       <c r="AW250" s="2"/>
       <c r="AX250" s="2"/>
     </row>
-    <row r="251" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -13864,7 +13865,7 @@
       <c r="AW251" s="2"/>
       <c r="AX251" s="2"/>
     </row>
-    <row r="252" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -13916,7 +13917,7 @@
       <c r="AW252" s="2"/>
       <c r="AX252" s="2"/>
     </row>
-    <row r="253" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -13968,7 +13969,7 @@
       <c r="AW253" s="2"/>
       <c r="AX253" s="2"/>
     </row>
-    <row r="254" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -14020,7 +14021,7 @@
       <c r="AW254" s="2"/>
       <c r="AX254" s="2"/>
     </row>
-    <row r="255" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -14072,7 +14073,7 @@
       <c r="AW255" s="2"/>
       <c r="AX255" s="2"/>
     </row>
-    <row r="256" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -14124,7 +14125,7 @@
       <c r="AW256" s="2"/>
       <c r="AX256" s="2"/>
     </row>
-    <row r="257" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -14176,7 +14177,7 @@
       <c r="AW257" s="2"/>
       <c r="AX257" s="2"/>
     </row>
-    <row r="258" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -14228,7 +14229,7 @@
       <c r="AW258" s="2"/>
       <c r="AX258" s="2"/>
     </row>
-    <row r="259" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -14280,7 +14281,7 @@
       <c r="AW259" s="2"/>
       <c r="AX259" s="2"/>
     </row>
-    <row r="260" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -14332,7 +14333,7 @@
       <c r="AW260" s="2"/>
       <c r="AX260" s="2"/>
     </row>
-    <row r="261" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -14384,7 +14385,7 @@
       <c r="AW261" s="2"/>
       <c r="AX261" s="2"/>
     </row>
-    <row r="262" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
@@ -14436,7 +14437,7 @@
       <c r="AW262" s="2"/>
       <c r="AX262" s="2"/>
     </row>
-    <row r="263" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
@@ -14488,7 +14489,7 @@
       <c r="AW263" s="2"/>
       <c r="AX263" s="2"/>
     </row>
-    <row r="264" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -14540,7 +14541,7 @@
       <c r="AW264" s="2"/>
       <c r="AX264" s="2"/>
     </row>
-    <row r="265" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -14592,7 +14593,7 @@
       <c r="AW265" s="2"/>
       <c r="AX265" s="2"/>
     </row>
-    <row r="266" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
@@ -14644,7 +14645,7 @@
       <c r="AW266" s="2"/>
       <c r="AX266" s="2"/>
     </row>
-    <row r="267" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -14696,7 +14697,7 @@
       <c r="AW267" s="2"/>
       <c r="AX267" s="2"/>
     </row>
-    <row r="268" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
@@ -14748,7 +14749,7 @@
       <c r="AW268" s="2"/>
       <c r="AX268" s="2"/>
     </row>
-    <row r="269" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -14800,7 +14801,7 @@
       <c r="AW269" s="2"/>
       <c r="AX269" s="2"/>
     </row>
-    <row r="270" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
@@ -14852,7 +14853,7 @@
       <c r="AW270" s="2"/>
       <c r="AX270" s="2"/>
     </row>
-    <row r="271" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
@@ -14904,7 +14905,7 @@
       <c r="AW271" s="2"/>
       <c r="AX271" s="2"/>
     </row>
-    <row r="272" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -14956,7 +14957,7 @@
       <c r="AW272" s="2"/>
       <c r="AX272" s="2"/>
     </row>
-    <row r="273" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
@@ -15008,7 +15009,7 @@
       <c r="AW273" s="2"/>
       <c r="AX273" s="2"/>
     </row>
-    <row r="274" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -15060,7 +15061,7 @@
       <c r="AW274" s="2"/>
       <c r="AX274" s="2"/>
     </row>
-    <row r="275" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
@@ -15112,7 +15113,7 @@
       <c r="AW275" s="2"/>
       <c r="AX275" s="2"/>
     </row>
-    <row r="276" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
@@ -15164,7 +15165,7 @@
       <c r="AW276" s="2"/>
       <c r="AX276" s="2"/>
     </row>
-    <row r="277" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
@@ -15216,7 +15217,7 @@
       <c r="AW277" s="2"/>
       <c r="AX277" s="2"/>
     </row>
-    <row r="278" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
@@ -15268,7 +15269,7 @@
       <c r="AW278" s="2"/>
       <c r="AX278" s="2"/>
     </row>
-    <row r="279" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
@@ -15320,7 +15321,7 @@
       <c r="AW279" s="2"/>
       <c r="AX279" s="2"/>
     </row>
-    <row r="280" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
@@ -15372,7 +15373,7 @@
       <c r="AW280" s="2"/>
       <c r="AX280" s="2"/>
     </row>
-    <row r="281" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
@@ -15424,7 +15425,7 @@
       <c r="AW281" s="2"/>
       <c r="AX281" s="2"/>
     </row>
-    <row r="282" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
@@ -15476,7 +15477,7 @@
       <c r="AW282" s="2"/>
       <c r="AX282" s="2"/>
     </row>
-    <row r="283" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
@@ -15528,7 +15529,7 @@
       <c r="AW283" s="2"/>
       <c r="AX283" s="2"/>
     </row>
-    <row r="284" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
@@ -15580,7 +15581,7 @@
       <c r="AW284" s="2"/>
       <c r="AX284" s="2"/>
     </row>
-    <row r="285" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
@@ -15632,7 +15633,7 @@
       <c r="AW285" s="2"/>
       <c r="AX285" s="2"/>
     </row>
-    <row r="286" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
@@ -15684,7 +15685,7 @@
       <c r="AW286" s="2"/>
       <c r="AX286" s="2"/>
     </row>
-    <row r="287" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
@@ -15736,7 +15737,7 @@
       <c r="AW287" s="2"/>
       <c r="AX287" s="2"/>
     </row>
-    <row r="288" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -15788,7 +15789,7 @@
       <c r="AW288" s="2"/>
       <c r="AX288" s="2"/>
     </row>
-    <row r="289" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
@@ -15840,7 +15841,7 @@
       <c r="AW289" s="2"/>
       <c r="AX289" s="2"/>
     </row>
-    <row r="290" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
@@ -15892,7 +15893,7 @@
       <c r="AW290" s="2"/>
       <c r="AX290" s="2"/>
     </row>
-    <row r="291" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
@@ -15944,7 +15945,7 @@
       <c r="AW291" s="2"/>
       <c r="AX291" s="2"/>
     </row>
-    <row r="292" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
@@ -15996,7 +15997,7 @@
       <c r="AW292" s="2"/>
       <c r="AX292" s="2"/>
     </row>
-    <row r="293" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
@@ -16048,7 +16049,7 @@
       <c r="AW293" s="2"/>
       <c r="AX293" s="2"/>
     </row>
-    <row r="294" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
@@ -16100,7 +16101,7 @@
       <c r="AW294" s="2"/>
       <c r="AX294" s="2"/>
     </row>
-    <row r="295" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
@@ -16152,7 +16153,7 @@
       <c r="AW295" s="2"/>
       <c r="AX295" s="2"/>
     </row>
-    <row r="296" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
@@ -16204,7 +16205,7 @@
       <c r="AW296" s="2"/>
       <c r="AX296" s="2"/>
     </row>
-    <row r="297" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
@@ -16256,7 +16257,7 @@
       <c r="AW297" s="2"/>
       <c r="AX297" s="2"/>
     </row>
-    <row r="298" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
@@ -16308,7 +16309,7 @@
       <c r="AW298" s="2"/>
       <c r="AX298" s="2"/>
     </row>
-    <row r="299" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
@@ -16360,7 +16361,7 @@
       <c r="AW299" s="2"/>
       <c r="AX299" s="2"/>
     </row>
-    <row r="300" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
@@ -16412,7 +16413,7 @@
       <c r="AW300" s="2"/>
       <c r="AX300" s="2"/>
     </row>
-    <row r="301" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
@@ -16464,7 +16465,7 @@
       <c r="AW301" s="2"/>
       <c r="AX301" s="2"/>
     </row>
-    <row r="302" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
@@ -16516,7 +16517,7 @@
       <c r="AW302" s="2"/>
       <c r="AX302" s="2"/>
     </row>
-    <row r="303" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
@@ -16568,7 +16569,7 @@
       <c r="AW303" s="2"/>
       <c r="AX303" s="2"/>
     </row>
-    <row r="304" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
@@ -16620,7 +16621,7 @@
       <c r="AW304" s="2"/>
       <c r="AX304" s="2"/>
     </row>
-    <row r="305" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="2"/>
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
@@ -16672,7 +16673,7 @@
       <c r="AW305" s="2"/>
       <c r="AX305" s="2"/>
     </row>
-    <row r="306" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
@@ -16724,7 +16725,7 @@
       <c r="AW306" s="2"/>
       <c r="AX306" s="2"/>
     </row>
-    <row r="307" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
@@ -16776,7 +16777,7 @@
       <c r="AW307" s="2"/>
       <c r="AX307" s="2"/>
     </row>
-    <row r="308" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
@@ -16828,7 +16829,7 @@
       <c r="AW308" s="2"/>
       <c r="AX308" s="2"/>
     </row>
-    <row r="309" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
@@ -16880,7 +16881,7 @@
       <c r="AW309" s="2"/>
       <c r="AX309" s="2"/>
     </row>
-    <row r="310" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
@@ -16932,7 +16933,7 @@
       <c r="AW310" s="2"/>
       <c r="AX310" s="2"/>
     </row>
-    <row r="311" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
@@ -16984,7 +16985,7 @@
       <c r="AW311" s="2"/>
       <c r="AX311" s="2"/>
     </row>
-    <row r="312" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
@@ -17036,7 +17037,7 @@
       <c r="AW312" s="2"/>
       <c r="AX312" s="2"/>
     </row>
-    <row r="313" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="2"/>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
@@ -17088,7 +17089,7 @@
       <c r="AW313" s="2"/>
       <c r="AX313" s="2"/>
     </row>
-    <row r="314" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
@@ -17140,7 +17141,7 @@
       <c r="AW314" s="2"/>
       <c r="AX314" s="2"/>
     </row>
-    <row r="315" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="2"/>
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
@@ -17192,7 +17193,7 @@
       <c r="AW315" s="2"/>
       <c r="AX315" s="2"/>
     </row>
-    <row r="316" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
@@ -17244,7 +17245,7 @@
       <c r="AW316" s="2"/>
       <c r="AX316" s="2"/>
     </row>
-    <row r="317" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
@@ -17296,7 +17297,7 @@
       <c r="AW317" s="2"/>
       <c r="AX317" s="2"/>
     </row>
-    <row r="318" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="2"/>
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
@@ -17348,7 +17349,7 @@
       <c r="AW318" s="2"/>
       <c r="AX318" s="2"/>
     </row>
-    <row r="319" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="2"/>
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
@@ -17400,7 +17401,7 @@
       <c r="AW319" s="2"/>
       <c r="AX319" s="2"/>
     </row>
-    <row r="320" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
@@ -17452,7 +17453,7 @@
       <c r="AW320" s="2"/>
       <c r="AX320" s="2"/>
     </row>
-    <row r="321" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="2"/>
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
@@ -17504,7 +17505,7 @@
       <c r="AW321" s="2"/>
       <c r="AX321" s="2"/>
     </row>
-    <row r="322" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
@@ -17556,7 +17557,7 @@
       <c r="AW322" s="2"/>
       <c r="AX322" s="2"/>
     </row>
-    <row r="323" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="2"/>
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
@@ -17608,7 +17609,7 @@
       <c r="AW323" s="2"/>
       <c r="AX323" s="2"/>
     </row>
-    <row r="324" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="2"/>
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
@@ -17660,7 +17661,7 @@
       <c r="AW324" s="2"/>
       <c r="AX324" s="2"/>
     </row>
-    <row r="325" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
@@ -17712,7 +17713,7 @@
       <c r="AW325" s="2"/>
       <c r="AX325" s="2"/>
     </row>
-    <row r="326" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="2"/>
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
@@ -17764,7 +17765,7 @@
       <c r="AW326" s="2"/>
       <c r="AX326" s="2"/>
     </row>
-    <row r="327" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
@@ -17816,7 +17817,7 @@
       <c r="AW327" s="2"/>
       <c r="AX327" s="2"/>
     </row>
-    <row r="328" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
       <c r="C328" s="2"/>
@@ -17868,7 +17869,7 @@
       <c r="AW328" s="2"/>
       <c r="AX328" s="2"/>
     </row>
-    <row r="329" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="2"/>
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
@@ -17920,7 +17921,7 @@
       <c r="AW329" s="2"/>
       <c r="AX329" s="2"/>
     </row>
-    <row r="330" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="2"/>
       <c r="B330" s="2"/>
       <c r="C330" s="2"/>
@@ -17972,7 +17973,7 @@
       <c r="AW330" s="2"/>
       <c r="AX330" s="2"/>
     </row>
-    <row r="331" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="2"/>
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
@@ -18024,7 +18025,7 @@
       <c r="AW331" s="2"/>
       <c r="AX331" s="2"/>
     </row>
-    <row r="332" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="2"/>
       <c r="B332" s="2"/>
       <c r="C332" s="2"/>
@@ -18076,7 +18077,7 @@
       <c r="AW332" s="2"/>
       <c r="AX332" s="2"/>
     </row>
-    <row r="333" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="2"/>
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
@@ -18128,7 +18129,7 @@
       <c r="AW333" s="2"/>
       <c r="AX333" s="2"/>
     </row>
-    <row r="334" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="2"/>
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
@@ -18180,7 +18181,7 @@
       <c r="AW334" s="2"/>
       <c r="AX334" s="2"/>
     </row>
-    <row r="335" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="2"/>
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
@@ -18232,7 +18233,7 @@
       <c r="AW335" s="2"/>
       <c r="AX335" s="2"/>
     </row>
-    <row r="336" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="2"/>
       <c r="B336" s="2"/>
       <c r="C336" s="2"/>
@@ -18284,7 +18285,7 @@
       <c r="AW336" s="2"/>
       <c r="AX336" s="2"/>
     </row>
-    <row r="337" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="2"/>
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
@@ -18336,7 +18337,7 @@
       <c r="AW337" s="2"/>
       <c r="AX337" s="2"/>
     </row>
-    <row r="338" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="2"/>
       <c r="B338" s="2"/>
       <c r="C338" s="2"/>
@@ -18388,7 +18389,7 @@
       <c r="AW338" s="2"/>
       <c r="AX338" s="2"/>
     </row>
-    <row r="339" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="2"/>
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
@@ -18440,7 +18441,7 @@
       <c r="AW339" s="2"/>
       <c r="AX339" s="2"/>
     </row>
-    <row r="340" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="2"/>
       <c r="B340" s="2"/>
       <c r="C340" s="2"/>
@@ -18492,7 +18493,7 @@
       <c r="AW340" s="2"/>
       <c r="AX340" s="2"/>
     </row>
-    <row r="341" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="2"/>
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
@@ -18544,7 +18545,7 @@
       <c r="AW341" s="2"/>
       <c r="AX341" s="2"/>
     </row>
-    <row r="342" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="2"/>
       <c r="B342" s="2"/>
       <c r="C342" s="2"/>
@@ -18596,7 +18597,7 @@
       <c r="AW342" s="2"/>
       <c r="AX342" s="2"/>
     </row>
-    <row r="343" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="2"/>
       <c r="B343" s="2"/>
       <c r="C343" s="2"/>
@@ -18648,7 +18649,7 @@
       <c r="AW343" s="2"/>
       <c r="AX343" s="2"/>
     </row>
-    <row r="344" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="2"/>
       <c r="B344" s="2"/>
       <c r="C344" s="2"/>
@@ -18700,7 +18701,7 @@
       <c r="AW344" s="2"/>
       <c r="AX344" s="2"/>
     </row>
-    <row r="345" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="2"/>
       <c r="B345" s="2"/>
       <c r="C345" s="2"/>
@@ -18752,7 +18753,7 @@
       <c r="AW345" s="2"/>
       <c r="AX345" s="2"/>
     </row>
-    <row r="346" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="2"/>
       <c r="B346" s="2"/>
       <c r="C346" s="2"/>
@@ -18804,7 +18805,7 @@
       <c r="AW346" s="2"/>
       <c r="AX346" s="2"/>
     </row>
-    <row r="347" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="2"/>
       <c r="B347" s="2"/>
       <c r="C347" s="2"/>
@@ -18856,7 +18857,7 @@
       <c r="AW347" s="2"/>
       <c r="AX347" s="2"/>
     </row>
-    <row r="348" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="2"/>
       <c r="B348" s="2"/>
       <c r="C348" s="2"/>
@@ -18908,7 +18909,7 @@
       <c r="AW348" s="2"/>
       <c r="AX348" s="2"/>
     </row>
-    <row r="349" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="2"/>
       <c r="B349" s="2"/>
       <c r="C349" s="2"/>
@@ -18960,7 +18961,7 @@
       <c r="AW349" s="2"/>
       <c r="AX349" s="2"/>
     </row>
-    <row r="350" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="2"/>
       <c r="B350" s="2"/>
       <c r="C350" s="2"/>
@@ -19012,7 +19013,7 @@
       <c r="AW350" s="2"/>
       <c r="AX350" s="2"/>
     </row>
-    <row r="351" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="2"/>
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
@@ -19064,7 +19065,7 @@
       <c r="AW351" s="2"/>
       <c r="AX351" s="2"/>
     </row>
-    <row r="352" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="2"/>
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
@@ -19116,7 +19117,7 @@
       <c r="AW352" s="2"/>
       <c r="AX352" s="2"/>
     </row>
-    <row r="353" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="2"/>
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
@@ -19168,7 +19169,7 @@
       <c r="AW353" s="2"/>
       <c r="AX353" s="2"/>
     </row>
-    <row r="354" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="2"/>
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
@@ -19220,7 +19221,7 @@
       <c r="AW354" s="2"/>
       <c r="AX354" s="2"/>
     </row>
-    <row r="355" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="2"/>
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
@@ -19272,7 +19273,7 @@
       <c r="AW355" s="2"/>
       <c r="AX355" s="2"/>
     </row>
-    <row r="356" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="2"/>
       <c r="B356" s="2"/>
       <c r="C356" s="2"/>
@@ -19324,7 +19325,7 @@
       <c r="AW356" s="2"/>
       <c r="AX356" s="2"/>
     </row>
-    <row r="357" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="2"/>
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
@@ -19376,7 +19377,7 @@
       <c r="AW357" s="2"/>
       <c r="AX357" s="2"/>
     </row>
-    <row r="358" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="2"/>
       <c r="B358" s="2"/>
       <c r="C358" s="2"/>
@@ -19428,7 +19429,7 @@
       <c r="AW358" s="2"/>
       <c r="AX358" s="2"/>
     </row>
-    <row r="359" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="2"/>
       <c r="B359" s="2"/>
       <c r="C359" s="2"/>
@@ -19480,7 +19481,7 @@
       <c r="AW359" s="2"/>
       <c r="AX359" s="2"/>
     </row>
-    <row r="360" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="2"/>
       <c r="B360" s="2"/>
       <c r="C360" s="2"/>
@@ -19532,7 +19533,7 @@
       <c r="AW360" s="2"/>
       <c r="AX360" s="2"/>
     </row>
-    <row r="361" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="2"/>
       <c r="B361" s="2"/>
       <c r="C361" s="2"/>
@@ -19584,7 +19585,7 @@
       <c r="AW361" s="2"/>
       <c r="AX361" s="2"/>
     </row>
-    <row r="362" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="2"/>
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
@@ -19636,7 +19637,7 @@
       <c r="AW362" s="2"/>
       <c r="AX362" s="2"/>
     </row>
-    <row r="363" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="2"/>
       <c r="B363" s="2"/>
       <c r="C363" s="2"/>
@@ -19688,7 +19689,7 @@
       <c r="AW363" s="2"/>
       <c r="AX363" s="2"/>
     </row>
-    <row r="364" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="2"/>
       <c r="B364" s="2"/>
       <c r="C364" s="2"/>
@@ -19740,7 +19741,7 @@
       <c r="AW364" s="2"/>
       <c r="AX364" s="2"/>
     </row>
-    <row r="365" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="2"/>
       <c r="B365" s="2"/>
       <c r="C365" s="2"/>
@@ -19792,7 +19793,7 @@
       <c r="AW365" s="2"/>
       <c r="AX365" s="2"/>
     </row>
-    <row r="366" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="2"/>
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
@@ -19844,7 +19845,7 @@
       <c r="AW366" s="2"/>
       <c r="AX366" s="2"/>
     </row>
-    <row r="367" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="2"/>
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
@@ -19896,7 +19897,7 @@
       <c r="AW367" s="2"/>
       <c r="AX367" s="2"/>
     </row>
-    <row r="368" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="2"/>
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>
@@ -19948,7 +19949,7 @@
       <c r="AW368" s="2"/>
       <c r="AX368" s="2"/>
     </row>
-    <row r="369" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="2"/>
       <c r="B369" s="2"/>
       <c r="C369" s="2"/>
@@ -20000,7 +20001,7 @@
       <c r="AW369" s="2"/>
       <c r="AX369" s="2"/>
     </row>
-    <row r="370" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="2"/>
       <c r="B370" s="2"/>
       <c r="C370" s="2"/>
@@ -20052,7 +20053,7 @@
       <c r="AW370" s="2"/>
       <c r="AX370" s="2"/>
     </row>
-    <row r="371" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="2"/>
       <c r="B371" s="2"/>
       <c r="C371" s="2"/>
@@ -20104,7 +20105,7 @@
       <c r="AW371" s="2"/>
       <c r="AX371" s="2"/>
     </row>
-    <row r="372" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="2"/>
       <c r="B372" s="2"/>
       <c r="C372" s="2"/>
@@ -20156,7 +20157,7 @@
       <c r="AW372" s="2"/>
       <c r="AX372" s="2"/>
     </row>
-    <row r="373" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="2"/>
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
@@ -20208,7 +20209,7 @@
       <c r="AW373" s="2"/>
       <c r="AX373" s="2"/>
     </row>
-    <row r="374" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="2"/>
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
@@ -20260,7 +20261,7 @@
       <c r="AW374" s="2"/>
       <c r="AX374" s="2"/>
     </row>
-    <row r="375" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="2"/>
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
@@ -20312,7 +20313,7 @@
       <c r="AW375" s="2"/>
       <c r="AX375" s="2"/>
     </row>
-    <row r="376" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="2"/>
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
@@ -20364,7 +20365,7 @@
       <c r="AW376" s="2"/>
       <c r="AX376" s="2"/>
     </row>
-    <row r="377" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="2"/>
       <c r="B377" s="2"/>
       <c r="C377" s="2"/>
@@ -20416,7 +20417,7 @@
       <c r="AW377" s="2"/>
       <c r="AX377" s="2"/>
     </row>
-    <row r="378" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="2"/>
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
@@ -20468,7 +20469,7 @@
       <c r="AW378" s="2"/>
       <c r="AX378" s="2"/>
     </row>
-    <row r="379" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="2"/>
       <c r="B379" s="2"/>
       <c r="C379" s="2"/>
@@ -20520,7 +20521,7 @@
       <c r="AW379" s="2"/>
       <c r="AX379" s="2"/>
     </row>
-    <row r="380" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="2"/>
       <c r="B380" s="2"/>
       <c r="C380" s="2"/>
@@ -20572,7 +20573,7 @@
       <c r="AW380" s="2"/>
       <c r="AX380" s="2"/>
     </row>
-    <row r="381" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="2"/>
       <c r="B381" s="2"/>
       <c r="C381" s="2"/>
@@ -20624,7 +20625,7 @@
       <c r="AW381" s="2"/>
       <c r="AX381" s="2"/>
     </row>
-    <row r="382" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="2"/>
       <c r="B382" s="2"/>
       <c r="C382" s="2"/>
@@ -20676,7 +20677,7 @@
       <c r="AW382" s="2"/>
       <c r="AX382" s="2"/>
     </row>
-    <row r="383" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="2"/>
       <c r="B383" s="2"/>
       <c r="C383" s="2"/>
@@ -20728,7 +20729,7 @@
       <c r="AW383" s="2"/>
       <c r="AX383" s="2"/>
     </row>
-    <row r="384" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="2"/>
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
@@ -20780,7 +20781,7 @@
       <c r="AW384" s="2"/>
       <c r="AX384" s="2"/>
     </row>
-    <row r="385" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="2"/>
       <c r="B385" s="2"/>
       <c r="C385" s="2"/>
@@ -20832,7 +20833,7 @@
       <c r="AW385" s="2"/>
       <c r="AX385" s="2"/>
     </row>
-    <row r="386" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="2"/>
       <c r="B386" s="2"/>
       <c r="C386" s="2"/>
@@ -20884,7 +20885,7 @@
       <c r="AW386" s="2"/>
       <c r="AX386" s="2"/>
     </row>
-    <row r="387" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="2"/>
       <c r="B387" s="2"/>
       <c r="C387" s="2"/>
@@ -20936,7 +20937,7 @@
       <c r="AW387" s="2"/>
       <c r="AX387" s="2"/>
     </row>
-    <row r="388" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="2"/>
       <c r="B388" s="2"/>
       <c r="C388" s="2"/>
@@ -20988,7 +20989,7 @@
       <c r="AW388" s="2"/>
       <c r="AX388" s="2"/>
     </row>
-    <row r="389" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="2"/>
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
@@ -21040,7 +21041,7 @@
       <c r="AW389" s="2"/>
       <c r="AX389" s="2"/>
     </row>
-    <row r="390" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="2"/>
       <c r="B390" s="2"/>
       <c r="C390" s="2"/>
@@ -21092,7 +21093,7 @@
       <c r="AW390" s="2"/>
       <c r="AX390" s="2"/>
     </row>
-    <row r="391" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="2"/>
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
@@ -21144,7 +21145,7 @@
       <c r="AW391" s="2"/>
       <c r="AX391" s="2"/>
     </row>
-    <row r="392" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="2"/>
       <c r="B392" s="2"/>
       <c r="C392" s="2"/>
@@ -21196,7 +21197,7 @@
       <c r="AW392" s="2"/>
       <c r="AX392" s="2"/>
     </row>
-    <row r="393" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="2"/>
       <c r="B393" s="2"/>
       <c r="C393" s="2"/>
@@ -21248,7 +21249,7 @@
       <c r="AW393" s="2"/>
       <c r="AX393" s="2"/>
     </row>
-    <row r="394" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="2"/>
       <c r="B394" s="2"/>
       <c r="C394" s="2"/>
@@ -21300,7 +21301,7 @@
       <c r="AW394" s="2"/>
       <c r="AX394" s="2"/>
     </row>
-    <row r="395" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="2"/>
       <c r="B395" s="2"/>
       <c r="C395" s="2"/>
@@ -21352,7 +21353,7 @@
       <c r="AW395" s="2"/>
       <c r="AX395" s="2"/>
     </row>
-    <row r="396" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="2"/>
       <c r="B396" s="2"/>
       <c r="C396" s="2"/>
@@ -21404,7 +21405,7 @@
       <c r="AW396" s="2"/>
       <c r="AX396" s="2"/>
     </row>
-    <row r="397" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="2"/>
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
@@ -21456,7 +21457,7 @@
       <c r="AW397" s="2"/>
       <c r="AX397" s="2"/>
     </row>
-    <row r="398" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="2"/>
       <c r="B398" s="2"/>
       <c r="C398" s="2"/>
@@ -21508,7 +21509,7 @@
       <c r="AW398" s="2"/>
       <c r="AX398" s="2"/>
     </row>
-    <row r="399" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="2"/>
       <c r="B399" s="2"/>
       <c r="C399" s="2"/>
@@ -21560,7 +21561,7 @@
       <c r="AW399" s="2"/>
       <c r="AX399" s="2"/>
     </row>
-    <row r="400" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="2"/>
       <c r="B400" s="2"/>
       <c r="C400" s="2"/>
@@ -21612,7 +21613,7 @@
       <c r="AW400" s="2"/>
       <c r="AX400" s="2"/>
     </row>
-    <row r="401" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="2"/>
       <c r="B401" s="2"/>
       <c r="C401" s="2"/>
@@ -21664,7 +21665,7 @@
       <c r="AW401" s="2"/>
       <c r="AX401" s="2"/>
     </row>
-    <row r="402" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="2"/>
       <c r="B402" s="2"/>
       <c r="C402" s="2"/>
@@ -21716,7 +21717,7 @@
       <c r="AW402" s="2"/>
       <c r="AX402" s="2"/>
     </row>
-    <row r="403" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="2"/>
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
@@ -21768,7 +21769,7 @@
       <c r="AW403" s="2"/>
       <c r="AX403" s="2"/>
     </row>
-    <row r="404" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="2"/>
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
@@ -21820,7 +21821,7 @@
       <c r="AW404" s="2"/>
       <c r="AX404" s="2"/>
     </row>
-    <row r="405" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="2"/>
       <c r="B405" s="2"/>
       <c r="C405" s="2"/>
@@ -21872,7 +21873,7 @@
       <c r="AW405" s="2"/>
       <c r="AX405" s="2"/>
     </row>
-    <row r="406" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="2"/>
       <c r="B406" s="2"/>
       <c r="C406" s="2"/>
@@ -21924,7 +21925,7 @@
       <c r="AW406" s="2"/>
       <c r="AX406" s="2"/>
     </row>
-    <row r="407" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="2"/>
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
@@ -21976,7 +21977,7 @@
       <c r="AW407" s="2"/>
       <c r="AX407" s="2"/>
     </row>
-    <row r="408" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="2"/>
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
@@ -22028,7 +22029,7 @@
       <c r="AW408" s="2"/>
       <c r="AX408" s="2"/>
     </row>
-    <row r="409" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="2"/>
       <c r="B409" s="2"/>
       <c r="C409" s="2"/>
@@ -22080,7 +22081,7 @@
       <c r="AW409" s="2"/>
       <c r="AX409" s="2"/>
     </row>
-    <row r="410" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="2"/>
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
@@ -22132,7 +22133,7 @@
       <c r="AW410" s="2"/>
       <c r="AX410" s="2"/>
     </row>
-    <row r="411" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="2"/>
       <c r="B411" s="2"/>
       <c r="C411" s="2"/>
@@ -22184,7 +22185,7 @@
       <c r="AW411" s="2"/>
       <c r="AX411" s="2"/>
     </row>
-    <row r="412" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="2"/>
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
@@ -22236,7 +22237,7 @@
       <c r="AW412" s="2"/>
       <c r="AX412" s="2"/>
     </row>
-    <row r="413" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="2"/>
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
@@ -22288,7 +22289,7 @@
       <c r="AW413" s="2"/>
       <c r="AX413" s="2"/>
     </row>
-    <row r="414" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="2"/>
       <c r="B414" s="2"/>
       <c r="C414" s="2"/>
@@ -22340,7 +22341,7 @@
       <c r="AW414" s="2"/>
       <c r="AX414" s="2"/>
     </row>
-    <row r="415" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="2"/>
       <c r="B415" s="2"/>
       <c r="C415" s="2"/>
@@ -22392,7 +22393,7 @@
       <c r="AW415" s="2"/>
       <c r="AX415" s="2"/>
     </row>
-    <row r="416" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="2"/>
       <c r="B416" s="2"/>
       <c r="C416" s="2"/>
@@ -22444,7 +22445,7 @@
       <c r="AW416" s="2"/>
       <c r="AX416" s="2"/>
     </row>
-    <row r="417" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="2"/>
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
@@ -22496,7 +22497,7 @@
       <c r="AW417" s="2"/>
       <c r="AX417" s="2"/>
     </row>
-    <row r="418" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="2"/>
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
@@ -22548,7 +22549,7 @@
       <c r="AW418" s="2"/>
       <c r="AX418" s="2"/>
     </row>
-    <row r="419" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="2"/>
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
@@ -22600,7 +22601,7 @@
       <c r="AW419" s="2"/>
       <c r="AX419" s="2"/>
     </row>
-    <row r="420" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="2"/>
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
@@ -22652,7 +22653,7 @@
       <c r="AW420" s="2"/>
       <c r="AX420" s="2"/>
     </row>
-    <row r="421" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="2"/>
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
@@ -22704,7 +22705,7 @@
       <c r="AW421" s="2"/>
       <c r="AX421" s="2"/>
     </row>
-    <row r="422" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="2"/>
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
@@ -22756,7 +22757,7 @@
       <c r="AW422" s="2"/>
       <c r="AX422" s="2"/>
     </row>
-    <row r="423" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="2"/>
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
@@ -22808,7 +22809,7 @@
       <c r="AW423" s="2"/>
       <c r="AX423" s="2"/>
     </row>
-    <row r="424" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="2"/>
       <c r="B424" s="2"/>
       <c r="C424" s="2"/>
@@ -22860,7 +22861,7 @@
       <c r="AW424" s="2"/>
       <c r="AX424" s="2"/>
     </row>
-    <row r="425" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="2"/>
       <c r="B425" s="2"/>
       <c r="C425" s="2"/>
@@ -22912,7 +22913,7 @@
       <c r="AW425" s="2"/>
       <c r="AX425" s="2"/>
     </row>
-    <row r="426" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="2"/>
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
@@ -22964,7 +22965,7 @@
       <c r="AW426" s="2"/>
       <c r="AX426" s="2"/>
     </row>
-    <row r="427" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="2"/>
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
@@ -23016,7 +23017,7 @@
       <c r="AW427" s="2"/>
       <c r="AX427" s="2"/>
     </row>
-    <row r="428" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="2"/>
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
@@ -23068,7 +23069,7 @@
       <c r="AW428" s="2"/>
       <c r="AX428" s="2"/>
     </row>
-    <row r="429" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="2"/>
       <c r="B429" s="2"/>
       <c r="C429" s="2"/>
@@ -23120,7 +23121,7 @@
       <c r="AW429" s="2"/>
       <c r="AX429" s="2"/>
     </row>
-    <row r="430" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="2"/>
       <c r="B430" s="2"/>
       <c r="C430" s="2"/>
@@ -23172,7 +23173,7 @@
       <c r="AW430" s="2"/>
       <c r="AX430" s="2"/>
     </row>
-    <row r="431" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="2"/>
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
@@ -23224,7 +23225,7 @@
       <c r="AW431" s="2"/>
       <c r="AX431" s="2"/>
     </row>
-    <row r="432" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="2"/>
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
@@ -23276,7 +23277,7 @@
       <c r="AW432" s="2"/>
       <c r="AX432" s="2"/>
     </row>
-    <row r="433" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="2"/>
       <c r="B433" s="2"/>
       <c r="C433" s="2"/>
@@ -23328,7 +23329,7 @@
       <c r="AW433" s="2"/>
       <c r="AX433" s="2"/>
     </row>
-    <row r="434" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="2"/>
       <c r="B434" s="2"/>
       <c r="C434" s="2"/>
@@ -23380,7 +23381,7 @@
       <c r="AW434" s="2"/>
       <c r="AX434" s="2"/>
     </row>
-    <row r="435" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="2"/>
       <c r="B435" s="2"/>
       <c r="C435" s="2"/>
@@ -23432,7 +23433,7 @@
       <c r="AW435" s="2"/>
       <c r="AX435" s="2"/>
     </row>
-    <row r="436" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="2"/>
       <c r="B436" s="2"/>
       <c r="C436" s="2"/>
@@ -23484,7 +23485,7 @@
       <c r="AW436" s="2"/>
       <c r="AX436" s="2"/>
     </row>
-    <row r="437" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="2"/>
       <c r="B437" s="2"/>
       <c r="C437" s="2"/>
@@ -23536,7 +23537,7 @@
       <c r="AW437" s="2"/>
       <c r="AX437" s="2"/>
     </row>
-    <row r="438" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="2"/>
       <c r="B438" s="2"/>
       <c r="C438" s="2"/>
@@ -23588,7 +23589,7 @@
       <c r="AW438" s="2"/>
       <c r="AX438" s="2"/>
     </row>
-    <row r="439" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="2"/>
       <c r="B439" s="2"/>
       <c r="C439" s="2"/>
@@ -23640,7 +23641,7 @@
       <c r="AW439" s="2"/>
       <c r="AX439" s="2"/>
     </row>
-    <row r="440" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="2"/>
       <c r="B440" s="2"/>
       <c r="C440" s="2"/>
@@ -23692,7 +23693,7 @@
       <c r="AW440" s="2"/>
       <c r="AX440" s="2"/>
     </row>
-    <row r="441" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="2"/>
       <c r="B441" s="2"/>
       <c r="C441" s="2"/>
@@ -23744,7 +23745,7 @@
       <c r="AW441" s="2"/>
       <c r="AX441" s="2"/>
     </row>
-    <row r="442" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="2"/>
       <c r="B442" s="2"/>
       <c r="C442" s="2"/>
@@ -23796,7 +23797,7 @@
       <c r="AW442" s="2"/>
       <c r="AX442" s="2"/>
     </row>
-    <row r="443" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="2"/>
       <c r="B443" s="2"/>
       <c r="C443" s="2"/>
@@ -23848,7 +23849,7 @@
       <c r="AW443" s="2"/>
       <c r="AX443" s="2"/>
     </row>
-    <row r="444" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="2"/>
       <c r="B444" s="2"/>
       <c r="C444" s="2"/>
@@ -23900,7 +23901,7 @@
       <c r="AW444" s="2"/>
       <c r="AX444" s="2"/>
     </row>
-    <row r="445" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="2"/>
       <c r="B445" s="2"/>
       <c r="C445" s="2"/>
@@ -23952,7 +23953,7 @@
       <c r="AW445" s="2"/>
       <c r="AX445" s="2"/>
     </row>
-    <row r="446" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="2"/>
       <c r="B446" s="2"/>
       <c r="C446" s="2"/>
@@ -24004,7 +24005,7 @@
       <c r="AW446" s="2"/>
       <c r="AX446" s="2"/>
     </row>
-    <row r="447" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="2"/>
       <c r="B447" s="2"/>
       <c r="C447" s="2"/>
@@ -24056,7 +24057,7 @@
       <c r="AW447" s="2"/>
       <c r="AX447" s="2"/>
     </row>
-    <row r="448" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="2"/>
       <c r="B448" s="2"/>
       <c r="C448" s="2"/>
@@ -24108,7 +24109,7 @@
       <c r="AW448" s="2"/>
       <c r="AX448" s="2"/>
     </row>
-    <row r="449" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="2"/>
       <c r="B449" s="2"/>
       <c r="C449" s="2"/>
@@ -24160,7 +24161,7 @@
       <c r="AW449" s="2"/>
       <c r="AX449" s="2"/>
     </row>
-    <row r="450" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="2"/>
       <c r="B450" s="2"/>
       <c r="C450" s="2"/>
@@ -24212,7 +24213,7 @@
       <c r="AW450" s="2"/>
       <c r="AX450" s="2"/>
     </row>
-    <row r="451" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="2"/>
       <c r="B451" s="2"/>
       <c r="C451" s="2"/>
@@ -24264,7 +24265,7 @@
       <c r="AW451" s="2"/>
       <c r="AX451" s="2"/>
     </row>
-    <row r="452" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="2"/>
       <c r="B452" s="2"/>
       <c r="C452" s="2"/>
@@ -24316,7 +24317,7 @@
       <c r="AW452" s="2"/>
       <c r="AX452" s="2"/>
     </row>
-    <row r="453" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="2"/>
       <c r="B453" s="2"/>
       <c r="C453" s="2"/>
@@ -24368,7 +24369,7 @@
       <c r="AW453" s="2"/>
       <c r="AX453" s="2"/>
     </row>
-    <row r="454" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="2"/>
       <c r="B454" s="2"/>
       <c r="C454" s="2"/>
@@ -24420,7 +24421,7 @@
       <c r="AW454" s="2"/>
       <c r="AX454" s="2"/>
     </row>
-    <row r="455" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="2"/>
       <c r="B455" s="2"/>
       <c r="C455" s="2"/>
@@ -24472,7 +24473,7 @@
       <c r="AW455" s="2"/>
       <c r="AX455" s="2"/>
     </row>
-    <row r="456" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="2"/>
       <c r="B456" s="2"/>
       <c r="C456" s="2"/>
@@ -24524,7 +24525,7 @@
       <c r="AW456" s="2"/>
       <c r="AX456" s="2"/>
     </row>
-    <row r="457" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="2"/>
       <c r="B457" s="2"/>
       <c r="C457" s="2"/>
@@ -24576,7 +24577,7 @@
       <c r="AW457" s="2"/>
       <c r="AX457" s="2"/>
     </row>
-    <row r="458" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="2"/>
       <c r="B458" s="2"/>
       <c r="C458" s="2"/>
@@ -24628,7 +24629,7 @@
       <c r="AW458" s="2"/>
       <c r="AX458" s="2"/>
     </row>
-    <row r="459" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="2"/>
       <c r="B459" s="2"/>
       <c r="C459" s="2"/>
@@ -24680,7 +24681,7 @@
       <c r="AW459" s="2"/>
       <c r="AX459" s="2"/>
     </row>
-    <row r="460" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="2"/>
       <c r="B460" s="2"/>
       <c r="C460" s="2"/>
@@ -24732,7 +24733,7 @@
       <c r="AW460" s="2"/>
       <c r="AX460" s="2"/>
     </row>
-    <row r="461" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="2"/>
       <c r="B461" s="2"/>
       <c r="C461" s="2"/>
@@ -24784,7 +24785,7 @@
       <c r="AW461" s="2"/>
       <c r="AX461" s="2"/>
     </row>
-    <row r="462" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="2"/>
       <c r="B462" s="2"/>
       <c r="C462" s="2"/>
@@ -24836,7 +24837,7 @@
       <c r="AW462" s="2"/>
       <c r="AX462" s="2"/>
     </row>
-    <row r="463" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="2"/>
       <c r="B463" s="2"/>
       <c r="C463" s="2"/>
@@ -24888,7 +24889,7 @@
       <c r="AW463" s="2"/>
       <c r="AX463" s="2"/>
     </row>
-    <row r="464" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="2"/>
       <c r="B464" s="2"/>
       <c r="C464" s="2"/>
@@ -24940,7 +24941,7 @@
       <c r="AW464" s="2"/>
       <c r="AX464" s="2"/>
     </row>
-    <row r="465" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="2"/>
       <c r="B465" s="2"/>
       <c r="C465" s="2"/>
@@ -24992,7 +24993,7 @@
       <c r="AW465" s="2"/>
       <c r="AX465" s="2"/>
     </row>
-    <row r="466" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="2"/>
       <c r="B466" s="2"/>
       <c r="C466" s="2"/>
@@ -25044,7 +25045,7 @@
       <c r="AW466" s="2"/>
       <c r="AX466" s="2"/>
     </row>
-    <row r="467" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="2"/>
       <c r="B467" s="2"/>
       <c r="C467" s="2"/>
@@ -25096,7 +25097,7 @@
       <c r="AW467" s="2"/>
       <c r="AX467" s="2"/>
     </row>
-    <row r="468" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="2"/>
       <c r="B468" s="2"/>
       <c r="C468" s="2"/>
@@ -25148,7 +25149,7 @@
       <c r="AW468" s="2"/>
       <c r="AX468" s="2"/>
     </row>
-    <row r="469" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="2"/>
       <c r="B469" s="2"/>
       <c r="C469" s="2"/>
@@ -25200,7 +25201,7 @@
       <c r="AW469" s="2"/>
       <c r="AX469" s="2"/>
     </row>
-    <row r="470" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="2"/>
       <c r="B470" s="2"/>
       <c r="C470" s="2"/>
@@ -25252,7 +25253,7 @@
       <c r="AW470" s="2"/>
       <c r="AX470" s="2"/>
     </row>
-    <row r="471" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="2"/>
       <c r="B471" s="2"/>
       <c r="C471" s="2"/>
@@ -25304,7 +25305,7 @@
       <c r="AW471" s="2"/>
       <c r="AX471" s="2"/>
     </row>
-    <row r="472" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="2"/>
       <c r="B472" s="2"/>
       <c r="C472" s="2"/>
@@ -25356,7 +25357,7 @@
       <c r="AW472" s="2"/>
       <c r="AX472" s="2"/>
     </row>
-    <row r="473" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="2"/>
       <c r="B473" s="2"/>
       <c r="C473" s="2"/>
@@ -25408,7 +25409,7 @@
       <c r="AW473" s="2"/>
       <c r="AX473" s="2"/>
     </row>
-    <row r="474" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="2"/>
       <c r="B474" s="2"/>
       <c r="C474" s="2"/>
@@ -25460,7 +25461,7 @@
       <c r="AW474" s="2"/>
       <c r="AX474" s="2"/>
     </row>
-    <row r="475" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="2"/>
       <c r="B475" s="2"/>
       <c r="C475" s="2"/>
@@ -25512,7 +25513,7 @@
       <c r="AW475" s="2"/>
       <c r="AX475" s="2"/>
     </row>
-    <row r="476" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="2"/>
       <c r="B476" s="2"/>
       <c r="C476" s="2"/>
@@ -25564,7 +25565,7 @@
       <c r="AW476" s="2"/>
       <c r="AX476" s="2"/>
     </row>
-    <row r="477" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="2"/>
       <c r="B477" s="2"/>
       <c r="C477" s="2"/>
@@ -25616,7 +25617,7 @@
       <c r="AW477" s="2"/>
       <c r="AX477" s="2"/>
     </row>
-    <row r="478" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="2"/>
       <c r="B478" s="2"/>
       <c r="C478" s="2"/>
@@ -25668,7 +25669,7 @@
       <c r="AW478" s="2"/>
       <c r="AX478" s="2"/>
     </row>
-    <row r="479" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="2"/>
       <c r="B479" s="2"/>
       <c r="C479" s="2"/>
@@ -25720,7 +25721,7 @@
       <c r="AW479" s="2"/>
       <c r="AX479" s="2"/>
     </row>
-    <row r="480" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="2"/>
       <c r="B480" s="2"/>
       <c r="C480" s="2"/>
@@ -25772,7 +25773,7 @@
       <c r="AW480" s="2"/>
       <c r="AX480" s="2"/>
     </row>
-    <row r="481" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="2"/>
       <c r="B481" s="2"/>
       <c r="C481" s="2"/>
@@ -25824,7 +25825,7 @@
       <c r="AW481" s="2"/>
       <c r="AX481" s="2"/>
     </row>
-    <row r="482" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="2"/>
       <c r="B482" s="2"/>
       <c r="C482" s="2"/>
@@ -25876,7 +25877,7 @@
       <c r="AW482" s="2"/>
       <c r="AX482" s="2"/>
     </row>
-    <row r="483" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="2"/>
       <c r="B483" s="2"/>
       <c r="C483" s="2"/>
@@ -25928,7 +25929,7 @@
       <c r="AW483" s="2"/>
       <c r="AX483" s="2"/>
     </row>
-    <row r="484" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="2"/>
       <c r="B484" s="2"/>
       <c r="C484" s="2"/>
@@ -25980,7 +25981,7 @@
       <c r="AW484" s="2"/>
       <c r="AX484" s="2"/>
     </row>
-    <row r="485" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="2"/>
       <c r="B485" s="2"/>
       <c r="C485" s="2"/>
@@ -26032,7 +26033,7 @@
       <c r="AW485" s="2"/>
       <c r="AX485" s="2"/>
     </row>
-    <row r="486" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="2"/>
       <c r="B486" s="2"/>
       <c r="C486" s="2"/>
@@ -26084,7 +26085,7 @@
       <c r="AW486" s="2"/>
       <c r="AX486" s="2"/>
     </row>
-    <row r="487" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="2"/>
       <c r="B487" s="2"/>
       <c r="C487" s="2"/>
@@ -26136,7 +26137,7 @@
       <c r="AW487" s="2"/>
       <c r="AX487" s="2"/>
     </row>
-    <row r="488" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="2"/>
       <c r="B488" s="2"/>
       <c r="C488" s="2"/>
@@ -26188,7 +26189,7 @@
       <c r="AW488" s="2"/>
       <c r="AX488" s="2"/>
     </row>
-    <row r="489" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="2"/>
       <c r="B489" s="2"/>
       <c r="C489" s="2"/>
@@ -26240,7 +26241,7 @@
       <c r="AW489" s="2"/>
       <c r="AX489" s="2"/>
     </row>
-    <row r="490" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="2"/>
       <c r="B490" s="2"/>
       <c r="C490" s="2"/>
@@ -26292,7 +26293,7 @@
       <c r="AW490" s="2"/>
       <c r="AX490" s="2"/>
     </row>
-    <row r="491" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="2"/>
       <c r="B491" s="2"/>
       <c r="C491" s="2"/>
@@ -26344,7 +26345,7 @@
       <c r="AW491" s="2"/>
       <c r="AX491" s="2"/>
     </row>
-    <row r="492" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="2"/>
       <c r="B492" s="2"/>
       <c r="C492" s="2"/>
@@ -26396,7 +26397,7 @@
       <c r="AW492" s="2"/>
       <c r="AX492" s="2"/>
     </row>
-    <row r="493" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="2"/>
       <c r="B493" s="2"/>
       <c r="C493" s="2"/>
@@ -26448,7 +26449,7 @@
       <c r="AW493" s="2"/>
       <c r="AX493" s="2"/>
     </row>
-    <row r="494" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="2"/>
       <c r="B494" s="2"/>
       <c r="C494" s="2"/>
@@ -26500,7 +26501,7 @@
       <c r="AW494" s="2"/>
       <c r="AX494" s="2"/>
     </row>
-    <row r="495" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="2"/>
       <c r="B495" s="2"/>
       <c r="C495" s="2"/>
@@ -26552,7 +26553,7 @@
       <c r="AW495" s="2"/>
       <c r="AX495" s="2"/>
     </row>
-    <row r="496" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="2"/>
       <c r="B496" s="2"/>
       <c r="C496" s="2"/>
@@ -26604,7 +26605,7 @@
       <c r="AW496" s="2"/>
       <c r="AX496" s="2"/>
     </row>
-    <row r="497" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="2"/>
       <c r="B497" s="2"/>
       <c r="C497" s="2"/>
@@ -26656,7 +26657,7 @@
       <c r="AW497" s="2"/>
       <c r="AX497" s="2"/>
     </row>
-    <row r="498" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="2"/>
       <c r="B498" s="2"/>
       <c r="C498" s="2"/>
@@ -26708,7 +26709,7 @@
       <c r="AW498" s="2"/>
       <c r="AX498" s="2"/>
     </row>
-    <row r="499" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="2"/>
       <c r="B499" s="2"/>
       <c r="C499" s="2"/>
@@ -26760,7 +26761,7 @@
       <c r="AW499" s="2"/>
       <c r="AX499" s="2"/>
     </row>
-    <row r="500" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="2"/>
       <c r="B500" s="2"/>
       <c r="C500" s="2"/>
@@ -26812,7 +26813,7 @@
       <c r="AW500" s="2"/>
       <c r="AX500" s="2"/>
     </row>
-    <row r="501" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="2"/>
       <c r="B501" s="2"/>
       <c r="C501" s="2"/>
@@ -26864,7 +26865,7 @@
       <c r="AW501" s="2"/>
       <c r="AX501" s="2"/>
     </row>
-    <row r="502" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="2"/>
       <c r="B502" s="2"/>
       <c r="C502" s="2"/>
@@ -26916,7 +26917,7 @@
       <c r="AW502" s="2"/>
       <c r="AX502" s="2"/>
     </row>
-    <row r="503" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="2"/>
       <c r="B503" s="2"/>
       <c r="C503" s="2"/>
@@ -26968,7 +26969,7 @@
       <c r="AW503" s="2"/>
       <c r="AX503" s="2"/>
     </row>
-    <row r="504" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="2"/>
       <c r="B504" s="2"/>
       <c r="C504" s="2"/>
@@ -27020,7 +27021,7 @@
       <c r="AW504" s="2"/>
       <c r="AX504" s="2"/>
     </row>
-    <row r="505" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="2"/>
       <c r="B505" s="2"/>
       <c r="C505" s="2"/>
@@ -27072,7 +27073,7 @@
       <c r="AW505" s="2"/>
       <c r="AX505" s="2"/>
     </row>
-    <row r="506" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="2"/>
       <c r="B506" s="2"/>
       <c r="C506" s="2"/>
@@ -27124,7 +27125,7 @@
       <c r="AW506" s="2"/>
       <c r="AX506" s="2"/>
     </row>
-    <row r="507" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="2"/>
       <c r="B507" s="2"/>
       <c r="C507" s="2"/>
@@ -27176,7 +27177,7 @@
       <c r="AW507" s="2"/>
       <c r="AX507" s="2"/>
     </row>
-    <row r="508" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="2"/>
       <c r="B508" s="2"/>
       <c r="C508" s="2"/>
@@ -27228,7 +27229,7 @@
       <c r="AW508" s="2"/>
       <c r="AX508" s="2"/>
     </row>
-    <row r="509" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="2"/>
       <c r="B509" s="2"/>
       <c r="C509" s="2"/>
@@ -27280,7 +27281,7 @@
       <c r="AW509" s="2"/>
       <c r="AX509" s="2"/>
     </row>
-    <row r="510" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="2"/>
       <c r="B510" s="2"/>
       <c r="C510" s="2"/>
@@ -27332,7 +27333,7 @@
       <c r="AW510" s="2"/>
       <c r="AX510" s="2"/>
     </row>
-    <row r="511" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="2"/>
       <c r="B511" s="2"/>
       <c r="C511" s="2"/>
@@ -27384,7 +27385,7 @@
       <c r="AW511" s="2"/>
       <c r="AX511" s="2"/>
     </row>
-    <row r="512" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="2"/>
       <c r="B512" s="2"/>
       <c r="C512" s="2"/>
@@ -27436,7 +27437,7 @@
       <c r="AW512" s="2"/>
       <c r="AX512" s="2"/>
     </row>
-    <row r="513" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="2"/>
       <c r="B513" s="2"/>
       <c r="C513" s="2"/>
@@ -27488,7 +27489,7 @@
       <c r="AW513" s="2"/>
       <c r="AX513" s="2"/>
     </row>
-    <row r="514" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="2"/>
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
@@ -27540,7 +27541,7 @@
       <c r="AW514" s="2"/>
       <c r="AX514" s="2"/>
     </row>
-    <row r="515" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="2"/>
       <c r="B515" s="2"/>
       <c r="C515" s="2"/>
@@ -27592,7 +27593,7 @@
       <c r="AW515" s="2"/>
       <c r="AX515" s="2"/>
     </row>
-    <row r="516" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="2"/>
       <c r="B516" s="2"/>
       <c r="C516" s="2"/>
@@ -27644,7 +27645,7 @@
       <c r="AW516" s="2"/>
       <c r="AX516" s="2"/>
     </row>
-    <row r="517" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="2"/>
       <c r="B517" s="2"/>
       <c r="C517" s="2"/>
@@ -27696,7 +27697,7 @@
       <c r="AW517" s="2"/>
       <c r="AX517" s="2"/>
     </row>
-    <row r="518" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="2"/>
       <c r="B518" s="2"/>
       <c r="C518" s="2"/>
@@ -27748,7 +27749,7 @@
       <c r="AW518" s="2"/>
       <c r="AX518" s="2"/>
     </row>
-    <row r="519" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="2"/>
       <c r="B519" s="2"/>
       <c r="C519" s="2"/>
@@ -27800,7 +27801,7 @@
       <c r="AW519" s="2"/>
       <c r="AX519" s="2"/>
     </row>
-    <row r="520" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="2"/>
       <c r="B520" s="2"/>
       <c r="C520" s="2"/>
@@ -27852,7 +27853,7 @@
       <c r="AW520" s="2"/>
       <c r="AX520" s="2"/>
     </row>
-    <row r="521" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="2"/>
       <c r="B521" s="2"/>
       <c r="C521" s="2"/>
@@ -27904,7 +27905,7 @@
       <c r="AW521" s="2"/>
       <c r="AX521" s="2"/>
     </row>
-    <row r="522" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="2"/>
       <c r="B522" s="2"/>
       <c r="C522" s="2"/>
@@ -27956,7 +27957,7 @@
       <c r="AW522" s="2"/>
       <c r="AX522" s="2"/>
     </row>
-    <row r="523" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="2"/>
       <c r="B523" s="2"/>
       <c r="C523" s="2"/>
@@ -28008,7 +28009,7 @@
       <c r="AW523" s="2"/>
       <c r="AX523" s="2"/>
     </row>
-    <row r="524" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="2"/>
       <c r="B524" s="2"/>
       <c r="C524" s="2"/>
@@ -28060,7 +28061,7 @@
       <c r="AW524" s="2"/>
       <c r="AX524" s="2"/>
     </row>
-    <row r="525" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="2"/>
       <c r="B525" s="2"/>
       <c r="C525" s="2"/>
@@ -28112,7 +28113,7 @@
       <c r="AW525" s="2"/>
       <c r="AX525" s="2"/>
     </row>
-    <row r="526" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="2"/>
       <c r="B526" s="2"/>
       <c r="C526" s="2"/>
@@ -28164,7 +28165,7 @@
       <c r="AW526" s="2"/>
       <c r="AX526" s="2"/>
     </row>
-    <row r="527" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="2"/>
       <c r="B527" s="2"/>
       <c r="C527" s="2"/>
@@ -28216,7 +28217,7 @@
       <c r="AW527" s="2"/>
       <c r="AX527" s="2"/>
     </row>
-    <row r="528" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="2"/>
       <c r="B528" s="2"/>
       <c r="C528" s="2"/>
@@ -28268,7 +28269,7 @@
       <c r="AW528" s="2"/>
       <c r="AX528" s="2"/>
     </row>
-    <row r="529" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="2"/>
       <c r="B529" s="2"/>
       <c r="C529" s="2"/>
@@ -28320,7 +28321,7 @@
       <c r="AW529" s="2"/>
       <c r="AX529" s="2"/>
     </row>
-    <row r="530" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="2"/>
       <c r="B530" s="2"/>
       <c r="C530" s="2"/>
@@ -28372,7 +28373,7 @@
       <c r="AW530" s="2"/>
       <c r="AX530" s="2"/>
     </row>
-    <row r="531" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="2"/>
       <c r="B531" s="2"/>
       <c r="C531" s="2"/>
@@ -28424,7 +28425,7 @@
       <c r="AW531" s="2"/>
       <c r="AX531" s="2"/>
     </row>
-    <row r="532" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="2"/>
       <c r="B532" s="2"/>
       <c r="C532" s="2"/>
@@ -28476,7 +28477,7 @@
       <c r="AW532" s="2"/>
       <c r="AX532" s="2"/>
     </row>
-    <row r="533" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="2"/>
       <c r="B533" s="2"/>
       <c r="C533" s="2"/>
@@ -28528,7 +28529,7 @@
       <c r="AW533" s="2"/>
       <c r="AX533" s="2"/>
     </row>
-    <row r="534" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="2"/>
       <c r="B534" s="2"/>
       <c r="C534" s="2"/>
@@ -28580,7 +28581,7 @@
       <c r="AW534" s="2"/>
       <c r="AX534" s="2"/>
     </row>
-    <row r="535" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="2"/>
       <c r="B535" s="2"/>
       <c r="C535" s="2"/>
@@ -28632,7 +28633,7 @@
       <c r="AW535" s="2"/>
       <c r="AX535" s="2"/>
     </row>
-    <row r="536" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="2"/>
       <c r="B536" s="2"/>
       <c r="C536" s="2"/>
@@ -28684,7 +28685,7 @@
       <c r="AW536" s="2"/>
       <c r="AX536" s="2"/>
     </row>
-    <row r="537" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="2"/>
       <c r="B537" s="2"/>
       <c r="C537" s="2"/>
@@ -28736,7 +28737,7 @@
       <c r="AW537" s="2"/>
       <c r="AX537" s="2"/>
     </row>
-    <row r="538" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="2"/>
       <c r="B538" s="2"/>
       <c r="C538" s="2"/>
@@ -28788,7 +28789,7 @@
       <c r="AW538" s="2"/>
       <c r="AX538" s="2"/>
     </row>
-    <row r="539" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="2"/>
       <c r="B539" s="2"/>
       <c r="C539" s="2"/>
@@ -28840,7 +28841,7 @@
       <c r="AW539" s="2"/>
       <c r="AX539" s="2"/>
     </row>
-    <row r="540" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="2"/>
       <c r="B540" s="2"/>
       <c r="C540" s="2"/>
@@ -28892,7 +28893,7 @@
       <c r="AW540" s="2"/>
       <c r="AX540" s="2"/>
     </row>
-    <row r="541" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="2"/>
       <c r="B541" s="2"/>
       <c r="C541" s="2"/>
@@ -28944,7 +28945,7 @@
       <c r="AW541" s="2"/>
       <c r="AX541" s="2"/>
     </row>
-    <row r="542" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="2"/>
       <c r="B542" s="2"/>
       <c r="C542" s="2"/>
@@ -28996,7 +28997,7 @@
       <c r="AW542" s="2"/>
       <c r="AX542" s="2"/>
     </row>
-    <row r="543" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="2"/>
       <c r="B543" s="2"/>
       <c r="C543" s="2"/>
@@ -29048,7 +29049,7 @@
       <c r="AW543" s="2"/>
       <c r="AX543" s="2"/>
     </row>
-    <row r="544" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="2"/>
       <c r="B544" s="2"/>
       <c r="C544" s="2"/>
@@ -29100,7 +29101,7 @@
       <c r="AW544" s="2"/>
       <c r="AX544" s="2"/>
     </row>
-    <row r="545" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="2"/>
       <c r="B545" s="2"/>
       <c r="C545" s="2"/>
@@ -29152,7 +29153,7 @@
       <c r="AW545" s="2"/>
       <c r="AX545" s="2"/>
     </row>
-    <row r="546" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="2"/>
       <c r="B546" s="2"/>
       <c r="C546" s="2"/>
@@ -29204,7 +29205,7 @@
       <c r="AW546" s="2"/>
       <c r="AX546" s="2"/>
     </row>
-    <row r="547" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="2"/>
       <c r="B547" s="2"/>
       <c r="C547" s="2"/>
@@ -29256,7 +29257,7 @@
       <c r="AW547" s="2"/>
       <c r="AX547" s="2"/>
     </row>
-    <row r="548" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="2"/>
       <c r="B548" s="2"/>
       <c r="C548" s="2"/>
@@ -29308,7 +29309,7 @@
       <c r="AW548" s="2"/>
       <c r="AX548" s="2"/>
     </row>
-    <row r="549" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="2"/>
       <c r="B549" s="2"/>
       <c r="C549" s="2"/>
@@ -29360,7 +29361,7 @@
       <c r="AW549" s="2"/>
       <c r="AX549" s="2"/>
     </row>
-    <row r="550" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="2"/>
       <c r="B550" s="2"/>
       <c r="C550" s="2"/>
@@ -29412,7 +29413,7 @@
       <c r="AW550" s="2"/>
       <c r="AX550" s="2"/>
     </row>
-    <row r="551" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="2"/>
       <c r="B551" s="2"/>
       <c r="C551" s="2"/>
@@ -29464,7 +29465,7 @@
       <c r="AW551" s="2"/>
       <c r="AX551" s="2"/>
     </row>
-    <row r="552" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="2"/>
       <c r="B552" s="2"/>
       <c r="C552" s="2"/>
@@ -29516,7 +29517,7 @@
       <c r="AW552" s="2"/>
       <c r="AX552" s="2"/>
     </row>
-    <row r="553" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="2"/>
       <c r="B553" s="2"/>
       <c r="C553" s="2"/>
@@ -29568,7 +29569,7 @@
       <c r="AW553" s="2"/>
       <c r="AX553" s="2"/>
     </row>
-    <row r="554" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="2"/>
       <c r="B554" s="2"/>
       <c r="C554" s="2"/>
@@ -29620,7 +29621,7 @@
       <c r="AW554" s="2"/>
       <c r="AX554" s="2"/>
     </row>
-    <row r="555" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="2"/>
       <c r="B555" s="2"/>
       <c r="C555" s="2"/>
@@ -29672,7 +29673,7 @@
       <c r="AW555" s="2"/>
       <c r="AX555" s="2"/>
     </row>
-    <row r="556" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="2"/>
       <c r="B556" s="2"/>
       <c r="C556" s="2"/>
@@ -29724,7 +29725,7 @@
       <c r="AW556" s="2"/>
       <c r="AX556" s="2"/>
     </row>
-    <row r="557" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="2"/>
       <c r="B557" s="2"/>
       <c r="C557" s="2"/>
@@ -29776,7 +29777,7 @@
       <c r="AW557" s="2"/>
       <c r="AX557" s="2"/>
     </row>
-    <row r="558" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="2"/>
       <c r="B558" s="2"/>
       <c r="C558" s="2"/>
@@ -29828,7 +29829,7 @@
       <c r="AW558" s="2"/>
       <c r="AX558" s="2"/>
     </row>
-    <row r="559" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="2"/>
       <c r="B559" s="2"/>
       <c r="C559" s="2"/>
@@ -29880,7 +29881,7 @@
       <c r="AW559" s="2"/>
       <c r="AX559" s="2"/>
     </row>
-    <row r="560" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="2"/>
       <c r="B560" s="2"/>
       <c r="C560" s="2"/>
@@ -29932,7 +29933,7 @@
       <c r="AW560" s="2"/>
       <c r="AX560" s="2"/>
     </row>
-    <row r="561" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="2"/>
       <c r="B561" s="2"/>
       <c r="C561" s="2"/>
@@ -29984,7 +29985,7 @@
       <c r="AW561" s="2"/>
       <c r="AX561" s="2"/>
     </row>
-    <row r="562" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="2"/>
       <c r="B562" s="2"/>
       <c r="C562" s="2"/>
@@ -30036,7 +30037,7 @@
       <c r="AW562" s="2"/>
       <c r="AX562" s="2"/>
     </row>
-    <row r="563" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="2"/>
       <c r="B563" s="2"/>
       <c r="C563" s="2"/>
@@ -30088,7 +30089,7 @@
       <c r="AW563" s="2"/>
       <c r="AX563" s="2"/>
     </row>
-    <row r="564" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="2"/>
       <c r="B564" s="2"/>
       <c r="C564" s="2"/>
@@ -30140,7 +30141,7 @@
       <c r="AW564" s="2"/>
       <c r="AX564" s="2"/>
     </row>
-    <row r="565" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="2"/>
       <c r="B565" s="2"/>
       <c r="C565" s="2"/>
@@ -30192,7 +30193,7 @@
       <c r="AW565" s="2"/>
       <c r="AX565" s="2"/>
     </row>
-    <row r="566" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="2"/>
       <c r="B566" s="2"/>
       <c r="C566" s="2"/>
@@ -30244,7 +30245,7 @@
       <c r="AW566" s="2"/>
       <c r="AX566" s="2"/>
     </row>
-    <row r="567" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="2"/>
       <c r="B567" s="2"/>
       <c r="C567" s="2"/>
@@ -30296,7 +30297,7 @@
       <c r="AW567" s="2"/>
       <c r="AX567" s="2"/>
     </row>
-    <row r="568" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="2"/>
       <c r="B568" s="2"/>
       <c r="C568" s="2"/>
@@ -30348,7 +30349,7 @@
       <c r="AW568" s="2"/>
       <c r="AX568" s="2"/>
     </row>
-    <row r="569" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="2"/>
       <c r="B569" s="2"/>
       <c r="C569" s="2"/>
@@ -30400,7 +30401,7 @@
       <c r="AW569" s="2"/>
       <c r="AX569" s="2"/>
     </row>
-    <row r="570" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="2"/>
       <c r="B570" s="2"/>
       <c r="C570" s="2"/>
@@ -30452,7 +30453,7 @@
       <c r="AW570" s="2"/>
       <c r="AX570" s="2"/>
     </row>
-    <row r="571" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="2"/>
       <c r="B571" s="2"/>
       <c r="C571" s="2"/>
@@ -30504,7 +30505,7 @@
       <c r="AW571" s="2"/>
       <c r="AX571" s="2"/>
     </row>
-    <row r="572" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="2"/>
       <c r="B572" s="2"/>
       <c r="C572" s="2"/>
@@ -30556,7 +30557,7 @@
       <c r="AW572" s="2"/>
       <c r="AX572" s="2"/>
     </row>
-    <row r="573" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="2"/>
       <c r="B573" s="2"/>
       <c r="C573" s="2"/>
@@ -30608,7 +30609,7 @@
       <c r="AW573" s="2"/>
       <c r="AX573" s="2"/>
     </row>
-    <row r="574" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="2"/>
       <c r="B574" s="2"/>
       <c r="C574" s="2"/>
@@ -30660,7 +30661,7 @@
       <c r="AW574" s="2"/>
       <c r="AX574" s="2"/>
     </row>
-    <row r="575" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="2"/>
       <c r="B575" s="2"/>
       <c r="C575" s="2"/>
@@ -30712,7 +30713,7 @@
       <c r="AW575" s="2"/>
       <c r="AX575" s="2"/>
     </row>
-    <row r="576" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="2"/>
       <c r="B576" s="2"/>
       <c r="C576" s="2"/>
@@ -30764,7 +30765,7 @@
       <c r="AW576" s="2"/>
       <c r="AX576" s="2"/>
     </row>
-    <row r="577" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="2"/>
       <c r="B577" s="2"/>
       <c r="C577" s="2"/>
@@ -30816,7 +30817,7 @@
       <c r="AW577" s="2"/>
       <c r="AX577" s="2"/>
     </row>
-    <row r="578" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="2"/>
       <c r="B578" s="2"/>
       <c r="C578" s="2"/>
@@ -30868,7 +30869,7 @@
       <c r="AW578" s="2"/>
       <c r="AX578" s="2"/>
     </row>
-    <row r="579" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="2"/>
       <c r="B579" s="2"/>
       <c r="C579" s="2"/>
@@ -30920,7 +30921,7 @@
       <c r="AW579" s="2"/>
       <c r="AX579" s="2"/>
     </row>
-    <row r="580" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="2"/>
       <c r="B580" s="2"/>
       <c r="C580" s="2"/>
@@ -30972,7 +30973,7 @@
       <c r="AW580" s="2"/>
       <c r="AX580" s="2"/>
     </row>
-    <row r="581" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="2"/>
       <c r="B581" s="2"/>
       <c r="C581" s="2"/>
@@ -31024,7 +31025,7 @@
       <c r="AW581" s="2"/>
       <c r="AX581" s="2"/>
     </row>
-    <row r="582" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="2"/>
       <c r="B582" s="2"/>
       <c r="C582" s="2"/>
@@ -31076,7 +31077,7 @@
       <c r="AW582" s="2"/>
       <c r="AX582" s="2"/>
     </row>
-    <row r="583" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="2"/>
       <c r="B583" s="2"/>
       <c r="C583" s="2"/>
@@ -31128,7 +31129,7 @@
       <c r="AW583" s="2"/>
       <c r="AX583" s="2"/>
     </row>
-    <row r="584" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="2"/>
       <c r="B584" s="2"/>
       <c r="C584" s="2"/>
@@ -31180,7 +31181,7 @@
       <c r="AW584" s="2"/>
       <c r="AX584" s="2"/>
     </row>
-    <row r="585" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="2"/>
       <c r="B585" s="2"/>
       <c r="C585" s="2"/>
@@ -31232,7 +31233,7 @@
       <c r="AW585" s="2"/>
       <c r="AX585" s="2"/>
     </row>
-    <row r="586" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" s="2"/>
       <c r="B586" s="2"/>
       <c r="C586" s="2"/>
@@ -31284,7 +31285,7 @@
       <c r="AW586" s="2"/>
       <c r="AX586" s="2"/>
     </row>
-    <row r="587" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="2"/>
       <c r="B587" s="2"/>
       <c r="C587" s="2"/>
@@ -31336,7 +31337,7 @@
       <c r="AW587" s="2"/>
       <c r="AX587" s="2"/>
     </row>
-    <row r="588" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="2"/>
       <c r="B588" s="2"/>
       <c r="C588" s="2"/>
@@ -31388,7 +31389,7 @@
       <c r="AW588" s="2"/>
       <c r="AX588" s="2"/>
     </row>
-    <row r="589" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="2"/>
       <c r="B589" s="2"/>
       <c r="C589" s="2"/>
@@ -31440,7 +31441,7 @@
       <c r="AW589" s="2"/>
       <c r="AX589" s="2"/>
     </row>
-    <row r="590" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" s="2"/>
       <c r="B590" s="2"/>
       <c r="C590" s="2"/>
@@ -31492,7 +31493,7 @@
       <c r="AW590" s="2"/>
       <c r="AX590" s="2"/>
     </row>
-    <row r="591" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="2"/>
       <c r="B591" s="2"/>
       <c r="C591" s="2"/>
@@ -31544,7 +31545,7 @@
       <c r="AW591" s="2"/>
       <c r="AX591" s="2"/>
     </row>
-    <row r="592" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" s="2"/>
       <c r="B592" s="2"/>
       <c r="C592" s="2"/>
@@ -31596,7 +31597,7 @@
       <c r="AW592" s="2"/>
       <c r="AX592" s="2"/>
     </row>
-    <row r="593" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="2"/>
       <c r="B593" s="2"/>
       <c r="C593" s="2"/>
@@ -31648,7 +31649,7 @@
       <c r="AW593" s="2"/>
       <c r="AX593" s="2"/>
     </row>
-    <row r="594" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="2"/>
       <c r="B594" s="2"/>
       <c r="C594" s="2"/>
@@ -31700,7 +31701,7 @@
       <c r="AW594" s="2"/>
       <c r="AX594" s="2"/>
     </row>
-    <row r="595" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="2"/>
       <c r="B595" s="2"/>
       <c r="C595" s="2"/>
@@ -31752,7 +31753,7 @@
       <c r="AW595" s="2"/>
       <c r="AX595" s="2"/>
     </row>
-    <row r="596" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="2"/>
       <c r="B596" s="2"/>
       <c r="C596" s="2"/>
@@ -31804,7 +31805,7 @@
       <c r="AW596" s="2"/>
       <c r="AX596" s="2"/>
     </row>
-    <row r="597" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" s="2"/>
       <c r="B597" s="2"/>
       <c r="C597" s="2"/>
@@ -31856,7 +31857,7 @@
       <c r="AW597" s="2"/>
       <c r="AX597" s="2"/>
     </row>
-    <row r="598" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" s="2"/>
       <c r="B598" s="2"/>
       <c r="C598" s="2"/>
@@ -31908,7 +31909,7 @@
       <c r="AW598" s="2"/>
       <c r="AX598" s="2"/>
     </row>
-    <row r="599" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" s="2"/>
       <c r="B599" s="2"/>
       <c r="C599" s="2"/>
@@ -31960,7 +31961,7 @@
       <c r="AW599" s="2"/>
       <c r="AX599" s="2"/>
     </row>
-    <row r="600" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="2"/>
       <c r="B600" s="2"/>
       <c r="C600" s="2"/>
@@ -32012,7 +32013,7 @@
       <c r="AW600" s="2"/>
       <c r="AX600" s="2"/>
     </row>
-    <row r="601" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="2"/>
       <c r="B601" s="2"/>
       <c r="C601" s="2"/>
@@ -32064,7 +32065,7 @@
       <c r="AW601" s="2"/>
       <c r="AX601" s="2"/>
     </row>
-    <row r="602" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" s="2"/>
       <c r="B602" s="2"/>
       <c r="C602" s="2"/>
@@ -32116,7 +32117,7 @@
       <c r="AW602" s="2"/>
       <c r="AX602" s="2"/>
     </row>
-    <row r="603" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" s="2"/>
       <c r="B603" s="2"/>
       <c r="C603" s="2"/>
@@ -32168,7 +32169,7 @@
       <c r="AW603" s="2"/>
       <c r="AX603" s="2"/>
     </row>
-    <row r="604" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" s="2"/>
       <c r="B604" s="2"/>
       <c r="C604" s="2"/>
@@ -32220,7 +32221,7 @@
       <c r="AW604" s="2"/>
       <c r="AX604" s="2"/>
     </row>
-    <row r="605" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" s="2"/>
       <c r="B605" s="2"/>
       <c r="C605" s="2"/>
@@ -32272,7 +32273,7 @@
       <c r="AW605" s="2"/>
       <c r="AX605" s="2"/>
     </row>
-    <row r="606" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" s="2"/>
       <c r="B606" s="2"/>
       <c r="C606" s="2"/>
@@ -32324,7 +32325,7 @@
       <c r="AW606" s="2"/>
       <c r="AX606" s="2"/>
     </row>
-    <row r="607" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" s="2"/>
       <c r="B607" s="2"/>
       <c r="C607" s="2"/>
@@ -32376,7 +32377,7 @@
       <c r="AW607" s="2"/>
       <c r="AX607" s="2"/>
     </row>
-    <row r="608" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608" s="2"/>
       <c r="B608" s="2"/>
       <c r="C608" s="2"/>
@@ -32428,7 +32429,7 @@
       <c r="AW608" s="2"/>
       <c r="AX608" s="2"/>
     </row>
-    <row r="609" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A609" s="2"/>
       <c r="B609" s="2"/>
       <c r="C609" s="2"/>
@@ -32480,7 +32481,7 @@
       <c r="AW609" s="2"/>
       <c r="AX609" s="2"/>
     </row>
-    <row r="610" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A610" s="2"/>
       <c r="B610" s="2"/>
       <c r="C610" s="2"/>
@@ -32532,7 +32533,7 @@
       <c r="AW610" s="2"/>
       <c r="AX610" s="2"/>
     </row>
-    <row r="611" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A611" s="2"/>
       <c r="B611" s="2"/>
       <c r="C611" s="2"/>
@@ -32584,7 +32585,7 @@
       <c r="AW611" s="2"/>
       <c r="AX611" s="2"/>
     </row>
-    <row r="612" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A612" s="2"/>
       <c r="B612" s="2"/>
       <c r="C612" s="2"/>
@@ -32636,7 +32637,7 @@
       <c r="AW612" s="2"/>
       <c r="AX612" s="2"/>
     </row>
-    <row r="613" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A613" s="2"/>
       <c r="B613" s="2"/>
       <c r="C613" s="2"/>
@@ -32688,7 +32689,7 @@
       <c r="AW613" s="2"/>
       <c r="AX613" s="2"/>
     </row>
-    <row r="614" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A614" s="2"/>
       <c r="B614" s="2"/>
       <c r="C614" s="2"/>
@@ -32740,7 +32741,7 @@
       <c r="AW614" s="2"/>
       <c r="AX614" s="2"/>
     </row>
-    <row r="615" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A615" s="2"/>
       <c r="B615" s="2"/>
       <c r="C615" s="2"/>
@@ -32792,7 +32793,7 @@
       <c r="AW615" s="2"/>
       <c r="AX615" s="2"/>
     </row>
-    <row r="616" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A616" s="2"/>
       <c r="B616" s="2"/>
       <c r="C616" s="2"/>
@@ -32844,7 +32845,7 @@
       <c r="AW616" s="2"/>
       <c r="AX616" s="2"/>
     </row>
-    <row r="617" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" s="2"/>
       <c r="B617" s="2"/>
       <c r="C617" s="2"/>
@@ -32896,7 +32897,7 @@
       <c r="AW617" s="2"/>
       <c r="AX617" s="2"/>
     </row>
-    <row r="618" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A618" s="2"/>
       <c r="B618" s="2"/>
       <c r="C618" s="2"/>
@@ -32948,7 +32949,7 @@
       <c r="AW618" s="2"/>
       <c r="AX618" s="2"/>
     </row>
-    <row r="619" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A619" s="2"/>
       <c r="B619" s="2"/>
       <c r="C619" s="2"/>
@@ -33000,7 +33001,7 @@
       <c r="AW619" s="2"/>
       <c r="AX619" s="2"/>
     </row>
-    <row r="620" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A620" s="2"/>
       <c r="B620" s="2"/>
       <c r="C620" s="2"/>
@@ -33052,7 +33053,7 @@
       <c r="AW620" s="2"/>
       <c r="AX620" s="2"/>
     </row>
-    <row r="621" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A621" s="2"/>
       <c r="B621" s="2"/>
       <c r="C621" s="2"/>
@@ -33104,7 +33105,7 @@
       <c r="AW621" s="2"/>
       <c r="AX621" s="2"/>
     </row>
-    <row r="622" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A622" s="2"/>
       <c r="B622" s="2"/>
       <c r="C622" s="2"/>
@@ -33156,7 +33157,7 @@
       <c r="AW622" s="2"/>
       <c r="AX622" s="2"/>
     </row>
-    <row r="623" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A623" s="2"/>
       <c r="B623" s="2"/>
       <c r="C623" s="2"/>
@@ -33208,7 +33209,7 @@
       <c r="AW623" s="2"/>
       <c r="AX623" s="2"/>
     </row>
-    <row r="624" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A624" s="2"/>
       <c r="B624" s="2"/>
       <c r="C624" s="2"/>
@@ -33260,7 +33261,7 @@
       <c r="AW624" s="2"/>
       <c r="AX624" s="2"/>
     </row>
-    <row r="625" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A625" s="2"/>
       <c r="B625" s="2"/>
       <c r="C625" s="2"/>
@@ -33312,7 +33313,7 @@
       <c r="AW625" s="2"/>
       <c r="AX625" s="2"/>
     </row>
-    <row r="626" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A626" s="2"/>
       <c r="B626" s="2"/>
       <c r="C626" s="2"/>
@@ -33364,7 +33365,7 @@
       <c r="AW626" s="2"/>
       <c r="AX626" s="2"/>
     </row>
-    <row r="627" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A627" s="2"/>
       <c r="B627" s="2"/>
       <c r="C627" s="2"/>
@@ -33416,7 +33417,7 @@
       <c r="AW627" s="2"/>
       <c r="AX627" s="2"/>
     </row>
-    <row r="628" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A628" s="2"/>
       <c r="B628" s="2"/>
       <c r="C628" s="2"/>
@@ -33468,7 +33469,7 @@
       <c r="AW628" s="2"/>
       <c r="AX628" s="2"/>
     </row>
-    <row r="629" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A629" s="2"/>
       <c r="B629" s="2"/>
       <c r="C629" s="2"/>
@@ -33520,7 +33521,7 @@
       <c r="AW629" s="2"/>
       <c r="AX629" s="2"/>
     </row>
-    <row r="630" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A630" s="2"/>
       <c r="B630" s="2"/>
       <c r="C630" s="2"/>
@@ -33572,7 +33573,7 @@
       <c r="AW630" s="2"/>
       <c r="AX630" s="2"/>
     </row>
-    <row r="631" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A631" s="2"/>
       <c r="B631" s="2"/>
       <c r="C631" s="2"/>
@@ -33624,7 +33625,7 @@
       <c r="AW631" s="2"/>
       <c r="AX631" s="2"/>
     </row>
-    <row r="632" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A632" s="2"/>
       <c r="B632" s="2"/>
       <c r="C632" s="2"/>
@@ -33676,7 +33677,7 @@
       <c r="AW632" s="2"/>
       <c r="AX632" s="2"/>
     </row>
-    <row r="633" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A633" s="2"/>
       <c r="B633" s="2"/>
       <c r="C633" s="2"/>
@@ -33728,7 +33729,7 @@
       <c r="AW633" s="2"/>
       <c r="AX633" s="2"/>
     </row>
-    <row r="634" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A634" s="2"/>
       <c r="B634" s="2"/>
       <c r="C634" s="2"/>
@@ -33780,7 +33781,7 @@
       <c r="AW634" s="2"/>
       <c r="AX634" s="2"/>
     </row>
-    <row r="635" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A635" s="2"/>
       <c r="B635" s="2"/>
       <c r="C635" s="2"/>
@@ -33832,7 +33833,7 @@
       <c r="AW635" s="2"/>
       <c r="AX635" s="2"/>
     </row>
-    <row r="636" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A636" s="2"/>
       <c r="B636" s="2"/>
       <c r="C636" s="2"/>
@@ -33884,7 +33885,7 @@
       <c r="AW636" s="2"/>
       <c r="AX636" s="2"/>
     </row>
-    <row r="637" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A637" s="2"/>
       <c r="B637" s="2"/>
       <c r="C637" s="2"/>
@@ -33936,7 +33937,7 @@
       <c r="AW637" s="2"/>
       <c r="AX637" s="2"/>
     </row>
-    <row r="638" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638" s="2"/>
       <c r="B638" s="2"/>
       <c r="C638" s="2"/>
@@ -33988,7 +33989,7 @@
       <c r="AW638" s="2"/>
       <c r="AX638" s="2"/>
     </row>
-    <row r="639" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A639" s="2"/>
       <c r="B639" s="2"/>
       <c r="C639" s="2"/>
@@ -34040,7 +34041,7 @@
       <c r="AW639" s="2"/>
       <c r="AX639" s="2"/>
     </row>
-    <row r="640" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A640" s="2"/>
       <c r="B640" s="2"/>
       <c r="C640" s="2"/>
@@ -34092,7 +34093,7 @@
       <c r="AW640" s="2"/>
       <c r="AX640" s="2"/>
     </row>
-    <row r="641" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A641" s="2"/>
       <c r="B641" s="2"/>
       <c r="C641" s="2"/>
@@ -34144,7 +34145,7 @@
       <c r="AW641" s="2"/>
       <c r="AX641" s="2"/>
     </row>
-    <row r="642" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A642" s="2"/>
       <c r="B642" s="2"/>
       <c r="C642" s="2"/>
@@ -34196,7 +34197,7 @@
       <c r="AW642" s="2"/>
       <c r="AX642" s="2"/>
     </row>
-    <row r="643" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A643" s="2"/>
       <c r="B643" s="2"/>
       <c r="C643" s="2"/>
@@ -34248,7 +34249,7 @@
       <c r="AW643" s="2"/>
       <c r="AX643" s="2"/>
     </row>
-    <row r="644" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A644" s="2"/>
       <c r="B644" s="2"/>
       <c r="C644" s="2"/>
@@ -34300,7 +34301,7 @@
       <c r="AW644" s="2"/>
       <c r="AX644" s="2"/>
     </row>
-    <row r="645" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A645" s="2"/>
       <c r="B645" s="2"/>
       <c r="C645" s="2"/>
@@ -34352,7 +34353,7 @@
       <c r="AW645" s="2"/>
       <c r="AX645" s="2"/>
     </row>
-    <row r="646" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A646" s="2"/>
       <c r="B646" s="2"/>
       <c r="C646" s="2"/>
@@ -34404,7 +34405,7 @@
       <c r="AW646" s="2"/>
       <c r="AX646" s="2"/>
     </row>
-    <row r="647" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A647" s="2"/>
       <c r="B647" s="2"/>
       <c r="C647" s="2"/>
@@ -34456,7 +34457,7 @@
       <c r="AW647" s="2"/>
       <c r="AX647" s="2"/>
     </row>
-    <row r="648" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A648" s="2"/>
       <c r="B648" s="2"/>
       <c r="C648" s="2"/>
@@ -34508,7 +34509,7 @@
       <c r="AW648" s="2"/>
       <c r="AX648" s="2"/>
     </row>
-    <row r="649" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A649" s="2"/>
       <c r="B649" s="2"/>
       <c r="C649" s="2"/>
@@ -34560,7 +34561,7 @@
       <c r="AW649" s="2"/>
       <c r="AX649" s="2"/>
     </row>
-    <row r="650" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A650" s="2"/>
       <c r="B650" s="2"/>
       <c r="C650" s="2"/>
@@ -34612,7 +34613,7 @@
       <c r="AW650" s="2"/>
       <c r="AX650" s="2"/>
     </row>
-    <row r="651" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A651" s="2"/>
       <c r="B651" s="2"/>
       <c r="C651" s="2"/>
@@ -34664,7 +34665,7 @@
       <c r="AW651" s="2"/>
       <c r="AX651" s="2"/>
     </row>
-    <row r="652" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A652" s="2"/>
       <c r="B652" s="2"/>
       <c r="C652" s="2"/>
@@ -34716,7 +34717,7 @@
       <c r="AW652" s="2"/>
       <c r="AX652" s="2"/>
     </row>
-    <row r="653" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A653" s="2"/>
       <c r="B653" s="2"/>
       <c r="C653" s="2"/>
@@ -34768,7 +34769,7 @@
       <c r="AW653" s="2"/>
       <c r="AX653" s="2"/>
     </row>
-    <row r="654" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A654" s="2"/>
       <c r="B654" s="2"/>
       <c r="C654" s="2"/>
@@ -34820,7 +34821,7 @@
       <c r="AW654" s="2"/>
       <c r="AX654" s="2"/>
     </row>
-    <row r="655" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A655" s="2"/>
       <c r="B655" s="2"/>
       <c r="C655" s="2"/>
@@ -34872,7 +34873,7 @@
       <c r="AW655" s="2"/>
       <c r="AX655" s="2"/>
     </row>
-    <row r="656" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A656" s="2"/>
       <c r="B656" s="2"/>
       <c r="C656" s="2"/>
@@ -34924,7 +34925,7 @@
       <c r="AW656" s="2"/>
       <c r="AX656" s="2"/>
     </row>
-    <row r="657" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A657" s="2"/>
       <c r="B657" s="2"/>
       <c r="C657" s="2"/>
@@ -34976,7 +34977,7 @@
       <c r="AW657" s="2"/>
       <c r="AX657" s="2"/>
     </row>
-    <row r="658" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A658" s="2"/>
       <c r="B658" s="2"/>
       <c r="C658" s="2"/>
@@ -35028,7 +35029,7 @@
       <c r="AW658" s="2"/>
       <c r="AX658" s="2"/>
     </row>
-    <row r="659" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A659" s="2"/>
       <c r="B659" s="2"/>
       <c r="C659" s="2"/>
@@ -35080,7 +35081,7 @@
       <c r="AW659" s="2"/>
       <c r="AX659" s="2"/>
     </row>
-    <row r="660" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A660" s="2"/>
       <c r="B660" s="2"/>
       <c r="C660" s="2"/>
@@ -35132,7 +35133,7 @@
       <c r="AW660" s="2"/>
       <c r="AX660" s="2"/>
     </row>
-    <row r="661" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A661" s="2"/>
       <c r="B661" s="2"/>
       <c r="C661" s="2"/>
@@ -35184,7 +35185,7 @@
       <c r="AW661" s="2"/>
       <c r="AX661" s="2"/>
     </row>
-    <row r="662" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A662" s="2"/>
       <c r="B662" s="2"/>
       <c r="C662" s="2"/>
@@ -35236,7 +35237,7 @@
       <c r="AW662" s="2"/>
       <c r="AX662" s="2"/>
     </row>
-    <row r="663" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A663" s="2"/>
       <c r="B663" s="2"/>
       <c r="C663" s="2"/>
@@ -35288,7 +35289,7 @@
       <c r="AW663" s="2"/>
       <c r="AX663" s="2"/>
     </row>
-    <row r="664" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A664" s="2"/>
       <c r="B664" s="2"/>
       <c r="C664" s="2"/>
@@ -35340,7 +35341,7 @@
       <c r="AW664" s="2"/>
       <c r="AX664" s="2"/>
     </row>
-    <row r="665" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A665" s="2"/>
       <c r="B665" s="2"/>
       <c r="C665" s="2"/>
@@ -35392,7 +35393,7 @@
       <c r="AW665" s="2"/>
       <c r="AX665" s="2"/>
     </row>
-    <row r="666" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A666" s="2"/>
       <c r="B666" s="2"/>
       <c r="C666" s="2"/>
@@ -35444,7 +35445,7 @@
       <c r="AW666" s="2"/>
       <c r="AX666" s="2"/>
     </row>
-    <row r="667" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A667" s="2"/>
       <c r="B667" s="2"/>
       <c r="C667" s="2"/>
@@ -35496,7 +35497,7 @@
       <c r="AW667" s="2"/>
       <c r="AX667" s="2"/>
     </row>
-    <row r="668" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A668" s="2"/>
       <c r="B668" s="2"/>
       <c r="C668" s="2"/>
@@ -35548,7 +35549,7 @@
       <c r="AW668" s="2"/>
       <c r="AX668" s="2"/>
     </row>
-    <row r="669" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A669" s="2"/>
       <c r="B669" s="2"/>
       <c r="C669" s="2"/>
@@ -35600,7 +35601,7 @@
       <c r="AW669" s="2"/>
       <c r="AX669" s="2"/>
     </row>
-    <row r="670" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A670" s="2"/>
       <c r="B670" s="2"/>
       <c r="C670" s="2"/>
@@ -35652,7 +35653,7 @@
       <c r="AW670" s="2"/>
       <c r="AX670" s="2"/>
     </row>
-    <row r="671" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A671" s="2"/>
       <c r="B671" s="2"/>
       <c r="C671" s="2"/>
@@ -35704,7 +35705,7 @@
       <c r="AW671" s="2"/>
       <c r="AX671" s="2"/>
     </row>
-    <row r="672" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A672" s="2"/>
       <c r="B672" s="2"/>
       <c r="C672" s="2"/>
@@ -35756,7 +35757,7 @@
       <c r="AW672" s="2"/>
       <c r="AX672" s="2"/>
     </row>
-    <row r="673" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A673" s="2"/>
       <c r="B673" s="2"/>
       <c r="C673" s="2"/>
@@ -35808,7 +35809,7 @@
       <c r="AW673" s="2"/>
       <c r="AX673" s="2"/>
     </row>
-    <row r="674" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A674" s="2"/>
       <c r="B674" s="2"/>
       <c r="C674" s="2"/>
@@ -35860,7 +35861,7 @@
       <c r="AW674" s="2"/>
       <c r="AX674" s="2"/>
     </row>
-    <row r="675" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A675" s="2"/>
       <c r="B675" s="2"/>
       <c r="C675" s="2"/>
@@ -35912,7 +35913,7 @@
       <c r="AW675" s="2"/>
       <c r="AX675" s="2"/>
     </row>
-    <row r="676" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A676" s="2"/>
       <c r="B676" s="2"/>
       <c r="C676" s="2"/>
@@ -35964,7 +35965,7 @@
       <c r="AW676" s="2"/>
       <c r="AX676" s="2"/>
     </row>
-    <row r="677" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A677" s="2"/>
       <c r="B677" s="2"/>
       <c r="C677" s="2"/>
@@ -36016,7 +36017,7 @@
       <c r="AW677" s="2"/>
       <c r="AX677" s="2"/>
     </row>
-    <row r="678" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A678" s="2"/>
       <c r="B678" s="2"/>
       <c r="C678" s="2"/>
@@ -36068,7 +36069,7 @@
       <c r="AW678" s="2"/>
       <c r="AX678" s="2"/>
     </row>
-    <row r="679" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A679" s="2"/>
       <c r="B679" s="2"/>
       <c r="C679" s="2"/>
@@ -36120,7 +36121,7 @@
       <c r="AW679" s="2"/>
       <c r="AX679" s="2"/>
     </row>
-    <row r="680" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A680" s="2"/>
       <c r="B680" s="2"/>
       <c r="C680" s="2"/>
@@ -36172,7 +36173,7 @@
       <c r="AW680" s="2"/>
       <c r="AX680" s="2"/>
     </row>
-    <row r="681" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A681" s="2"/>
       <c r="B681" s="2"/>
       <c r="C681" s="2"/>
@@ -36224,7 +36225,7 @@
       <c r="AW681" s="2"/>
       <c r="AX681" s="2"/>
     </row>
-    <row r="682" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A682" s="2"/>
       <c r="B682" s="2"/>
       <c r="C682" s="2"/>
@@ -36276,7 +36277,7 @@
       <c r="AW682" s="2"/>
       <c r="AX682" s="2"/>
     </row>
-    <row r="683" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A683" s="2"/>
       <c r="B683" s="2"/>
       <c r="C683" s="2"/>
@@ -36328,7 +36329,7 @@
       <c r="AW683" s="2"/>
       <c r="AX683" s="2"/>
     </row>
-    <row r="684" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A684" s="2"/>
       <c r="B684" s="2"/>
       <c r="C684" s="2"/>
@@ -36380,7 +36381,7 @@
       <c r="AW684" s="2"/>
       <c r="AX684" s="2"/>
     </row>
-    <row r="685" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A685" s="2"/>
       <c r="B685" s="2"/>
       <c r="C685" s="2"/>
@@ -36432,7 +36433,7 @@
       <c r="AW685" s="2"/>
       <c r="AX685" s="2"/>
     </row>
-    <row r="686" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A686" s="2"/>
       <c r="B686" s="2"/>
       <c r="C686" s="2"/>
@@ -36484,7 +36485,7 @@
       <c r="AW686" s="2"/>
       <c r="AX686" s="2"/>
     </row>
-    <row r="687" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A687" s="2"/>
       <c r="B687" s="2"/>
       <c r="C687" s="2"/>
@@ -36536,7 +36537,7 @@
       <c r="AW687" s="2"/>
       <c r="AX687" s="2"/>
     </row>
-    <row r="688" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A688" s="2"/>
       <c r="B688" s="2"/>
       <c r="C688" s="2"/>
@@ -36588,7 +36589,7 @@
       <c r="AW688" s="2"/>
       <c r="AX688" s="2"/>
     </row>
-    <row r="689" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A689" s="2"/>
       <c r="B689" s="2"/>
       <c r="C689" s="2"/>
@@ -36640,7 +36641,7 @@
       <c r="AW689" s="2"/>
       <c r="AX689" s="2"/>
     </row>
-    <row r="690" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A690" s="2"/>
       <c r="B690" s="2"/>
       <c r="C690" s="2"/>
@@ -36692,7 +36693,7 @@
       <c r="AW690" s="2"/>
       <c r="AX690" s="2"/>
     </row>
-    <row r="691" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A691" s="2"/>
       <c r="B691" s="2"/>
       <c r="C691" s="2"/>
@@ -36744,7 +36745,7 @@
       <c r="AW691" s="2"/>
       <c r="AX691" s="2"/>
     </row>
-    <row r="692" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A692" s="2"/>
       <c r="B692" s="2"/>
       <c r="C692" s="2"/>
@@ -36796,7 +36797,7 @@
       <c r="AW692" s="2"/>
       <c r="AX692" s="2"/>
     </row>
-    <row r="693" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A693" s="2"/>
       <c r="B693" s="2"/>
       <c r="C693" s="2"/>
@@ -36848,7 +36849,7 @@
       <c r="AW693" s="2"/>
       <c r="AX693" s="2"/>
     </row>
-    <row r="694" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A694" s="2"/>
       <c r="B694" s="2"/>
       <c r="C694" s="2"/>
@@ -36900,7 +36901,7 @@
       <c r="AW694" s="2"/>
       <c r="AX694" s="2"/>
     </row>
-    <row r="695" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A695" s="2"/>
       <c r="B695" s="2"/>
       <c r="C695" s="2"/>
@@ -36952,7 +36953,7 @@
       <c r="AW695" s="2"/>
       <c r="AX695" s="2"/>
     </row>
-    <row r="696" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A696" s="2"/>
       <c r="B696" s="2"/>
       <c r="C696" s="2"/>
@@ -37004,7 +37005,7 @@
       <c r="AW696" s="2"/>
       <c r="AX696" s="2"/>
     </row>
-    <row r="697" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A697" s="2"/>
       <c r="B697" s="2"/>
       <c r="C697" s="2"/>
@@ -37056,7 +37057,7 @@
       <c r="AW697" s="2"/>
       <c r="AX697" s="2"/>
     </row>
-    <row r="698" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A698" s="2"/>
       <c r="B698" s="2"/>
       <c r="C698" s="2"/>
@@ -37108,7 +37109,7 @@
       <c r="AW698" s="2"/>
       <c r="AX698" s="2"/>
     </row>
-    <row r="699" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A699" s="2"/>
       <c r="B699" s="2"/>
       <c r="C699" s="2"/>
@@ -37160,7 +37161,7 @@
       <c r="AW699" s="2"/>
       <c r="AX699" s="2"/>
     </row>
-    <row r="700" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A700" s="2"/>
       <c r="B700" s="2"/>
       <c r="C700" s="2"/>
@@ -37212,7 +37213,7 @@
       <c r="AW700" s="2"/>
       <c r="AX700" s="2"/>
     </row>
-    <row r="701" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A701" s="2"/>
       <c r="B701" s="2"/>
       <c r="C701" s="2"/>
@@ -37264,7 +37265,7 @@
       <c r="AW701" s="2"/>
       <c r="AX701" s="2"/>
     </row>
-    <row r="702" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A702" s="2"/>
       <c r="B702" s="2"/>
       <c r="C702" s="2"/>
@@ -37316,7 +37317,7 @@
       <c r="AW702" s="2"/>
       <c r="AX702" s="2"/>
     </row>
-    <row r="703" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A703" s="2"/>
       <c r="B703" s="2"/>
       <c r="C703" s="2"/>
@@ -37368,7 +37369,7 @@
       <c r="AW703" s="2"/>
       <c r="AX703" s="2"/>
     </row>
-    <row r="704" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A704" s="2"/>
       <c r="B704" s="2"/>
       <c r="C704" s="2"/>
@@ -37420,7 +37421,7 @@
       <c r="AW704" s="2"/>
       <c r="AX704" s="2"/>
     </row>
-    <row r="705" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A705" s="2"/>
       <c r="B705" s="2"/>
       <c r="C705" s="2"/>
@@ -37472,7 +37473,7 @@
       <c r="AW705" s="2"/>
       <c r="AX705" s="2"/>
     </row>
-    <row r="706" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A706" s="2"/>
       <c r="B706" s="2"/>
       <c r="C706" s="2"/>
@@ -37524,7 +37525,7 @@
       <c r="AW706" s="2"/>
       <c r="AX706" s="2"/>
     </row>
-    <row r="707" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A707" s="2"/>
       <c r="B707" s="2"/>
       <c r="C707" s="2"/>
@@ -37576,7 +37577,7 @@
       <c r="AW707" s="2"/>
       <c r="AX707" s="2"/>
     </row>
-    <row r="708" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A708" s="2"/>
       <c r="B708" s="2"/>
       <c r="C708" s="2"/>
@@ -37628,7 +37629,7 @@
       <c r="AW708" s="2"/>
       <c r="AX708" s="2"/>
     </row>
-    <row r="709" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A709" s="2"/>
       <c r="B709" s="2"/>
       <c r="C709" s="2"/>
@@ -37680,7 +37681,7 @@
       <c r="AW709" s="2"/>
       <c r="AX709" s="2"/>
     </row>
-    <row r="710" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A710" s="2"/>
       <c r="B710" s="2"/>
       <c r="C710" s="2"/>
@@ -37732,7 +37733,7 @@
       <c r="AW710" s="2"/>
       <c r="AX710" s="2"/>
     </row>
-    <row r="711" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A711" s="2"/>
       <c r="B711" s="2"/>
       <c r="C711" s="2"/>
@@ -37784,7 +37785,7 @@
       <c r="AW711" s="2"/>
       <c r="AX711" s="2"/>
     </row>
-    <row r="712" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A712" s="2"/>
       <c r="B712" s="2"/>
       <c r="C712" s="2"/>
@@ -37836,7 +37837,7 @@
       <c r="AW712" s="2"/>
       <c r="AX712" s="2"/>
     </row>
-    <row r="713" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A713" s="2"/>
       <c r="B713" s="2"/>
       <c r="C713" s="2"/>
@@ -37888,7 +37889,7 @@
       <c r="AW713" s="2"/>
       <c r="AX713" s="2"/>
     </row>
-    <row r="714" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A714" s="2"/>
       <c r="B714" s="2"/>
       <c r="C714" s="2"/>
@@ -37940,7 +37941,7 @@
       <c r="AW714" s="2"/>
       <c r="AX714" s="2"/>
     </row>
-    <row r="715" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A715" s="2"/>
       <c r="B715" s="2"/>
       <c r="C715" s="2"/>
@@ -37992,7 +37993,7 @@
       <c r="AW715" s="2"/>
       <c r="AX715" s="2"/>
     </row>
-    <row r="716" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A716" s="2"/>
       <c r="B716" s="2"/>
       <c r="C716" s="2"/>
@@ -38044,7 +38045,7 @@
       <c r="AW716" s="2"/>
       <c r="AX716" s="2"/>
     </row>
-    <row r="717" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A717" s="2"/>
       <c r="B717" s="2"/>
       <c r="C717" s="2"/>
@@ -38096,7 +38097,7 @@
       <c r="AW717" s="2"/>
       <c r="AX717" s="2"/>
     </row>
-    <row r="718" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A718" s="2"/>
       <c r="B718" s="2"/>
       <c r="C718" s="2"/>
@@ -38148,7 +38149,7 @@
       <c r="AW718" s="2"/>
       <c r="AX718" s="2"/>
     </row>
-    <row r="719" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A719" s="2"/>
       <c r="B719" s="2"/>
       <c r="C719" s="2"/>
@@ -38200,7 +38201,7 @@
       <c r="AW719" s="2"/>
       <c r="AX719" s="2"/>
     </row>
-    <row r="720" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A720" s="2"/>
       <c r="B720" s="2"/>
       <c r="C720" s="2"/>
@@ -38252,7 +38253,7 @@
       <c r="AW720" s="2"/>
       <c r="AX720" s="2"/>
     </row>
-    <row r="721" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A721" s="2"/>
       <c r="B721" s="2"/>
       <c r="C721" s="2"/>
@@ -38304,7 +38305,7 @@
       <c r="AW721" s="2"/>
       <c r="AX721" s="2"/>
     </row>
-    <row r="722" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A722" s="2"/>
       <c r="B722" s="2"/>
       <c r="C722" s="2"/>
@@ -38356,7 +38357,7 @@
       <c r="AW722" s="2"/>
       <c r="AX722" s="2"/>
     </row>
-    <row r="723" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A723" s="2"/>
       <c r="B723" s="2"/>
       <c r="C723" s="2"/>
@@ -38408,7 +38409,7 @@
       <c r="AW723" s="2"/>
       <c r="AX723" s="2"/>
     </row>
-    <row r="724" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A724" s="2"/>
       <c r="B724" s="2"/>
       <c r="C724" s="2"/>
@@ -38460,7 +38461,7 @@
       <c r="AW724" s="2"/>
       <c r="AX724" s="2"/>
     </row>
-    <row r="725" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A725" s="2"/>
       <c r="B725" s="2"/>
       <c r="C725" s="2"/>
@@ -38512,7 +38513,7 @@
       <c r="AW725" s="2"/>
       <c r="AX725" s="2"/>
     </row>
-    <row r="726" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A726" s="2"/>
       <c r="B726" s="2"/>
       <c r="C726" s="2"/>
@@ -38564,7 +38565,7 @@
       <c r="AW726" s="2"/>
       <c r="AX726" s="2"/>
     </row>
-    <row r="727" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A727" s="2"/>
       <c r="B727" s="2"/>
       <c r="C727" s="2"/>
@@ -38616,7 +38617,7 @@
       <c r="AW727" s="2"/>
       <c r="AX727" s="2"/>
     </row>
-    <row r="728" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A728" s="2"/>
       <c r="B728" s="2"/>
       <c r="C728" s="2"/>
@@ -38668,7 +38669,7 @@
       <c r="AW728" s="2"/>
       <c r="AX728" s="2"/>
     </row>
-    <row r="729" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A729" s="2"/>
       <c r="B729" s="2"/>
       <c r="C729" s="2"/>
@@ -38720,7 +38721,7 @@
       <c r="AW729" s="2"/>
       <c r="AX729" s="2"/>
     </row>
-    <row r="730" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A730" s="2"/>
       <c r="B730" s="2"/>
       <c r="C730" s="2"/>
@@ -38772,7 +38773,7 @@
       <c r="AW730" s="2"/>
       <c r="AX730" s="2"/>
     </row>
-    <row r="731" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A731" s="2"/>
       <c r="B731" s="2"/>
       <c r="C731" s="2"/>
@@ -38824,7 +38825,7 @@
       <c r="AW731" s="2"/>
       <c r="AX731" s="2"/>
     </row>
-    <row r="732" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A732" s="2"/>
       <c r="B732" s="2"/>
       <c r="C732" s="2"/>
@@ -38876,7 +38877,7 @@
       <c r="AW732" s="2"/>
       <c r="AX732" s="2"/>
     </row>
-    <row r="733" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A733" s="2"/>
       <c r="B733" s="2"/>
       <c r="C733" s="2"/>
@@ -38928,7 +38929,7 @@
       <c r="AW733" s="2"/>
       <c r="AX733" s="2"/>
     </row>
-    <row r="734" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A734" s="2"/>
       <c r="B734" s="2"/>
       <c r="C734" s="2"/>
@@ -38980,7 +38981,7 @@
       <c r="AW734" s="2"/>
       <c r="AX734" s="2"/>
     </row>
-    <row r="735" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A735" s="2"/>
       <c r="B735" s="2"/>
       <c r="C735" s="2"/>
@@ -39032,7 +39033,7 @@
       <c r="AW735" s="2"/>
       <c r="AX735" s="2"/>
     </row>
-    <row r="736" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A736" s="2"/>
       <c r="B736" s="2"/>
       <c r="C736" s="2"/>
@@ -39084,7 +39085,7 @@
       <c r="AW736" s="2"/>
       <c r="AX736" s="2"/>
     </row>
-    <row r="737" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A737" s="2"/>
       <c r="B737" s="2"/>
       <c r="C737" s="2"/>
@@ -39136,7 +39137,7 @@
       <c r="AW737" s="2"/>
       <c r="AX737" s="2"/>
     </row>
-    <row r="738" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A738" s="2"/>
       <c r="B738" s="2"/>
       <c r="C738" s="2"/>
@@ -39188,7 +39189,7 @@
       <c r="AW738" s="2"/>
       <c r="AX738" s="2"/>
     </row>
-    <row r="739" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A739" s="2"/>
       <c r="B739" s="2"/>
       <c r="C739" s="2"/>
@@ -39240,7 +39241,7 @@
       <c r="AW739" s="2"/>
       <c r="AX739" s="2"/>
     </row>
-    <row r="740" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A740" s="2"/>
       <c r="B740" s="2"/>
       <c r="C740" s="2"/>
@@ -39292,7 +39293,7 @@
       <c r="AW740" s="2"/>
       <c r="AX740" s="2"/>
     </row>
-    <row r="741" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A741" s="2"/>
       <c r="B741" s="2"/>
       <c r="C741" s="2"/>
@@ -39344,7 +39345,7 @@
       <c r="AW741" s="2"/>
       <c r="AX741" s="2"/>
     </row>
-    <row r="742" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A742" s="2"/>
       <c r="B742" s="2"/>
       <c r="C742" s="2"/>
@@ -39396,7 +39397,7 @@
       <c r="AW742" s="2"/>
       <c r="AX742" s="2"/>
     </row>
-    <row r="743" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A743" s="2"/>
       <c r="B743" s="2"/>
       <c r="C743" s="2"/>
@@ -39448,7 +39449,7 @@
       <c r="AW743" s="2"/>
       <c r="AX743" s="2"/>
     </row>
-    <row r="744" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A744" s="2"/>
       <c r="B744" s="2"/>
       <c r="C744" s="2"/>
@@ -39500,7 +39501,7 @@
       <c r="AW744" s="2"/>
       <c r="AX744" s="2"/>
     </row>
-    <row r="745" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A745" s="2"/>
       <c r="B745" s="2"/>
       <c r="C745" s="2"/>
@@ -39552,7 +39553,7 @@
       <c r="AW745" s="2"/>
       <c r="AX745" s="2"/>
     </row>
-    <row r="746" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A746" s="2"/>
       <c r="B746" s="2"/>
       <c r="C746" s="2"/>
@@ -39604,7 +39605,7 @@
       <c r="AW746" s="2"/>
       <c r="AX746" s="2"/>
     </row>
-    <row r="747" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A747" s="2"/>
       <c r="B747" s="2"/>
       <c r="C747" s="2"/>
@@ -39656,7 +39657,7 @@
       <c r="AW747" s="2"/>
       <c r="AX747" s="2"/>
     </row>
-    <row r="748" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A748" s="2"/>
       <c r="B748" s="2"/>
       <c r="C748" s="2"/>
@@ -39708,7 +39709,7 @@
       <c r="AW748" s="2"/>
       <c r="AX748" s="2"/>
     </row>
-    <row r="749" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A749" s="2"/>
       <c r="B749" s="2"/>
       <c r="C749" s="2"/>
@@ -39760,7 +39761,7 @@
       <c r="AW749" s="2"/>
       <c r="AX749" s="2"/>
     </row>
-    <row r="750" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A750" s="2"/>
       <c r="B750" s="2"/>
       <c r="C750" s="2"/>
@@ -39812,7 +39813,7 @@
       <c r="AW750" s="2"/>
       <c r="AX750" s="2"/>
     </row>
-    <row r="751" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A751" s="2"/>
       <c r="B751" s="2"/>
       <c r="C751" s="2"/>
@@ -39864,7 +39865,7 @@
       <c r="AW751" s="2"/>
       <c r="AX751" s="2"/>
     </row>
-    <row r="752" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A752" s="2"/>
       <c r="B752" s="2"/>
       <c r="C752" s="2"/>
@@ -39916,7 +39917,7 @@
       <c r="AW752" s="2"/>
       <c r="AX752" s="2"/>
     </row>
-    <row r="753" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A753" s="2"/>
       <c r="B753" s="2"/>
       <c r="C753" s="2"/>
@@ -39968,7 +39969,7 @@
       <c r="AW753" s="2"/>
       <c r="AX753" s="2"/>
     </row>
-    <row r="754" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A754" s="2"/>
       <c r="B754" s="2"/>
       <c r="C754" s="2"/>
@@ -40020,7 +40021,7 @@
       <c r="AW754" s="2"/>
       <c r="AX754" s="2"/>
     </row>
-    <row r="755" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A755" s="2"/>
       <c r="B755" s="2"/>
       <c r="C755" s="2"/>
@@ -40072,7 +40073,7 @@
       <c r="AW755" s="2"/>
       <c r="AX755" s="2"/>
     </row>
-    <row r="756" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A756" s="2"/>
       <c r="B756" s="2"/>
       <c r="C756" s="2"/>
@@ -40124,7 +40125,7 @@
       <c r="AW756" s="2"/>
       <c r="AX756" s="2"/>
     </row>
-    <row r="757" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A757" s="2"/>
       <c r="B757" s="2"/>
       <c r="C757" s="2"/>
@@ -40176,7 +40177,7 @@
       <c r="AW757" s="2"/>
       <c r="AX757" s="2"/>
     </row>
-    <row r="758" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A758" s="2"/>
       <c r="B758" s="2"/>
       <c r="C758" s="2"/>
@@ -40228,7 +40229,7 @@
       <c r="AW758" s="2"/>
       <c r="AX758" s="2"/>
     </row>
-    <row r="759" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A759" s="2"/>
       <c r="B759" s="2"/>
       <c r="C759" s="2"/>
@@ -40280,7 +40281,7 @@
       <c r="AW759" s="2"/>
       <c r="AX759" s="2"/>
     </row>
-    <row r="760" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A760" s="2"/>
       <c r="B760" s="2"/>
       <c r="C760" s="2"/>
@@ -40332,7 +40333,7 @@
       <c r="AW760" s="2"/>
       <c r="AX760" s="2"/>
     </row>
-    <row r="761" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A761" s="2"/>
       <c r="B761" s="2"/>
       <c r="C761" s="2"/>
@@ -40384,7 +40385,7 @@
       <c r="AW761" s="2"/>
       <c r="AX761" s="2"/>
     </row>
-    <row r="762" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A762" s="2"/>
       <c r="B762" s="2"/>
       <c r="C762" s="2"/>
@@ -40436,7 +40437,7 @@
       <c r="AW762" s="2"/>
       <c r="AX762" s="2"/>
     </row>
-    <row r="763" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A763" s="2"/>
       <c r="B763" s="2"/>
       <c r="C763" s="2"/>
@@ -40488,7 +40489,7 @@
       <c r="AW763" s="2"/>
       <c r="AX763" s="2"/>
     </row>
-    <row r="764" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A764" s="2"/>
       <c r="B764" s="2"/>
       <c r="C764" s="2"/>
@@ -40540,7 +40541,7 @@
       <c r="AW764" s="2"/>
       <c r="AX764" s="2"/>
     </row>
-    <row r="765" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A765" s="2"/>
       <c r="B765" s="2"/>
       <c r="C765" s="2"/>
@@ -40592,7 +40593,7 @@
       <c r="AW765" s="2"/>
       <c r="AX765" s="2"/>
     </row>
-    <row r="766" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A766" s="2"/>
       <c r="B766" s="2"/>
       <c r="C766" s="2"/>
@@ -40644,7 +40645,7 @@
       <c r="AW766" s="2"/>
       <c r="AX766" s="2"/>
     </row>
-    <row r="767" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A767" s="2"/>
       <c r="B767" s="2"/>
       <c r="C767" s="2"/>
@@ -40696,7 +40697,7 @@
       <c r="AW767" s="2"/>
       <c r="AX767" s="2"/>
     </row>
-    <row r="768" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A768" s="2"/>
       <c r="B768" s="2"/>
       <c r="C768" s="2"/>
@@ -40748,7 +40749,7 @@
       <c r="AW768" s="2"/>
       <c r="AX768" s="2"/>
     </row>
-    <row r="769" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A769" s="2"/>
       <c r="B769" s="2"/>
       <c r="C769" s="2"/>
@@ -40800,7 +40801,7 @@
       <c r="AW769" s="2"/>
       <c r="AX769" s="2"/>
     </row>
-    <row r="770" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A770" s="2"/>
       <c r="B770" s="2"/>
       <c r="C770" s="2"/>
@@ -40852,7 +40853,7 @@
       <c r="AW770" s="2"/>
       <c r="AX770" s="2"/>
     </row>
-    <row r="771" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A771" s="2"/>
       <c r="B771" s="2"/>
       <c r="C771" s="2"/>
@@ -40904,7 +40905,7 @@
       <c r="AW771" s="2"/>
       <c r="AX771" s="2"/>
     </row>
-    <row r="772" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A772" s="2"/>
       <c r="B772" s="2"/>
       <c r="C772" s="2"/>
@@ -40956,7 +40957,7 @@
       <c r="AW772" s="2"/>
       <c r="AX772" s="2"/>
     </row>
-    <row r="773" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A773" s="2"/>
       <c r="B773" s="2"/>
       <c r="C773" s="2"/>
@@ -41008,7 +41009,7 @@
       <c r="AW773" s="2"/>
       <c r="AX773" s="2"/>
     </row>
-    <row r="774" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A774" s="2"/>
       <c r="B774" s="2"/>
       <c r="C774" s="2"/>
@@ -41060,7 +41061,7 @@
       <c r="AW774" s="2"/>
       <c r="AX774" s="2"/>
     </row>
-    <row r="775" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A775" s="2"/>
       <c r="B775" s="2"/>
       <c r="C775" s="2"/>
@@ -41112,7 +41113,7 @@
       <c r="AW775" s="2"/>
       <c r="AX775" s="2"/>
     </row>
-    <row r="776" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A776" s="2"/>
       <c r="B776" s="2"/>
       <c r="C776" s="2"/>
@@ -41164,7 +41165,7 @@
       <c r="AW776" s="2"/>
       <c r="AX776" s="2"/>
     </row>
-    <row r="777" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A777" s="2"/>
       <c r="B777" s="2"/>
       <c r="C777" s="2"/>
@@ -41216,7 +41217,7 @@
       <c r="AW777" s="2"/>
       <c r="AX777" s="2"/>
     </row>
-    <row r="778" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A778" s="2"/>
       <c r="B778" s="2"/>
       <c r="C778" s="2"/>
@@ -41268,7 +41269,7 @@
       <c r="AW778" s="2"/>
       <c r="AX778" s="2"/>
     </row>
-    <row r="779" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A779" s="2"/>
       <c r="B779" s="2"/>
       <c r="C779" s="2"/>
@@ -41320,7 +41321,7 @@
       <c r="AW779" s="2"/>
       <c r="AX779" s="2"/>
     </row>
-    <row r="780" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A780" s="2"/>
       <c r="B780" s="2"/>
       <c r="C780" s="2"/>
@@ -41372,7 +41373,7 @@
       <c r="AW780" s="2"/>
       <c r="AX780" s="2"/>
     </row>
-    <row r="781" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A781" s="2"/>
       <c r="B781" s="2"/>
       <c r="C781" s="2"/>
@@ -41424,7 +41425,7 @@
       <c r="AW781" s="2"/>
       <c r="AX781" s="2"/>
     </row>
-    <row r="782" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A782" s="2"/>
       <c r="B782" s="2"/>
       <c r="C782" s="2"/>
@@ -41476,7 +41477,7 @@
       <c r="AW782" s="2"/>
       <c r="AX782" s="2"/>
     </row>
-    <row r="783" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A783" s="2"/>
       <c r="B783" s="2"/>
       <c r="C783" s="2"/>
@@ -41528,7 +41529,7 @@
       <c r="AW783" s="2"/>
       <c r="AX783" s="2"/>
     </row>
-    <row r="784" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A784" s="2"/>
       <c r="B784" s="2"/>
       <c r="C784" s="2"/>
@@ -41580,7 +41581,7 @@
       <c r="AW784" s="2"/>
       <c r="AX784" s="2"/>
     </row>
-    <row r="785" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A785" s="2"/>
       <c r="B785" s="2"/>
       <c r="C785" s="2"/>
@@ -41632,7 +41633,7 @@
       <c r="AW785" s="2"/>
       <c r="AX785" s="2"/>
     </row>
-    <row r="786" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A786" s="2"/>
       <c r="B786" s="2"/>
       <c r="C786" s="2"/>
@@ -41684,7 +41685,7 @@
       <c r="AW786" s="2"/>
       <c r="AX786" s="2"/>
     </row>
-    <row r="787" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A787" s="2"/>
       <c r="B787" s="2"/>
       <c r="C787" s="2"/>
@@ -41736,7 +41737,7 @@
       <c r="AW787" s="2"/>
       <c r="AX787" s="2"/>
     </row>
-    <row r="788" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A788" s="2"/>
       <c r="B788" s="2"/>
       <c r="C788" s="2"/>
@@ -41788,7 +41789,7 @@
       <c r="AW788" s="2"/>
       <c r="AX788" s="2"/>
     </row>
-    <row r="789" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A789" s="2"/>
       <c r="B789" s="2"/>
       <c r="C789" s="2"/>
@@ -41840,7 +41841,7 @@
       <c r="AW789" s="2"/>
       <c r="AX789" s="2"/>
     </row>
-    <row r="790" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A790" s="2"/>
       <c r="B790" s="2"/>
       <c r="C790" s="2"/>
@@ -41892,7 +41893,7 @@
       <c r="AW790" s="2"/>
       <c r="AX790" s="2"/>
     </row>
-    <row r="791" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A791" s="2"/>
       <c r="B791" s="2"/>
       <c r="C791" s="2"/>
@@ -41944,7 +41945,7 @@
       <c r="AW791" s="2"/>
       <c r="AX791" s="2"/>
     </row>
-    <row r="792" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A792" s="2"/>
       <c r="B792" s="2"/>
       <c r="C792" s="2"/>
@@ -41996,7 +41997,7 @@
       <c r="AW792" s="2"/>
       <c r="AX792" s="2"/>
     </row>
-    <row r="793" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A793" s="2"/>
       <c r="B793" s="2"/>
       <c r="C793" s="2"/>
@@ -42048,7 +42049,7 @@
       <c r="AW793" s="2"/>
       <c r="AX793" s="2"/>
     </row>
-    <row r="794" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A794" s="2"/>
       <c r="B794" s="2"/>
       <c r="C794" s="2"/>
@@ -42100,7 +42101,7 @@
       <c r="AW794" s="2"/>
       <c r="AX794" s="2"/>
     </row>
-    <row r="795" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A795" s="2"/>
       <c r="B795" s="2"/>
       <c r="C795" s="2"/>
@@ -42152,7 +42153,7 @@
       <c r="AW795" s="2"/>
       <c r="AX795" s="2"/>
     </row>
-    <row r="796" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A796" s="2"/>
       <c r="B796" s="2"/>
       <c r="C796" s="2"/>
@@ -42204,7 +42205,7 @@
       <c r="AW796" s="2"/>
       <c r="AX796" s="2"/>
     </row>
-    <row r="797" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A797" s="2"/>
       <c r="B797" s="2"/>
       <c r="C797" s="2"/>
@@ -42256,7 +42257,7 @@
       <c r="AW797" s="2"/>
       <c r="AX797" s="2"/>
     </row>
-    <row r="798" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A798" s="2"/>
       <c r="B798" s="2"/>
       <c r="C798" s="2"/>
@@ -42308,7 +42309,7 @@
       <c r="AW798" s="2"/>
       <c r="AX798" s="2"/>
     </row>
-    <row r="799" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A799" s="2"/>
       <c r="B799" s="2"/>
       <c r="C799" s="2"/>
@@ -42360,7 +42361,7 @@
       <c r="AW799" s="2"/>
       <c r="AX799" s="2"/>
     </row>
-    <row r="800" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A800" s="2"/>
       <c r="B800" s="2"/>
       <c r="C800" s="2"/>
@@ -42412,7 +42413,7 @@
       <c r="AW800" s="2"/>
       <c r="AX800" s="2"/>
     </row>
-    <row r="801" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A801" s="2"/>
       <c r="B801" s="2"/>
       <c r="C801" s="2"/>
@@ -42464,7 +42465,7 @@
       <c r="AW801" s="2"/>
       <c r="AX801" s="2"/>
     </row>
-    <row r="802" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A802" s="2"/>
       <c r="B802" s="2"/>
       <c r="C802" s="2"/>
@@ -42516,7 +42517,7 @@
       <c r="AW802" s="2"/>
       <c r="AX802" s="2"/>
     </row>
-    <row r="803" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A803" s="2"/>
       <c r="B803" s="2"/>
       <c r="C803" s="2"/>
@@ -42568,7 +42569,7 @@
       <c r="AW803" s="2"/>
       <c r="AX803" s="2"/>
     </row>
-    <row r="804" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A804" s="2"/>
       <c r="B804" s="2"/>
       <c r="C804" s="2"/>
@@ -42620,7 +42621,7 @@
       <c r="AW804" s="2"/>
       <c r="AX804" s="2"/>
     </row>
-    <row r="805" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A805" s="2"/>
       <c r="B805" s="2"/>
       <c r="C805" s="2"/>
@@ -42672,7 +42673,7 @@
       <c r="AW805" s="2"/>
       <c r="AX805" s="2"/>
     </row>
-    <row r="806" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A806" s="2"/>
       <c r="B806" s="2"/>
       <c r="C806" s="2"/>
@@ -42724,7 +42725,7 @@
       <c r="AW806" s="2"/>
       <c r="AX806" s="2"/>
     </row>
-    <row r="807" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A807" s="2"/>
       <c r="B807" s="2"/>
       <c r="C807" s="2"/>
@@ -42776,7 +42777,7 @@
       <c r="AW807" s="2"/>
       <c r="AX807" s="2"/>
     </row>
-    <row r="808" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A808" s="2"/>
       <c r="B808" s="2"/>
       <c r="C808" s="2"/>
@@ -42828,7 +42829,7 @@
       <c r="AW808" s="2"/>
       <c r="AX808" s="2"/>
     </row>
-    <row r="809" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A809" s="2"/>
       <c r="B809" s="2"/>
       <c r="C809" s="2"/>
@@ -42880,7 +42881,7 @@
       <c r="AW809" s="2"/>
       <c r="AX809" s="2"/>
     </row>
-    <row r="810" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A810" s="2"/>
       <c r="B810" s="2"/>
       <c r="C810" s="2"/>
@@ -42932,7 +42933,7 @@
       <c r="AW810" s="2"/>
       <c r="AX810" s="2"/>
     </row>
-    <row r="811" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A811" s="2"/>
       <c r="B811" s="2"/>
       <c r="C811" s="2"/>
@@ -42984,7 +42985,7 @@
       <c r="AW811" s="2"/>
       <c r="AX811" s="2"/>
     </row>
-    <row r="812" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A812" s="2"/>
       <c r="B812" s="2"/>
       <c r="C812" s="2"/>
@@ -43036,7 +43037,7 @@
       <c r="AW812" s="2"/>
       <c r="AX812" s="2"/>
     </row>
-    <row r="813" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A813" s="2"/>
       <c r="B813" s="2"/>
       <c r="C813" s="2"/>
@@ -43088,7 +43089,7 @@
       <c r="AW813" s="2"/>
       <c r="AX813" s="2"/>
     </row>
-    <row r="814" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A814" s="2"/>
       <c r="B814" s="2"/>
       <c r="C814" s="2"/>
@@ -43140,7 +43141,7 @@
       <c r="AW814" s="2"/>
       <c r="AX814" s="2"/>
     </row>
-    <row r="815" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A815" s="2"/>
       <c r="B815" s="2"/>
       <c r="C815" s="2"/>
@@ -43192,7 +43193,7 @@
       <c r="AW815" s="2"/>
       <c r="AX815" s="2"/>
     </row>
-    <row r="816" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A816" s="2"/>
       <c r="B816" s="2"/>
       <c r="C816" s="2"/>
@@ -43244,7 +43245,7 @@
       <c r="AW816" s="2"/>
       <c r="AX816" s="2"/>
     </row>
-    <row r="817" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A817" s="2"/>
       <c r="B817" s="2"/>
       <c r="C817" s="2"/>
@@ -43296,7 +43297,7 @@
       <c r="AW817" s="2"/>
       <c r="AX817" s="2"/>
     </row>
-    <row r="818" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A818" s="2"/>
       <c r="B818" s="2"/>
       <c r="C818" s="2"/>
@@ -43348,7 +43349,7 @@
       <c r="AW818" s="2"/>
       <c r="AX818" s="2"/>
     </row>
-    <row r="819" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A819" s="2"/>
       <c r="B819" s="2"/>
       <c r="C819" s="2"/>
@@ -43400,7 +43401,7 @@
       <c r="AW819" s="2"/>
       <c r="AX819" s="2"/>
     </row>
-    <row r="820" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A820" s="2"/>
       <c r="B820" s="2"/>
       <c r="C820" s="2"/>
@@ -43452,7 +43453,7 @@
       <c r="AW820" s="2"/>
       <c r="AX820" s="2"/>
     </row>
-    <row r="821" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A821" s="2"/>
       <c r="B821" s="2"/>
       <c r="C821" s="2"/>
@@ -43504,7 +43505,7 @@
       <c r="AW821" s="2"/>
       <c r="AX821" s="2"/>
     </row>
-    <row r="822" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A822" s="2"/>
       <c r="B822" s="2"/>
       <c r="C822" s="2"/>
@@ -43556,7 +43557,7 @@
       <c r="AW822" s="2"/>
       <c r="AX822" s="2"/>
     </row>
-    <row r="823" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A823" s="2"/>
       <c r="B823" s="2"/>
       <c r="C823" s="2"/>
@@ -43608,7 +43609,7 @@
       <c r="AW823" s="2"/>
       <c r="AX823" s="2"/>
     </row>
-    <row r="824" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A824" s="2"/>
       <c r="B824" s="2"/>
       <c r="C824" s="2"/>
@@ -43660,7 +43661,7 @@
       <c r="AW824" s="2"/>
       <c r="AX824" s="2"/>
     </row>
-    <row r="825" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A825" s="2"/>
       <c r="B825" s="2"/>
       <c r="C825" s="2"/>
@@ -43712,7 +43713,7 @@
       <c r="AW825" s="2"/>
       <c r="AX825" s="2"/>
     </row>
-    <row r="826" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A826" s="2"/>
       <c r="B826" s="2"/>
       <c r="C826" s="2"/>
@@ -43764,7 +43765,7 @@
       <c r="AW826" s="2"/>
       <c r="AX826" s="2"/>
     </row>
-    <row r="827" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A827" s="2"/>
       <c r="B827" s="2"/>
       <c r="C827" s="2"/>
@@ -43816,7 +43817,7 @@
       <c r="AW827" s="2"/>
       <c r="AX827" s="2"/>
     </row>
-    <row r="828" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A828" s="2"/>
       <c r="B828" s="2"/>
       <c r="C828" s="2"/>
@@ -43868,7 +43869,7 @@
       <c r="AW828" s="2"/>
       <c r="AX828" s="2"/>
     </row>
-    <row r="829" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A829" s="2"/>
       <c r="B829" s="2"/>
       <c r="C829" s="2"/>
@@ -43920,7 +43921,7 @@
       <c r="AW829" s="2"/>
       <c r="AX829" s="2"/>
     </row>
-    <row r="830" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A830" s="2"/>
       <c r="B830" s="2"/>
       <c r="C830" s="2"/>
@@ -43972,7 +43973,7 @@
       <c r="AW830" s="2"/>
       <c r="AX830" s="2"/>
     </row>
-    <row r="831" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A831" s="2"/>
       <c r="B831" s="2"/>
       <c r="C831" s="2"/>
@@ -44024,7 +44025,7 @@
       <c r="AW831" s="2"/>
       <c r="AX831" s="2"/>
     </row>
-    <row r="832" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A832" s="2"/>
       <c r="B832" s="2"/>
       <c r="C832" s="2"/>
@@ -44076,7 +44077,7 @@
       <c r="AW832" s="2"/>
       <c r="AX832" s="2"/>
     </row>
-    <row r="833" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A833" s="2"/>
       <c r="B833" s="2"/>
       <c r="C833" s="2"/>
@@ -44128,7 +44129,7 @@
       <c r="AW833" s="2"/>
       <c r="AX833" s="2"/>
     </row>
-    <row r="834" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A834" s="2"/>
       <c r="B834" s="2"/>
       <c r="C834" s="2"/>
@@ -44180,7 +44181,7 @@
       <c r="AW834" s="2"/>
       <c r="AX834" s="2"/>
     </row>
-    <row r="835" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A835" s="2"/>
       <c r="B835" s="2"/>
       <c r="C835" s="2"/>
@@ -44232,7 +44233,7 @@
       <c r="AW835" s="2"/>
       <c r="AX835" s="2"/>
     </row>
-    <row r="836" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A836" s="2"/>
       <c r="B836" s="2"/>
       <c r="C836" s="2"/>
@@ -44284,7 +44285,7 @@
       <c r="AW836" s="2"/>
       <c r="AX836" s="2"/>
     </row>
-    <row r="837" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A837" s="2"/>
       <c r="B837" s="2"/>
       <c r="C837" s="2"/>
@@ -44336,7 +44337,7 @@
       <c r="AW837" s="2"/>
       <c r="AX837" s="2"/>
     </row>
-    <row r="838" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A838" s="2"/>
       <c r="B838" s="2"/>
       <c r="C838" s="2"/>
@@ -44388,7 +44389,7 @@
       <c r="AW838" s="2"/>
       <c r="AX838" s="2"/>
     </row>
-    <row r="839" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A839" s="2"/>
       <c r="B839" s="2"/>
       <c r="C839" s="2"/>
@@ -44440,7 +44441,7 @@
       <c r="AW839" s="2"/>
       <c r="AX839" s="2"/>
     </row>
-    <row r="840" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A840" s="2"/>
       <c r="B840" s="2"/>
       <c r="C840" s="2"/>
@@ -44492,7 +44493,7 @@
       <c r="AW840" s="2"/>
       <c r="AX840" s="2"/>
     </row>
-    <row r="841" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A841" s="2"/>
       <c r="B841" s="2"/>
       <c r="C841" s="2"/>
@@ -44544,7 +44545,7 @@
       <c r="AW841" s="2"/>
       <c r="AX841" s="2"/>
     </row>
-    <row r="842" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A842" s="2"/>
       <c r="B842" s="2"/>
       <c r="C842" s="2"/>
@@ -44596,7 +44597,7 @@
       <c r="AW842" s="2"/>
       <c r="AX842" s="2"/>
     </row>
-    <row r="843" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A843" s="2"/>
       <c r="B843" s="2"/>
       <c r="C843" s="2"/>
@@ -44648,7 +44649,7 @@
       <c r="AW843" s="2"/>
       <c r="AX843" s="2"/>
     </row>
-    <row r="844" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A844" s="2"/>
       <c r="B844" s="2"/>
       <c r="C844" s="2"/>
@@ -44700,7 +44701,7 @@
       <c r="AW844" s="2"/>
       <c r="AX844" s="2"/>
     </row>
-    <row r="845" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A845" s="2"/>
       <c r="B845" s="2"/>
       <c r="C845" s="2"/>
@@ -44752,7 +44753,7 @@
       <c r="AW845" s="2"/>
       <c r="AX845" s="2"/>
     </row>
-    <row r="846" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A846" s="2"/>
       <c r="B846" s="2"/>
       <c r="C846" s="2"/>
@@ -44804,7 +44805,7 @@
       <c r="AW846" s="2"/>
       <c r="AX846" s="2"/>
     </row>
-    <row r="847" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A847" s="2"/>
       <c r="B847" s="2"/>
       <c r="C847" s="2"/>
@@ -44856,7 +44857,7 @@
       <c r="AW847" s="2"/>
       <c r="AX847" s="2"/>
     </row>
-    <row r="848" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A848" s="2"/>
       <c r="B848" s="2"/>
       <c r="C848" s="2"/>
@@ -44908,7 +44909,7 @@
       <c r="AW848" s="2"/>
       <c r="AX848" s="2"/>
     </row>
-    <row r="849" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A849" s="2"/>
       <c r="B849" s="2"/>
       <c r="C849" s="2"/>
@@ -44960,7 +44961,7 @@
       <c r="AW849" s="2"/>
       <c r="AX849" s="2"/>
     </row>
-    <row r="850" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A850" s="2"/>
       <c r="B850" s="2"/>
       <c r="C850" s="2"/>
@@ -45012,7 +45013,7 @@
       <c r="AW850" s="2"/>
       <c r="AX850" s="2"/>
     </row>
-    <row r="851" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A851" s="2"/>
       <c r="B851" s="2"/>
       <c r="C851" s="2"/>
@@ -45064,7 +45065,7 @@
       <c r="AW851" s="2"/>
       <c r="AX851" s="2"/>
     </row>
-    <row r="852" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A852" s="2"/>
       <c r="B852" s="2"/>
       <c r="C852" s="2"/>
@@ -45116,7 +45117,7 @@
       <c r="AW852" s="2"/>
       <c r="AX852" s="2"/>
     </row>
-    <row r="853" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A853" s="2"/>
       <c r="B853" s="2"/>
       <c r="C853" s="2"/>
@@ -45168,7 +45169,7 @@
       <c r="AW853" s="2"/>
       <c r="AX853" s="2"/>
     </row>
-    <row r="854" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A854" s="2"/>
       <c r="B854" s="2"/>
       <c r="C854" s="2"/>
@@ -45220,7 +45221,7 @@
       <c r="AW854" s="2"/>
       <c r="AX854" s="2"/>
     </row>
-    <row r="855" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A855" s="2"/>
       <c r="B855" s="2"/>
       <c r="C855" s="2"/>
@@ -45272,7 +45273,7 @@
       <c r="AW855" s="2"/>
       <c r="AX855" s="2"/>
     </row>
-    <row r="856" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A856" s="2"/>
       <c r="B856" s="2"/>
       <c r="C856" s="2"/>
@@ -45324,7 +45325,7 @@
       <c r="AW856" s="2"/>
       <c r="AX856" s="2"/>
     </row>
-    <row r="857" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A857" s="2"/>
       <c r="B857" s="2"/>
       <c r="C857" s="2"/>
@@ -45376,7 +45377,7 @@
       <c r="AW857" s="2"/>
       <c r="AX857" s="2"/>
     </row>
-    <row r="858" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A858" s="2"/>
       <c r="B858" s="2"/>
       <c r="C858" s="2"/>
@@ -45428,7 +45429,7 @@
       <c r="AW858" s="2"/>
       <c r="AX858" s="2"/>
     </row>
-    <row r="859" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A859" s="2"/>
       <c r="B859" s="2"/>
       <c r="C859" s="2"/>
@@ -45480,7 +45481,7 @@
       <c r="AW859" s="2"/>
       <c r="AX859" s="2"/>
     </row>
-    <row r="860" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A860" s="2"/>
       <c r="B860" s="2"/>
       <c r="C860" s="2"/>
@@ -45532,7 +45533,7 @@
       <c r="AW860" s="2"/>
       <c r="AX860" s="2"/>
     </row>
-    <row r="861" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A861" s="2"/>
       <c r="B861" s="2"/>
       <c r="C861" s="2"/>
@@ -45584,7 +45585,7 @@
       <c r="AW861" s="2"/>
       <c r="AX861" s="2"/>
     </row>
-    <row r="862" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A862" s="2"/>
       <c r="B862" s="2"/>
       <c r="C862" s="2"/>
@@ -45636,7 +45637,7 @@
       <c r="AW862" s="2"/>
       <c r="AX862" s="2"/>
     </row>
-    <row r="863" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A863" s="2"/>
       <c r="B863" s="2"/>
       <c r="C863" s="2"/>
@@ -45688,7 +45689,7 @@
       <c r="AW863" s="2"/>
       <c r="AX863" s="2"/>
     </row>
-    <row r="864" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A864" s="2"/>
       <c r="B864" s="2"/>
       <c r="C864" s="2"/>
@@ -45740,7 +45741,7 @@
       <c r="AW864" s="2"/>
       <c r="AX864" s="2"/>
     </row>
-    <row r="865" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A865" s="2"/>
       <c r="B865" s="2"/>
       <c r="C865" s="2"/>
@@ -45792,7 +45793,7 @@
       <c r="AW865" s="2"/>
       <c r="AX865" s="2"/>
     </row>
-    <row r="866" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A866" s="2"/>
       <c r="B866" s="2"/>
       <c r="C866" s="2"/>
@@ -45844,7 +45845,7 @@
       <c r="AW866" s="2"/>
       <c r="AX866" s="2"/>
     </row>
-    <row r="867" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A867" s="2"/>
       <c r="B867" s="2"/>
       <c r="C867" s="2"/>
@@ -45896,7 +45897,7 @@
       <c r="AW867" s="2"/>
       <c r="AX867" s="2"/>
     </row>
-    <row r="868" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A868" s="2"/>
       <c r="B868" s="2"/>
       <c r="C868" s="2"/>
@@ -45948,7 +45949,7 @@
       <c r="AW868" s="2"/>
       <c r="AX868" s="2"/>
     </row>
-    <row r="869" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A869" s="2"/>
       <c r="B869" s="2"/>
       <c r="C869" s="2"/>
@@ -46000,7 +46001,7 @@
       <c r="AW869" s="2"/>
       <c r="AX869" s="2"/>
     </row>
-    <row r="870" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A870" s="2"/>
       <c r="B870" s="2"/>
       <c r="C870" s="2"/>
@@ -46052,7 +46053,7 @@
       <c r="AW870" s="2"/>
       <c r="AX870" s="2"/>
     </row>
-    <row r="871" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A871" s="2"/>
       <c r="B871" s="2"/>
       <c r="C871" s="2"/>
@@ -46104,7 +46105,7 @@
       <c r="AW871" s="2"/>
       <c r="AX871" s="2"/>
     </row>
-    <row r="872" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A872" s="2"/>
       <c r="B872" s="2"/>
       <c r="C872" s="2"/>
@@ -46156,7 +46157,7 @@
       <c r="AW872" s="2"/>
       <c r="AX872" s="2"/>
     </row>
-    <row r="873" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A873" s="2"/>
       <c r="B873" s="2"/>
       <c r="C873" s="2"/>
@@ -46208,7 +46209,7 @@
       <c r="AW873" s="2"/>
       <c r="AX873" s="2"/>
     </row>
-    <row r="874" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A874" s="2"/>
       <c r="B874" s="2"/>
       <c r="C874" s="2"/>
@@ -46260,7 +46261,7 @@
       <c r="AW874" s="2"/>
       <c r="AX874" s="2"/>
     </row>
-    <row r="875" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A875" s="2"/>
       <c r="B875" s="2"/>
       <c r="C875" s="2"/>
@@ -46312,7 +46313,7 @@
       <c r="AW875" s="2"/>
       <c r="AX875" s="2"/>
     </row>
-    <row r="876" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A876" s="2"/>
       <c r="B876" s="2"/>
       <c r="C876" s="2"/>
@@ -46364,7 +46365,7 @@
       <c r="AW876" s="2"/>
       <c r="AX876" s="2"/>
     </row>
-    <row r="877" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A877" s="2"/>
       <c r="B877" s="2"/>
       <c r="C877" s="2"/>
@@ -46416,7 +46417,7 @@
       <c r="AW877" s="2"/>
       <c r="AX877" s="2"/>
     </row>
-    <row r="878" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A878" s="2"/>
       <c r="B878" s="2"/>
       <c r="C878" s="2"/>
@@ -46468,7 +46469,7 @@
       <c r="AW878" s="2"/>
       <c r="AX878" s="2"/>
     </row>
-    <row r="879" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A879" s="2"/>
       <c r="B879" s="2"/>
       <c r="C879" s="2"/>
@@ -46520,7 +46521,7 @@
       <c r="AW879" s="2"/>
       <c r="AX879" s="2"/>
     </row>
-    <row r="880" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A880" s="2"/>
       <c r="B880" s="2"/>
       <c r="C880" s="2"/>
@@ -46572,7 +46573,7 @@
       <c r="AW880" s="2"/>
       <c r="AX880" s="2"/>
     </row>
-    <row r="881" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A881" s="2"/>
       <c r="B881" s="2"/>
       <c r="C881" s="2"/>
@@ -46624,7 +46625,7 @@
       <c r="AW881" s="2"/>
       <c r="AX881" s="2"/>
     </row>
-    <row r="882" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A882" s="2"/>
       <c r="B882" s="2"/>
       <c r="C882" s="2"/>
@@ -46676,7 +46677,7 @@
       <c r="AW882" s="2"/>
       <c r="AX882" s="2"/>
     </row>
-    <row r="883" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A883" s="2"/>
       <c r="B883" s="2"/>
       <c r="C883" s="2"/>
@@ -46728,7 +46729,7 @@
       <c r="AW883" s="2"/>
       <c r="AX883" s="2"/>
     </row>
-    <row r="884" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A884" s="2"/>
       <c r="B884" s="2"/>
       <c r="C884" s="2"/>
@@ -46780,7 +46781,7 @@
       <c r="AW884" s="2"/>
       <c r="AX884" s="2"/>
     </row>
-    <row r="885" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A885" s="2"/>
       <c r="B885" s="2"/>
       <c r="C885" s="2"/>
@@ -46832,7 +46833,7 @@
       <c r="AW885" s="2"/>
       <c r="AX885" s="2"/>
     </row>
-    <row r="886" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A886" s="2"/>
       <c r="B886" s="2"/>
       <c r="C886" s="2"/>
@@ -46884,7 +46885,7 @@
       <c r="AW886" s="2"/>
       <c r="AX886" s="2"/>
     </row>
-    <row r="887" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A887" s="2"/>
       <c r="B887" s="2"/>
       <c r="C887" s="2"/>
@@ -46936,7 +46937,7 @@
       <c r="AW887" s="2"/>
       <c r="AX887" s="2"/>
     </row>
-    <row r="888" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A888" s="2"/>
       <c r="B888" s="2"/>
       <c r="C888" s="2"/>
@@ -46988,7 +46989,7 @@
       <c r="AW888" s="2"/>
       <c r="AX888" s="2"/>
     </row>
-    <row r="889" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A889" s="2"/>
       <c r="B889" s="2"/>
       <c r="C889" s="2"/>
@@ -47040,7 +47041,7 @@
       <c r="AW889" s="2"/>
       <c r="AX889" s="2"/>
     </row>
-    <row r="890" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A890" s="2"/>
       <c r="B890" s="2"/>
       <c r="C890" s="2"/>
@@ -47092,7 +47093,7 @@
       <c r="AW890" s="2"/>
       <c r="AX890" s="2"/>
     </row>
-    <row r="891" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A891" s="2"/>
       <c r="B891" s="2"/>
       <c r="C891" s="2"/>
@@ -47144,7 +47145,7 @@
       <c r="AW891" s="2"/>
       <c r="AX891" s="2"/>
     </row>
-    <row r="892" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A892" s="2"/>
       <c r="B892" s="2"/>
       <c r="C892" s="2"/>
@@ -47196,7 +47197,7 @@
       <c r="AW892" s="2"/>
       <c r="AX892" s="2"/>
     </row>
-    <row r="893" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A893" s="2"/>
       <c r="B893" s="2"/>
       <c r="C893" s="2"/>
@@ -47248,7 +47249,7 @@
       <c r="AW893" s="2"/>
       <c r="AX893" s="2"/>
     </row>
-    <row r="894" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A894" s="2"/>
       <c r="B894" s="2"/>
       <c r="C894" s="2"/>
@@ -47300,7 +47301,7 @@
       <c r="AW894" s="2"/>
       <c r="AX894" s="2"/>
     </row>
-    <row r="895" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A895" s="2"/>
       <c r="B895" s="2"/>
       <c r="C895" s="2"/>
@@ -47352,7 +47353,7 @@
       <c r="AW895" s="2"/>
       <c r="AX895" s="2"/>
     </row>
-    <row r="896" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A896" s="2"/>
       <c r="B896" s="2"/>
       <c r="C896" s="2"/>
@@ -47404,7 +47405,7 @@
       <c r="AW896" s="2"/>
       <c r="AX896" s="2"/>
     </row>
-    <row r="897" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A897" s="2"/>
       <c r="B897" s="2"/>
       <c r="C897" s="2"/>
@@ -47456,7 +47457,7 @@
       <c r="AW897" s="2"/>
       <c r="AX897" s="2"/>
     </row>
-    <row r="898" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A898" s="2"/>
       <c r="B898" s="2"/>
       <c r="C898" s="2"/>
@@ -47508,7 +47509,7 @@
       <c r="AW898" s="2"/>
       <c r="AX898" s="2"/>
     </row>
-    <row r="899" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A899" s="2"/>
       <c r="B899" s="2"/>
       <c r="C899" s="2"/>
@@ -47560,7 +47561,7 @@
       <c r="AW899" s="2"/>
       <c r="AX899" s="2"/>
     </row>
-    <row r="900" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A900" s="2"/>
       <c r="B900" s="2"/>
       <c r="C900" s="2"/>
@@ -47612,7 +47613,7 @@
       <c r="AW900" s="2"/>
       <c r="AX900" s="2"/>
     </row>
-    <row r="901" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A901" s="2"/>
       <c r="B901" s="2"/>
       <c r="C901" s="2"/>
@@ -47664,7 +47665,7 @@
       <c r="AW901" s="2"/>
       <c r="AX901" s="2"/>
     </row>
-    <row r="902" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A902" s="2"/>
       <c r="B902" s="2"/>
       <c r="C902" s="2"/>
@@ -47716,7 +47717,7 @@
       <c r="AW902" s="2"/>
       <c r="AX902" s="2"/>
     </row>
-    <row r="903" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A903" s="2"/>
       <c r="B903" s="2"/>
       <c r="C903" s="2"/>
@@ -47768,7 +47769,7 @@
       <c r="AW903" s="2"/>
       <c r="AX903" s="2"/>
     </row>
-    <row r="904" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A904" s="2"/>
       <c r="B904" s="2"/>
       <c r="C904" s="2"/>
@@ -47820,7 +47821,7 @@
       <c r="AW904" s="2"/>
       <c r="AX904" s="2"/>
     </row>
-    <row r="905" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A905" s="2"/>
       <c r="B905" s="2"/>
       <c r="C905" s="2"/>
@@ -47872,7 +47873,7 @@
       <c r="AW905" s="2"/>
       <c r="AX905" s="2"/>
     </row>
-    <row r="906" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A906" s="2"/>
       <c r="B906" s="2"/>
       <c r="C906" s="2"/>
@@ -47924,7 +47925,7 @@
       <c r="AW906" s="2"/>
       <c r="AX906" s="2"/>
     </row>
-    <row r="907" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A907" s="2"/>
       <c r="B907" s="2"/>
       <c r="C907" s="2"/>
@@ -47976,7 +47977,7 @@
       <c r="AW907" s="2"/>
       <c r="AX907" s="2"/>
     </row>
-    <row r="908" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A908" s="2"/>
       <c r="B908" s="2"/>
       <c r="C908" s="2"/>
@@ -48028,7 +48029,7 @@
       <c r="AW908" s="2"/>
       <c r="AX908" s="2"/>
     </row>
-    <row r="909" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A909" s="2"/>
       <c r="B909" s="2"/>
       <c r="C909" s="2"/>
@@ -48080,7 +48081,7 @@
       <c r="AW909" s="2"/>
       <c r="AX909" s="2"/>
     </row>
-    <row r="910" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A910" s="2"/>
       <c r="B910" s="2"/>
       <c r="C910" s="2"/>
@@ -48132,7 +48133,7 @@
       <c r="AW910" s="2"/>
       <c r="AX910" s="2"/>
     </row>
-    <row r="911" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A911" s="2"/>
       <c r="B911" s="2"/>
       <c r="C911" s="2"/>
@@ -48184,7 +48185,7 @@
       <c r="AW911" s="2"/>
       <c r="AX911" s="2"/>
     </row>
-    <row r="912" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A912" s="2"/>
       <c r="B912" s="2"/>
       <c r="C912" s="2"/>
@@ -48236,7 +48237,7 @@
       <c r="AW912" s="2"/>
       <c r="AX912" s="2"/>
     </row>
-    <row r="913" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A913" s="2"/>
       <c r="B913" s="2"/>
       <c r="C913" s="2"/>
@@ -48288,7 +48289,7 @@
       <c r="AW913" s="2"/>
       <c r="AX913" s="2"/>
     </row>
-    <row r="914" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A914" s="2"/>
       <c r="B914" s="2"/>
       <c r="C914" s="2"/>
@@ -48340,7 +48341,7 @@
       <c r="AW914" s="2"/>
       <c r="AX914" s="2"/>
     </row>
-    <row r="915" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A915" s="2"/>
       <c r="B915" s="2"/>
       <c r="C915" s="2"/>
@@ -48392,7 +48393,7 @@
       <c r="AW915" s="2"/>
       <c r="AX915" s="2"/>
     </row>
-    <row r="916" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A916" s="2"/>
       <c r="B916" s="2"/>
       <c r="C916" s="2"/>
@@ -48444,7 +48445,7 @@
       <c r="AW916" s="2"/>
       <c r="AX916" s="2"/>
     </row>
-    <row r="917" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A917" s="2"/>
       <c r="B917" s="2"/>
       <c r="C917" s="2"/>
@@ -48496,7 +48497,7 @@
       <c r="AW917" s="2"/>
       <c r="AX917" s="2"/>
     </row>
-    <row r="918" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A918" s="2"/>
       <c r="B918" s="2"/>
       <c r="C918" s="2"/>
@@ -48548,7 +48549,7 @@
       <c r="AW918" s="2"/>
       <c r="AX918" s="2"/>
     </row>
-    <row r="919" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A919" s="2"/>
       <c r="B919" s="2"/>
       <c r="C919" s="2"/>
@@ -48600,7 +48601,7 @@
       <c r="AW919" s="2"/>
       <c r="AX919" s="2"/>
     </row>
-    <row r="920" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A920" s="2"/>
       <c r="B920" s="2"/>
       <c r="C920" s="2"/>
@@ -48652,7 +48653,7 @@
       <c r="AW920" s="2"/>
       <c r="AX920" s="2"/>
     </row>
-    <row r="921" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A921" s="2"/>
       <c r="B921" s="2"/>
       <c r="C921" s="2"/>
@@ -48704,7 +48705,7 @@
       <c r="AW921" s="2"/>
       <c r="AX921" s="2"/>
     </row>
-    <row r="922" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A922" s="2"/>
       <c r="B922" s="2"/>
       <c r="C922" s="2"/>
@@ -48756,7 +48757,7 @@
       <c r="AW922" s="2"/>
       <c r="AX922" s="2"/>
     </row>
-    <row r="923" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A923" s="2"/>
       <c r="B923" s="2"/>
       <c r="C923" s="2"/>
@@ -48808,7 +48809,7 @@
       <c r="AW923" s="2"/>
       <c r="AX923" s="2"/>
     </row>
-    <row r="924" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A924" s="2"/>
       <c r="B924" s="2"/>
       <c r="C924" s="2"/>
@@ -48860,7 +48861,7 @@
       <c r="AW924" s="2"/>
       <c r="AX924" s="2"/>
     </row>
-    <row r="925" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A925" s="2"/>
       <c r="B925" s="2"/>
       <c r="C925" s="2"/>
@@ -48912,7 +48913,7 @@
       <c r="AW925" s="2"/>
       <c r="AX925" s="2"/>
     </row>
-    <row r="926" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A926" s="2"/>
       <c r="B926" s="2"/>
       <c r="C926" s="2"/>
@@ -48964,7 +48965,7 @@
       <c r="AW926" s="2"/>
       <c r="AX926" s="2"/>
     </row>
-    <row r="927" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A927" s="2"/>
       <c r="B927" s="2"/>
       <c r="C927" s="2"/>
@@ -49016,7 +49017,7 @@
       <c r="AW927" s="2"/>
       <c r="AX927" s="2"/>
     </row>
-    <row r="928" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A928" s="2"/>
       <c r="B928" s="2"/>
       <c r="C928" s="2"/>
@@ -49068,7 +49069,7 @@
       <c r="AW928" s="2"/>
       <c r="AX928" s="2"/>
     </row>
-    <row r="929" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A929" s="2"/>
       <c r="B929" s="2"/>
       <c r="C929" s="2"/>
@@ -49120,7 +49121,7 @@
       <c r="AW929" s="2"/>
       <c r="AX929" s="2"/>
     </row>
-    <row r="930" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A930" s="2"/>
       <c r="B930" s="2"/>
       <c r="C930" s="2"/>
@@ -49172,7 +49173,7 @@
       <c r="AW930" s="2"/>
       <c r="AX930" s="2"/>
     </row>
-    <row r="931" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A931" s="2"/>
       <c r="B931" s="2"/>
       <c r="C931" s="2"/>
@@ -49224,7 +49225,7 @@
       <c r="AW931" s="2"/>
       <c r="AX931" s="2"/>
     </row>
-    <row r="932" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A932" s="2"/>
       <c r="B932" s="2"/>
       <c r="C932" s="2"/>
@@ -49276,7 +49277,7 @@
       <c r="AW932" s="2"/>
       <c r="AX932" s="2"/>
     </row>
-    <row r="933" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A933" s="2"/>
       <c r="B933" s="2"/>
       <c r="C933" s="2"/>
@@ -49328,7 +49329,7 @@
       <c r="AW933" s="2"/>
       <c r="AX933" s="2"/>
     </row>
-    <row r="934" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A934" s="2"/>
       <c r="B934" s="2"/>
       <c r="C934" s="2"/>
@@ -49380,7 +49381,7 @@
       <c r="AW934" s="2"/>
       <c r="AX934" s="2"/>
     </row>
-    <row r="935" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A935" s="2"/>
       <c r="B935" s="2"/>
       <c r="C935" s="2"/>
@@ -49432,7 +49433,7 @@
       <c r="AW935" s="2"/>
       <c r="AX935" s="2"/>
     </row>
-    <row r="936" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A936" s="2"/>
       <c r="B936" s="2"/>
       <c r="C936" s="2"/>
@@ -49484,7 +49485,7 @@
       <c r="AW936" s="2"/>
       <c r="AX936" s="2"/>
     </row>
-    <row r="937" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A937" s="2"/>
       <c r="B937" s="2"/>
       <c r="C937" s="2"/>
@@ -49536,7 +49537,7 @@
       <c r="AW937" s="2"/>
       <c r="AX937" s="2"/>
     </row>
-    <row r="938" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A938" s="2"/>
       <c r="B938" s="2"/>
       <c r="C938" s="2"/>
@@ -49588,7 +49589,7 @@
       <c r="AW938" s="2"/>
       <c r="AX938" s="2"/>
     </row>
-    <row r="939" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A939" s="2"/>
       <c r="B939" s="2"/>
       <c r="C939" s="2"/>
@@ -49640,7 +49641,7 @@
       <c r="AW939" s="2"/>
       <c r="AX939" s="2"/>
     </row>
-    <row r="940" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A940" s="2"/>
       <c r="B940" s="2"/>
       <c r="C940" s="2"/>
@@ -49692,7 +49693,7 @@
       <c r="AW940" s="2"/>
       <c r="AX940" s="2"/>
     </row>
-    <row r="941" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A941" s="2"/>
       <c r="B941" s="2"/>
       <c r="C941" s="2"/>
@@ -49744,7 +49745,7 @@
       <c r="AW941" s="2"/>
       <c r="AX941" s="2"/>
     </row>
-    <row r="942" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A942" s="2"/>
       <c r="B942" s="2"/>
       <c r="C942" s="2"/>
@@ -49796,7 +49797,7 @@
       <c r="AW942" s="2"/>
       <c r="AX942" s="2"/>
     </row>
-    <row r="943" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A943" s="2"/>
       <c r="B943" s="2"/>
       <c r="C943" s="2"/>
@@ -49848,7 +49849,7 @@
       <c r="AW943" s="2"/>
       <c r="AX943" s="2"/>
     </row>
-    <row r="944" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A944" s="2"/>
       <c r="B944" s="2"/>
       <c r="C944" s="2"/>
@@ -49900,7 +49901,7 @@
       <c r="AW944" s="2"/>
       <c r="AX944" s="2"/>
     </row>
-    <row r="945" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A945" s="2"/>
       <c r="B945" s="2"/>
       <c r="C945" s="2"/>
@@ -49952,7 +49953,7 @@
       <c r="AW945" s="2"/>
       <c r="AX945" s="2"/>
     </row>
-    <row r="946" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A946" s="2"/>
       <c r="B946" s="2"/>
       <c r="C946" s="2"/>
@@ -50004,7 +50005,7 @@
       <c r="AW946" s="2"/>
       <c r="AX946" s="2"/>
     </row>
-    <row r="947" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A947" s="2"/>
       <c r="B947" s="2"/>
       <c r="C947" s="2"/>
@@ -50056,7 +50057,7 @@
       <c r="AW947" s="2"/>
       <c r="AX947" s="2"/>
     </row>
-    <row r="948" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A948" s="2"/>
       <c r="B948" s="2"/>
       <c r="C948" s="2"/>
@@ -50108,7 +50109,7 @@
       <c r="AW948" s="2"/>
       <c r="AX948" s="2"/>
     </row>
-    <row r="949" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A949" s="2"/>
       <c r="B949" s="2"/>
       <c r="C949" s="2"/>
@@ -50160,7 +50161,7 @@
       <c r="AW949" s="2"/>
       <c r="AX949" s="2"/>
     </row>
-    <row r="950" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A950" s="2"/>
       <c r="B950" s="2"/>
       <c r="C950" s="2"/>
@@ -50212,7 +50213,7 @@
       <c r="AW950" s="2"/>
       <c r="AX950" s="2"/>
     </row>
-    <row r="951" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A951" s="2"/>
       <c r="B951" s="2"/>
       <c r="C951" s="2"/>
@@ -50264,7 +50265,7 @@
       <c r="AW951" s="2"/>
       <c r="AX951" s="2"/>
     </row>
-    <row r="952" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A952" s="2"/>
       <c r="B952" s="2"/>
       <c r="C952" s="2"/>
@@ -50316,7 +50317,7 @@
       <c r="AW952" s="2"/>
       <c r="AX952" s="2"/>
     </row>
-    <row r="953" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A953" s="2"/>
       <c r="B953" s="2"/>
       <c r="C953" s="2"/>
@@ -50368,7 +50369,7 @@
       <c r="AW953" s="2"/>
       <c r="AX953" s="2"/>
     </row>
-    <row r="954" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A954" s="2"/>
       <c r="B954" s="2"/>
       <c r="C954" s="2"/>
@@ -50420,7 +50421,7 @@
       <c r="AW954" s="2"/>
       <c r="AX954" s="2"/>
     </row>
-    <row r="955" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A955" s="2"/>
       <c r="B955" s="2"/>
       <c r="C955" s="2"/>
@@ -50472,7 +50473,7 @@
       <c r="AW955" s="2"/>
       <c r="AX955" s="2"/>
     </row>
-    <row r="956" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A956" s="2"/>
       <c r="B956" s="2"/>
       <c r="C956" s="2"/>
@@ -50524,7 +50525,7 @@
       <c r="AW956" s="2"/>
       <c r="AX956" s="2"/>
     </row>
-    <row r="957" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A957" s="2"/>
       <c r="B957" s="2"/>
       <c r="C957" s="2"/>
@@ -50576,7 +50577,7 @@
       <c r="AW957" s="2"/>
       <c r="AX957" s="2"/>
     </row>
-    <row r="958" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A958" s="2"/>
       <c r="B958" s="2"/>
       <c r="C958" s="2"/>
@@ -50628,7 +50629,7 @@
       <c r="AW958" s="2"/>
       <c r="AX958" s="2"/>
     </row>
-    <row r="959" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="959" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A959" s="2"/>
       <c r="B959" s="2"/>
       <c r="C959" s="2"/>
@@ -50680,7 +50681,7 @@
       <c r="AW959" s="2"/>
       <c r="AX959" s="2"/>
     </row>
-    <row r="960" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A960" s="2"/>
       <c r="B960" s="2"/>
       <c r="C960" s="2"/>
@@ -50732,7 +50733,7 @@
       <c r="AW960" s="2"/>
       <c r="AX960" s="2"/>
     </row>
-    <row r="961" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A961" s="2"/>
       <c r="B961" s="2"/>
       <c r="C961" s="2"/>
@@ -50784,7 +50785,7 @@
       <c r="AW961" s="2"/>
       <c r="AX961" s="2"/>
     </row>
-    <row r="962" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="962" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A962" s="2"/>
       <c r="B962" s="2"/>
       <c r="C962" s="2"/>
@@ -50836,7 +50837,7 @@
       <c r="AW962" s="2"/>
       <c r="AX962" s="2"/>
     </row>
-    <row r="963" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="963" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A963" s="2"/>
       <c r="B963" s="2"/>
       <c r="C963" s="2"/>
@@ -50888,7 +50889,7 @@
       <c r="AW963" s="2"/>
       <c r="AX963" s="2"/>
     </row>
-    <row r="964" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A964" s="2"/>
       <c r="B964" s="2"/>
       <c r="C964" s="2"/>
@@ -50940,7 +50941,7 @@
       <c r="AW964" s="2"/>
       <c r="AX964" s="2"/>
     </row>
-    <row r="965" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A965" s="2"/>
       <c r="B965" s="2"/>
       <c r="C965" s="2"/>
@@ -50992,7 +50993,7 @@
       <c r="AW965" s="2"/>
       <c r="AX965" s="2"/>
     </row>
-    <row r="966" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="966" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A966" s="2"/>
       <c r="B966" s="2"/>
       <c r="C966" s="2"/>
@@ -51044,7 +51045,7 @@
       <c r="AW966" s="2"/>
       <c r="AX966" s="2"/>
     </row>
-    <row r="967" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="967" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A967" s="2"/>
       <c r="B967" s="2"/>
       <c r="C967" s="2"/>
@@ -51096,7 +51097,7 @@
       <c r="AW967" s="2"/>
       <c r="AX967" s="2"/>
     </row>
-    <row r="968" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="968" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A968" s="2"/>
       <c r="B968" s="2"/>
       <c r="C968" s="2"/>
@@ -51148,7 +51149,7 @@
       <c r="AW968" s="2"/>
       <c r="AX968" s="2"/>
     </row>
-    <row r="969" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A969" s="2"/>
       <c r="B969" s="2"/>
       <c r="C969" s="2"/>
@@ -51200,7 +51201,7 @@
       <c r="AW969" s="2"/>
       <c r="AX969" s="2"/>
     </row>
-    <row r="970" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="970" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A970" s="2"/>
       <c r="B970" s="2"/>
       <c r="C970" s="2"/>
@@ -51252,7 +51253,7 @@
       <c r="AW970" s="2"/>
       <c r="AX970" s="2"/>
     </row>
-    <row r="971" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="971" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A971" s="2"/>
       <c r="B971" s="2"/>
       <c r="C971" s="2"/>
@@ -51304,7 +51305,7 @@
       <c r="AW971" s="2"/>
       <c r="AX971" s="2"/>
     </row>
-    <row r="972" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A972" s="2"/>
       <c r="B972" s="2"/>
       <c r="C972" s="2"/>
@@ -51356,7 +51357,7 @@
       <c r="AW972" s="2"/>
       <c r="AX972" s="2"/>
     </row>
-    <row r="973" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A973" s="2"/>
       <c r="B973" s="2"/>
       <c r="C973" s="2"/>
@@ -51408,7 +51409,7 @@
       <c r="AW973" s="2"/>
       <c r="AX973" s="2"/>
     </row>
-    <row r="974" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A974" s="2"/>
       <c r="B974" s="2"/>
       <c r="C974" s="2"/>
@@ -51460,7 +51461,7 @@
       <c r="AW974" s="2"/>
       <c r="AX974" s="2"/>
     </row>
-    <row r="975" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="975" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A975" s="2"/>
       <c r="B975" s="2"/>
       <c r="C975" s="2"/>
@@ -51512,7 +51513,7 @@
       <c r="AW975" s="2"/>
       <c r="AX975" s="2"/>
     </row>
-    <row r="976" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="976" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A976" s="2"/>
       <c r="B976" s="2"/>
       <c r="C976" s="2"/>
@@ -51564,7 +51565,7 @@
       <c r="AW976" s="2"/>
       <c r="AX976" s="2"/>
     </row>
-    <row r="977" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="977" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A977" s="2"/>
       <c r="B977" s="2"/>
       <c r="C977" s="2"/>
@@ -51616,7 +51617,7 @@
       <c r="AW977" s="2"/>
       <c r="AX977" s="2"/>
     </row>
-    <row r="978" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="978" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A978" s="2"/>
       <c r="B978" s="2"/>
       <c r="C978" s="2"/>
@@ -51668,7 +51669,7 @@
       <c r="AW978" s="2"/>
       <c r="AX978" s="2"/>
     </row>
-    <row r="979" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="979" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A979" s="2"/>
       <c r="B979" s="2"/>
       <c r="C979" s="2"/>
@@ -51720,7 +51721,7 @@
       <c r="AW979" s="2"/>
       <c r="AX979" s="2"/>
     </row>
-    <row r="980" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="980" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A980" s="2"/>
       <c r="B980" s="2"/>
       <c r="C980" s="2"/>
@@ -51772,7 +51773,7 @@
       <c r="AW980" s="2"/>
       <c r="AX980" s="2"/>
     </row>
-    <row r="981" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="981" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A981" s="2"/>
       <c r="B981" s="2"/>
       <c r="C981" s="2"/>
@@ -51824,7 +51825,7 @@
       <c r="AW981" s="2"/>
       <c r="AX981" s="2"/>
     </row>
-    <row r="982" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="982" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A982" s="2"/>
       <c r="B982" s="2"/>
       <c r="C982" s="2"/>
@@ -51876,7 +51877,7 @@
       <c r="AW982" s="2"/>
       <c r="AX982" s="2"/>
     </row>
-    <row r="983" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="983" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A983" s="2"/>
       <c r="B983" s="2"/>
       <c r="C983" s="2"/>
@@ -51928,7 +51929,7 @@
       <c r="AW983" s="2"/>
       <c r="AX983" s="2"/>
     </row>
-    <row r="984" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="984" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A984" s="2"/>
       <c r="B984" s="2"/>
       <c r="C984" s="2"/>
@@ -51980,7 +51981,7 @@
       <c r="AW984" s="2"/>
       <c r="AX984" s="2"/>
     </row>
-    <row r="985" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="985" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A985" s="2"/>
       <c r="B985" s="2"/>
       <c r="C985" s="2"/>
@@ -52032,7 +52033,7 @@
       <c r="AW985" s="2"/>
       <c r="AX985" s="2"/>
     </row>
-    <row r="986" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="986" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A986" s="2"/>
       <c r="B986" s="2"/>
       <c r="C986" s="2"/>
@@ -52084,7 +52085,7 @@
       <c r="AW986" s="2"/>
       <c r="AX986" s="2"/>
     </row>
-    <row r="987" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="987" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A987" s="2"/>
       <c r="B987" s="2"/>
       <c r="C987" s="2"/>
@@ -52136,7 +52137,7 @@
       <c r="AW987" s="2"/>
       <c r="AX987" s="2"/>
     </row>
-    <row r="988" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="988" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A988" s="2"/>
       <c r="B988" s="2"/>
       <c r="C988" s="2"/>
@@ -52188,7 +52189,7 @@
       <c r="AW988" s="2"/>
       <c r="AX988" s="2"/>
     </row>
-    <row r="989" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="989" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A989" s="2"/>
       <c r="B989" s="2"/>
       <c r="C989" s="2"/>
@@ -52240,7 +52241,7 @@
       <c r="AW989" s="2"/>
       <c r="AX989" s="2"/>
     </row>
-    <row r="990" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="990" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A990" s="2"/>
       <c r="B990" s="2"/>
       <c r="C990" s="2"/>
@@ -52292,7 +52293,7 @@
       <c r="AW990" s="2"/>
       <c r="AX990" s="2"/>
     </row>
-    <row r="991" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="991" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A991" s="2"/>
       <c r="B991" s="2"/>
       <c r="C991" s="2"/>
@@ -52344,7 +52345,7 @@
       <c r="AW991" s="2"/>
       <c r="AX991" s="2"/>
     </row>
-    <row r="992" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="992" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A992" s="2"/>
       <c r="B992" s="2"/>
       <c r="C992" s="2"/>
@@ -52396,7 +52397,7 @@
       <c r="AW992" s="2"/>
       <c r="AX992" s="2"/>
     </row>
-    <row r="993" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="993" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A993" s="2"/>
       <c r="B993" s="2"/>
       <c r="C993" s="2"/>
@@ -52448,7 +52449,7 @@
       <c r="AW993" s="2"/>
       <c r="AX993" s="2"/>
     </row>
-    <row r="994" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="994" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A994" s="2"/>
       <c r="B994" s="2"/>
       <c r="C994" s="2"/>
@@ -52500,7 +52501,7 @@
       <c r="AW994" s="2"/>
       <c r="AX994" s="2"/>
     </row>
-    <row r="995" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="995" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A995" s="2"/>
       <c r="B995" s="2"/>
       <c r="C995" s="2"/>
@@ -52552,7 +52553,7 @@
       <c r="AW995" s="2"/>
       <c r="AX995" s="2"/>
     </row>
-    <row r="996" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="996" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A996" s="2"/>
       <c r="B996" s="2"/>
       <c r="C996" s="2"/>

--- a/Data Files/Input Validation/02. receivedate/Auto_ReceiveDate_C3-6.xlsx
+++ b/Data Files/Input Validation/02. receivedate/Auto_ReceiveDate_C3-6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\test gestamp\Data Files\Input Validation\02. receivedate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D48E5B9-9982-4C90-ACC8-2A2263E6BE09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC62144D-85B9-46E5-81C7-114F1E818B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1950" windowWidth="27675" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6555" yWindow="2760" windowWidth="9690" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -240,7 +240,7 @@
     <t/>
   </si>
   <si>
-    <t>2023-11-16</t>
+    <t>2024-01-02</t>
   </si>
 </sst>
 </file>
@@ -608,7 +608,7 @@
   <dimension ref="A1:XFD996"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data Files/Input Validation/02. receivedate/Auto_ReceiveDate_C3-6.xlsx
+++ b/Data Files/Input Validation/02. receivedate/Auto_ReceiveDate_C3-6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\test gestamp\Data Files\Input Validation\02. receivedate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC62144D-85B9-46E5-81C7-114F1E818B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA71AB5-4D0D-4624-8CF1-C595EC639D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6555" yWindow="2760" windowWidth="9690" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -240,7 +240,7 @@
     <t/>
   </si>
   <si>
-    <t>2024-01-02</t>
+    <t>2024-01-16</t>
   </si>
 </sst>
 </file>
@@ -308,9 +308,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -348,7 +348,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -454,7 +454,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -596,7 +596,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/Data Files/Input Validation/02. receivedate/Auto_ReceiveDate_C3-6.xlsx
+++ b/Data Files/Input Validation/02. receivedate/Auto_ReceiveDate_C3-6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F15229-A62A-4393-817C-3BADCA0263D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E5B774-6FBC-483A-99C2-F439F94F77AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10545" yWindow="2985" windowWidth="12915" windowHeight="12615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -240,7 +240,7 @@
     <t/>
   </si>
   <si>
-    <t>2024-02-16</t>
+    <t>2024-04-16</t>
   </si>
 </sst>
 </file>
@@ -308,9 +308,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -348,7 +348,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -454,7 +454,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -596,7 +596,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/Data Files/Input Validation/02. receivedate/Auto_ReceiveDate_C3-6.xlsx
+++ b/Data Files/Input Validation/02. receivedate/Auto_ReceiveDate_C3-6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E5B774-6FBC-483A-99C2-F439F94F77AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8155CD-E491-433F-B0F1-4AD0398C7239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10545" yWindow="2985" windowWidth="12915" windowHeight="12615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8850" yWindow="2685" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -240,7 +240,7 @@
     <t/>
   </si>
   <si>
-    <t>2024-04-16</t>
+    <t>2024-07-01</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Input Validation/02. receivedate/Auto_ReceiveDate_C3-6.xlsx
+++ b/Data Files/Input Validation/02. receivedate/Auto_ReceiveDate_C3-6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8155CD-E491-433F-B0F1-4AD0398C7239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{627A385E-35E0-43F8-8CCD-A3B1D08461EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8850" yWindow="2685" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="7305" windowHeight="13260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -240,7 +240,7 @@
     <t/>
   </si>
   <si>
-    <t>2024-07-01</t>
+    <t>2024-08-16</t>
   </si>
 </sst>
 </file>
